--- a/data/IEEE9/ieee18_2/ieee18_2_2020.xlsx
+++ b/data/IEEE9/ieee18_2/ieee18_2_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4370E7-C840-4F0E-9D80-3B75AFEABD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD62E69-BA0E-4BC4-BED3-10A5EA7234F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22140" yWindow="5505" windowWidth="21600" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8160" yWindow="4950" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9030054644808738E-6</v>
+        <v>9.1755464480874303E-6</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4359818353600928E-6</v>
+        <v>5.070098442595471E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,15 +13510,15 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0546585434827789E-3</v>
+        <v>8.3090161816980236E-3</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16628940577952522</v>
+        <v>0.17841467495094895</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44046521855441961</v>
+        <v>0.4447004610405198</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13526,39 +13526,39 @@
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60073423456804753</v>
+        <v>0.63867534411971372</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64973899523471867</v>
+        <v>0.65636898498201179</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57723228375308955</v>
+        <v>0.60032157510321316</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43847664685302318</v>
+        <v>0.45217904206718018</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2502047927278952</v>
+        <v>0.25515934307894261</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5214008004220286E-2</v>
+        <v>5.740070139052604E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6568140814081463E-4</v>
+        <v>3.4458440382499839E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3123446954764769E-5</v>
+        <v>6.4349144953886422E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6483953552162382E-5</v>
+        <v>1.6645560939928683E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13587,39 +13587,39 @@
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3899773801317052</v>
+        <v>1.4038771539330224</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4188437606267812</v>
+        <v>1.3506301182889553</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4357641725565458</v>
+        <v>1.4220902280560073</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1249535469918484</v>
+        <v>1.1486367795600976</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0974112564294194</v>
+        <v>1.0660566491028645</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95522723113681773</v>
+        <v>0.88174821335706244</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84115382100250269</v>
+        <v>0.85764703317902247</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79930899938116751</v>
+        <v>0.83160431248747735</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7078125995540423</v>
+        <v>0.75205088702616996</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13627,55 +13627,55 @@
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68626735767311697</v>
+        <v>0.70793895844174171</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64933749529200302</v>
+        <v>0.70344895323300349</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65980964264112651</v>
+        <v>0.65314489877606463</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79747465952151197</v>
+        <v>0.82265806982219136</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95309373929201247</v>
+        <v>0.91571751422173753</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97652861508559219</v>
+        <v>1.0253550458398717</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0809418270973328</v>
+        <v>1.1025606636392795</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99695456775005464</v>
+        <v>1.0586218606005735</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0726562735802871</v>
+        <v>1.0621400356040098</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0620388018067051</v>
+        <v>1.1062904185486513</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1238506202285807</v>
+        <v>1.0897945408277145</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1095345818846765</v>
+        <v>1.1205200727944258</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.191781747968629</v>
+        <v>1.2166105343846423</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4060792349726766E-6</v>
+        <v>4.3606557377049172E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6395873335161986E-6</v>
+        <v>2.5350492212977355E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,23 +13712,23 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1121151511464707E-3</v>
+        <v>4.0273292717413894E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4876884199966002E-2</v>
+        <v>9.0939518785677867E-2</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21599736679110962</v>
+        <v>0.20752688181890924</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29219621463983192</v>
+        <v>0.28368564528139023</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31617591293055136</v>
+        <v>0.32566119031846791</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13736,31 +13736,31 @@
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28572998045777931</v>
+        <v>0.28861614187654477</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21695459089081875</v>
+        <v>0.23522445117636143</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12014784601290016</v>
+        <v>0.12138648360066201</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8427014021974801E-2</v>
+        <v>2.6786993982245485E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7580836929846858E-4</v>
+        <v>1.7932453668443796E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1868147977162798E-5</v>
+        <v>2.9723176478699916E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0803693883148939E-6</v>
+        <v>7.7571546127822977E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6786202185792349E-6</v>
+        <v>4.7694672131147537E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.587318277406967E-6</v>
+        <v>2.5611837493523513E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,55 +13813,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4088657290642583E-3</v>
+        <v>4.0273292717413894E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0939518785677867E-2</v>
+        <v>8.9207337475474477E-2</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20117401808975896</v>
+        <v>0.21176212430500943</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29786992754545977</v>
+        <v>0.27801193237576244</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30352887641332932</v>
+        <v>0.33198470857707896</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32486949761735934</v>
+        <v>0.31823950787006627</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27707149620148297</v>
+        <v>0.29150230329531024</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22608952103359009</v>
+        <v>0.22152205596220442</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12014784601290016</v>
+        <v>0.12881830912723316</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5966983962380827E-2</v>
+        <v>2.7333667328821924E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8108262037742264E-4</v>
+        <v>1.740502856054839E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9416751978919506E-5</v>
+        <v>3.1561723477382385E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1611730821980425E-6</v>
+        <v>8.2419767760811911E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13894,7 +13894,7 @@
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6134528054615828E-6</v>
+        <v>2.6657218615708144E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,11 +13914,11 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4512586687667985E-3</v>
+        <v>4.0273292717413894E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4010793544864307E-2</v>
+        <v>8.6609065510169392E-2</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13926,43 +13926,43 @@
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29786992754545977</v>
+        <v>0.27233821947013459</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30669063554263482</v>
+        <v>0.31301415380124586</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34807446173288503</v>
+        <v>0.34475946685923853</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29150230329531024</v>
+        <v>0.27707149620148297</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23294071864066859</v>
+        <v>0.23979191624774709</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12881830912723316</v>
+        <v>0.1189092084251383</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6513657308957266E-2</v>
+        <v>2.8427014021974801E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7053411821951452E-4</v>
+        <v>1.7580836929846858E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0029600978480329E-5</v>
+        <v>3.0336025478260739E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9187620005485967E-6</v>
+        <v>7.7571546127822977E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9030054644808738E-6</v>
+        <v>9.0846994535519115E-6</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1746365548139341E-6</v>
+        <v>5.2791746670323972E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,15 +14184,15 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7329455787234344E-3</v>
+        <v>8.3090161816980236E-3</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17148594971013539</v>
+        <v>0.17321813102033878</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41505376363781848</v>
+        <v>0.42775949109611905</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14200,15 +14200,15 @@
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63235182586110272</v>
+        <v>0.61970478934388062</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65636898498201179</v>
+        <v>0.62984902599283954</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55414299240296594</v>
+        <v>0.60609389794074409</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14216,23 +14216,23 @@
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23534114167475287</v>
+        <v>0.24772751755237146</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5214008004220286E-2</v>
+        <v>5.357398796449097E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4458440382499839E-4</v>
+        <v>3.6568140814081463E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8833503957839012E-5</v>
+        <v>6.2510597955203957E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6645560939928683E-5</v>
+        <v>1.5675916613330893E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,35 +14257,35 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4525885285420115</v>
+        <v>1.4831693396692116</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3621778325290712</v>
+        <v>1.3760776063303881</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3779155752240857</v>
+        <v>1.33698738982139</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2990247275511602</v>
+        <v>1.4084162835554688</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1841616284124719</v>
+        <v>1.136795163275973</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0765081848783828</v>
+        <v>1.0869597206539012</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96441210835928715</v>
+        <v>0.93685747669187891</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79992079056120358</v>
+        <v>0.83290721491424291</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14293,11 +14293,11 @@
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74467783911414864</v>
+        <v>0.75942393493819138</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71044534885633948</v>
+        <v>0.7466925605326834</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14305,51 +14305,51 @@
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64257356304937807</v>
+        <v>0.64933749529200302</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69313336196643593</v>
+        <v>0.67980387423631217</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88141936052377645</v>
+        <v>0.81426359972196483</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.934405626756875</v>
+        <v>0.92506157048930615</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0253550458398717</v>
+        <v>0.96676332893473615</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1025606636392795</v>
+        <v>1.124179500181226</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0277882141753141</v>
+        <v>1.0688997427423266</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1042049875091191</v>
+        <v>1.0305913216751779</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1505420352905973</v>
+        <v>1.0841646101776783</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1011465672946699</v>
+        <v>1.1124985937616252</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1315055637041751</v>
+        <v>1.0436216364261808</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.191781747968629</v>
+        <v>1.1793673547606227</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4515027322404369E-6</v>
+        <v>4.5423497267759557E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7441254457346622E-6</v>
+        <v>2.7179909176800464E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,55 +14386,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.281686909956635E-3</v>
+        <v>4.0273292717413894E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4876884199966002E-2</v>
+        <v>9.0939518785677867E-2</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20540926057585915</v>
+        <v>0.2223502305202599</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29786992754545977</v>
+        <v>0.28652250173420413</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30985239467194031</v>
+        <v>0.31301415380124586</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31823950787006627</v>
+        <v>0.32155450274371283</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29438846471407565</v>
+        <v>0.30304694897037204</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21923832342651159</v>
+        <v>0.23750818371205426</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12634103395170945</v>
+        <v>0.12138648360066201</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.870035069526302E-2</v>
+        <v>2.7333667328821924E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7756645299145325E-4</v>
+        <v>1.6877603452652984E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1868147977162798E-5</v>
+        <v>2.9416751978919506E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6763509188991491E-6</v>
+        <v>7.9995656944317453E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6786202185792349E-6</v>
+        <v>4.5423497267759557E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6657218615708144E-6</v>
+        <v>2.6918563896254302E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,51 +14487,51 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.281686909956635E-3</v>
+        <v>4.0273292717413894E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0939518785677867E-2</v>
+        <v>8.9207337475474477E-2</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21811498803415971</v>
+        <v>0.21387974554805952</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29219621463983192</v>
+        <v>0.28652250173420413</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30985239467194031</v>
+        <v>0.30669063554263482</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3348144822382989</v>
+        <v>0.32155450274371283</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2828438190390139</v>
+        <v>0.30016078755160658</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21695459089081875</v>
+        <v>0.22608952103359009</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1189092084251383</v>
+        <v>0.1251023963639476</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8153677348686582E-2</v>
+        <v>2.7060330655533704E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.740502856054839E-4</v>
+        <v>1.7229220191249919E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9723176478699916E-5</v>
+        <v>3.0029600978480329E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,7 +14564,7 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5423497267759557E-6</v>
+        <v>4.6786202185792349E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,7 +14588,7 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1545080908490118E-3</v>
+        <v>4.4512586687667985E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14596,15 +14596,15 @@
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20540926057585915</v>
+        <v>0.21176212430500943</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28935935818701802</v>
+        <v>0.28652250173420413</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32566119031846791</v>
+        <v>0.30985239467194031</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14612,23 +14612,23 @@
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30016078755160658</v>
+        <v>0.28861614187654477</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21923832342651159</v>
+        <v>0.22380578849789726</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1189092084251383</v>
+        <v>0.12014784601290016</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7880340675398362E-2</v>
+        <v>2.870035069526302E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8459878776339202E-4</v>
+        <v>1.7229220191249919E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14636,7 +14636,7 @@
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9187620005485967E-6</v>
+        <v>8.3227804699643415E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9030054644808738E-6</v>
+        <v>8.7213114754098344E-6</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2269056109231657E-6</v>
+        <v>5.1223674987047025E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,35 +14858,35 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7329455787234344E-3</v>
+        <v>8.8177314581285166E-3</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16802158708972861</v>
+        <v>0.18187903757135573</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41928900612391867</v>
+        <v>0.40658327866561811</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56737129056278046</v>
+        <v>0.55035015184589708</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64499886237832482</v>
+        <v>0.63867534411971372</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64310900548742567</v>
+        <v>0.68951893371847706</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5887769294281513</v>
+        <v>0.58300460659062048</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44304411192440885</v>
+        <v>0.46588143728133719</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14894,19 +14894,19 @@
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.357398796449097E-2</v>
+        <v>5.4667334657643847E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3755206905305968E-4</v>
+        <v>3.5864907336887592E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1284899956082304E-5</v>
+        <v>5.8833503957839012E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5514309225564595E-5</v>
+        <v>1.6322346164396085E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,39 +14931,39 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5443309619236123</v>
+        <v>1.5902021786144127</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.32047851112512</v>
+        <v>1.3760776063303881</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3506301182889553</v>
+        <v>1.4188437606267812</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3947423390549298</v>
+        <v>1.2990247275511602</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1960032446965967</v>
+        <v>1.1604783958442224</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0242505060007914</v>
+        <v>1.0765081848783828</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96441210835928715</v>
+        <v>0.88174821335706244</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80816739664946347</v>
+        <v>0.82466060882598313</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79123517110459007</v>
+        <v>0.79930899938116751</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14971,7 +14971,7 @@
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76119144520322091</v>
+        <v>0.7321936758621459</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14979,43 +14979,43 @@
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66286535977725325</v>
+        <v>0.64933749529200302</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6664743865061884</v>
+        <v>0.67313913037125028</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8646304203233236</v>
+        <v>0.83105253992241779</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.934405626756875</v>
+        <v>0.95309373929201247</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97652861508559219</v>
+        <v>1.0253550458398717</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1349889184521995</v>
+        <v>1.0809418270973328</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0072324498918077</v>
+        <v>1.0791776248840799</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0095588457226232</v>
+        <v>1.0726562735802871</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0620388018067051</v>
+        <v>1.1284162269196243</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1692587260964022</v>
+        <v>1.1352026466955361</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -15023,7 +15023,7 @@
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2786825004246751</v>
+        <v>1.2538537140086619</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6331967213114746E-6</v>
+        <v>4.3152322404371578E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6918563896254302E-6</v>
+        <v>2.5611837493523513E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,15 +15060,15 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1969010305515529E-3</v>
+        <v>4.239293970254094E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0073428130576172E-2</v>
+        <v>8.9207337475474477E-2</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20964450306195934</v>
+        <v>0.20540926057585915</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15076,19 +15076,19 @@
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30036711728402377</v>
+        <v>0.32249943118916241</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3348144822382989</v>
+        <v>0.31823950787006627</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30304694897037204</v>
+        <v>0.30016078755160658</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22837325356928292</v>
+        <v>0.23065698610497576</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15096,19 +15096,19 @@
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6786993982245485E-2</v>
+        <v>2.8153677348686582E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.740502856054839E-4</v>
+        <v>1.7580836929846858E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9110327479139093E-5</v>
+        <v>3.0642449978041152E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6763509188991491E-6</v>
+        <v>7.7571546127822977E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7240437158469943E-6</v>
+        <v>4.4969262295081963E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4827801651885035E-6</v>
+        <v>2.6395873335161986E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,43 +15161,43 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4088657290642583E-3</v>
+        <v>4.0273292717413894E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2278612234660917E-2</v>
+        <v>8.9207337475474477E-2</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22023260927720981</v>
+        <v>0.20117401808975896</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29786992754545977</v>
+        <v>0.26950136301732069</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31933767205985686</v>
+        <v>0.3288229494477734</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3348144822382989</v>
+        <v>0.32155450274371283</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29727462613284111</v>
+        <v>0.2828438190390139</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22837325356928292</v>
+        <v>0.22608952103359009</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12757967153947131</v>
+        <v>0.12014784601290016</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.870035069526302E-2</v>
+        <v>2.6513657308957266E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15205,7 +15205,7 @@
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9723176478699916E-5</v>
+        <v>2.9110327479139093E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5423497267759557E-6</v>
+        <v>4.4969262295081963E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.587318277406967E-6</v>
+        <v>2.6657218615708144E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,55 +15262,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0273292717413894E-3</v>
+        <v>4.4088657290642583E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8341246820372782E-2</v>
+        <v>8.7475156165271087E-2</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21176212430500943</v>
+        <v>0.20117401808975896</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26950136301732069</v>
+        <v>0.27801193237576244</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30352887641332932</v>
+        <v>0.30985239467194031</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32155450274371283</v>
+        <v>0.3314994873646524</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29150230329531024</v>
+        <v>0.27707149620148297</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23750818371205426</v>
+        <v>0.23979191624774709</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12014784601290016</v>
+        <v>0.12262512118842388</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8153677348686582E-2</v>
+        <v>2.7333667328821924E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7756645299145325E-4</v>
+        <v>1.8459878776339202E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0642449978041152E-5</v>
+        <v>3.0336025478260739E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4843878577306387E-6</v>
+        <v>7.9995656944317453E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17000,8 +17000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1883695355191256E-5</v>
+        <v>1.1537568306010929E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5200420590655566E-6</v>
+        <v>6.5859010697631888E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,47 +26485,47 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0465189323904138E-2</v>
+        <v>1.0888025256183095E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22077031992374743</v>
+        <v>0.22951369893062853</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54474050774562266</v>
+        <v>0.51777315587702744</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72671270021067158</v>
+        <v>0.69037706520013797</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78349321434327002</v>
+        <v>0.76750355690769312</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85900953437868155</v>
+        <v>0.86743119648043332</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72993742712312815</v>
+        <v>0.77417605906998432</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55112869150396182</v>
+        <v>0.57409238698329357</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3042749416436209</v>
+        <v>0.31979917336013219</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2907327039713574E-2</v>
+        <v>6.6658127579166698E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5219645362460563E-4</v>
+        <v>4.1707439897415078E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26533,7 +26533,7 @@
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9163404041327603E-5</v>
+        <v>2.0336673676510925E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,39 +26558,39 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0888517359717014</v>
+        <v>1.1795893806360098</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97757799130221756</v>
+        <v>0.95762742005115198</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0549009934653273</v>
+        <v>1.0131227362983837</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0062211183434506</v>
+        <v>1.0263455407103197</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84371516024388638</v>
+        <v>0.92364607016172828</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8246610744091567</v>
+        <v>0.7691550405546943</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73481696541328989</v>
+        <v>0.74908525600383924</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65292026403754855</v>
+        <v>0.63371672685997349</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61030953805422405</v>
+        <v>0.56290685548690556</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26598,31 +26598,31 @@
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56022677693966916</v>
+        <v>0.57132037648302891</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53035324124508743</v>
+        <v>0.54642455158584768</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52455735176140561</v>
+        <v>0.48958686164397858</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.49120338349979148</v>
+        <v>0.52665105035029203</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59073977046618942</v>
+        <v>0.6031763972128461</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73235334268891561</v>
+        <v>0.66260540528997125</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70212402090048298</v>
+        <v>0.73020898173650228</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26630,27 +26630,27 @@
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73935150225039503</v>
+        <v>0.76198471150295821</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75579459698240747</v>
+        <v>0.77154031775287435</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90760411819112441</v>
+        <v>0.82980947948902806</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84814195323338282</v>
+        <v>0.8733342884779387</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84772968206305521</v>
+        <v>0.82303852627481078</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95024936783517189</v>
+        <v>0.96888170838095966</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8841598360655738E-6</v>
+        <v>5.9418476775956281E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1612325134863303E-6</v>
+        <v>3.1941620188351465E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,31 +26687,31 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2854491534869387E-3</v>
+        <v>5.4968671196264163E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11038515996187372</v>
+        <v>0.11147808233773386</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28046045943338987</v>
+        <v>0.27776372424653034</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37425704060849585</v>
+        <v>0.34882209610112236</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.39574402153052929</v>
+        <v>0.41573109332500047</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43371559824021666</v>
+        <v>0.42950476718934077</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37971492421051611</v>
+        <v>0.38340147687275417</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26719,23 +26719,23 @@
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1598995866800661</v>
+        <v>0.16300443302336837</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5412130276432308E-2</v>
+        <v>3.5759308024240467E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1731771314968909E-4</v>
+        <v>2.1073232790272883E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5715248697083292E-5</v>
+        <v>3.8722848587363992E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4839295510651903E-6</v>
+        <v>9.28838461186797E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26768,7 +26768,7 @@
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2600210295327783E-6</v>
+        <v>3.3917390509280424E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,11 +26788,11 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4968671196264163E-3</v>
+        <v>5.2854491534869387E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10819931521015345</v>
+        <v>0.11475684946531427</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26800,23 +26800,23 @@
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37789060410954922</v>
+        <v>0.37425704060849585</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.39574402153052929</v>
+        <v>0.40773626460721202</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41687227403671312</v>
+        <v>0.44213726034196849</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35390905557484997</v>
+        <v>0.37234181888604007</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29565757929639619</v>
+        <v>0.27843480768689738</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26824,19 +26824,19 @@
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5064952528624148E-2</v>
+        <v>3.5412130276432308E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3048848364360966E-4</v>
+        <v>2.2609822681230282E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8346898601078904E-5</v>
+        <v>3.6843098655938554E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0266109307854073E-5</v>
+        <v>9.972791899058242E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0572233606557376E-6</v>
+        <v>5.6534084699453549E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2270915241839626E-6</v>
+        <v>3.1941620188351465E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,51 +26889,51 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4968671196264163E-3</v>
+        <v>5.12688567888233E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11475684946531427</v>
+        <v>0.1038276257067129</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27776372424653034</v>
+        <v>0.26428004831223273</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35245565960217573</v>
+        <v>0.34882209610112236</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41173367896610624</v>
+        <v>0.39974143588942351</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40845061193496135</v>
+        <v>0.42950476718934077</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38340147687275417</v>
+        <v>0.38708802953499216</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28130526962181385</v>
+        <v>0.27556434575198091</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15524231716511272</v>
+        <v>0.16145200985171723</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2981886041775189E-2</v>
+        <v>3.4717774780815988E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1073232790272883E-4</v>
+        <v>2.0853719948707539E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7970948614793817E-5</v>
+        <v>3.8346898601078904E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537568306010929E-5</v>
+        <v>1.2114446721311475E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3883240376702929E-6</v>
+        <v>6.6517600804608211E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.025377135776466E-2</v>
+        <v>1.0782316273113355E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21639863042030691</v>
+        <v>0.20765525141342581</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56092091886677975</v>
+        <v>0.52856009662446546</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69764419220224472</v>
+        <v>0.70491131920435146</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83945701536778938</v>
+        <v>0.83146218665000093</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88427452068393697</v>
+        <v>0.83374454807342624</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71519121647417605</v>
+        <v>0.76680295374550833</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55112869150396182</v>
+        <v>0.56261053924362769</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29806524895701642</v>
+        <v>0.32600886604673673</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5963772083550379E-2</v>
+        <v>6.8046838570399337E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6097696728721933E-4</v>
+        <v>4.5219645362460563E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2934297339306934E-5</v>
+        <v>7.5941897229587634E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9554493919722043E-5</v>
+        <v>1.8967859102130381E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,11 +27313,11 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1115361471377785</v>
+        <v>1.1569049694699327</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0274544194298818</v>
+        <v>0.98755327692775052</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27325,47 +27325,47 @@
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95591006242627796</v>
+        <v>1.0464699630771885</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84371516024388638</v>
+        <v>0.87035879688316709</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81673164100137641</v>
+        <v>0.7929433407780353</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69914623893691652</v>
+        <v>0.68487794834636728</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62091436874159012</v>
+        <v>0.6273155478007818</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61030953805422405</v>
+        <v>0.59253353209147952</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52836237303514733</v>
+        <v>0.5392564425822638</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56022677693966916</v>
+        <v>0.58241397602638867</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51428193090432717</v>
+        <v>0.56249586192660794</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47959529303899939</v>
+        <v>0.51956156745891613</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52665105035029203</v>
+        <v>0.51652314553586332</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27373,7 +27373,7 @@
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66260540528997125</v>
+        <v>0.71840375520912669</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27381,31 +27381,31 @@
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79305723932661232</v>
+        <v>0.76926552214681387</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7695291145871459</v>
+        <v>0.79216232383970908</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7951588989085745</v>
+        <v>0.75579459698240747</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90760411819112441</v>
+        <v>0.83845332823370533</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79775728274427082</v>
+        <v>0.82294961798882682</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80657775574931456</v>
+        <v>0.79011698522381835</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93161702728938423</v>
+        <v>0.91298468674359656</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9418476775956281E-6</v>
+        <v>6.0572233606557376E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3258800402304106E-6</v>
+        <v>3.2270915241839626E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,15 +27442,15 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3383036450218085E-3</v>
+        <v>5.12688567888233E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11038515996187372</v>
+        <v>0.10819931521015345</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28315719462024941</v>
+        <v>0.26428004831223273</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27458,19 +27458,19 @@
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.39574402153052929</v>
+        <v>0.38774919281274078</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40845061193496135</v>
+        <v>0.42529393613846489</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37971492421051611</v>
+        <v>0.36865526622380207</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29565757929639619</v>
+        <v>0.29852804123131266</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27478,15 +27478,15 @@
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6453663519856787E-2</v>
+        <v>3.2981886041775189E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2829335522795623E-4</v>
+        <v>2.1073232790272883E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6467148669653467E-5</v>
+        <v>3.6843098655938554E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8264719945355187E-6</v>
+        <v>5.6534084699453549E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4246685562768585E-6</v>
+        <v>3.2929505348815944E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,27 +27543,27 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4440126280915473E-3</v>
+        <v>5.2325946619520688E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11366392708945414</v>
+        <v>0.11257100471359399</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27506698905967086</v>
+        <v>0.25618984275165418</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36698991360638916</v>
+        <v>0.37789060410954922</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37975436409495233</v>
+        <v>0.38774919281274078</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41687227403671312</v>
+        <v>0.4379264292910926</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27571,27 +27571,27 @@
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30139850316622913</v>
+        <v>0.27269388381706444</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14748020130685707</v>
+        <v>0.14903262447850821</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3329063789583349E-2</v>
+        <v>3.4370597033007828E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1731771314968909E-4</v>
+        <v>2.2609822681230282E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6467148669653467E-5</v>
+        <v>3.7594998628508729E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.28838461186797E-6</v>
+        <v>9.8750194294596327E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,7 +27620,7 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5380327868852455E-6</v>
+        <v>5.7110963114754101E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,55 +27644,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4968671196264163E-3</v>
+        <v>5.2325946619520688E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11257100471359399</v>
+        <v>0.11038515996187372</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26158331312537325</v>
+        <v>0.27237025387281133</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34518853260006899</v>
+        <v>0.35245565960217573</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40373885024831774</v>
+        <v>0.41972850768389469</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43371559824021666</v>
+        <v>0.41687227403671312</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38340147687275417</v>
+        <v>0.37234181888604007</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27556434575198091</v>
+        <v>0.29852804123131266</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15524231716511272</v>
+        <v>0.14748020130685707</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4370597033007828E-2</v>
+        <v>3.5759308024240467E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1731771314968909E-4</v>
+        <v>2.0853719948707539E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6091198683368379E-5</v>
+        <v>3.5715248697083292E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.7772469598610216E-6</v>
+        <v>9.28838461186797E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2114446721311475E-5</v>
+        <v>1.142219262295082E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7176190911584525E-6</v>
+        <v>6.4541830483679252E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,11 +27914,11 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0676607290043617E-2</v>
+        <v>1.1099443222322572E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22732785417890827</v>
+        <v>0.21202694091686636</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27926,43 +27926,43 @@
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76304833522120519</v>
+        <v>0.75578120821909844</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81547252921442404</v>
+        <v>0.79948287177884703</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83374454807342624</v>
+        <v>0.8169012238699227</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77417605906998432</v>
+        <v>0.72256432179865204</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54538776763412888</v>
+        <v>0.55112869150396182</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29806524895701642</v>
+        <v>0.31358948067352771</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0129905057248296E-2</v>
+        <v>6.6658127579166698E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3024516946807136E-4</v>
+        <v>4.3463542629937818E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5941897229587634E-5</v>
+        <v>7.6693797202157809E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8967859102130381E-5</v>
+        <v>2.0336673676510925E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,7 +27987,7 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0888517359717014</v>
+        <v>1.1795893806360098</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27995,91 +27995,91 @@
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0340118648818555</v>
+        <v>0.99223360771491176</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97603448479314692</v>
+        <v>1.0263455407103197</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85259637245697983</v>
+        <v>0.90588364573554114</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83259050781693711</v>
+        <v>0.81673164100137641</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69201209364164185</v>
+        <v>0.69914623893691652</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66572262215593181</v>
+        <v>0.62091436874159012</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58660819677056475</v>
+        <v>0.61030953805422405</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5392564425822638</v>
+        <v>0.55015051212938026</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57686717625470885</v>
+        <v>0.56022677693966916</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51963903435124725</v>
+        <v>0.52499613779816734</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48958686164397858</v>
+        <v>0.51956156745891613</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50133128831422025</v>
+        <v>0.5063952407214346</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62804965070615937</v>
+        <v>0.63426796407948771</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69050458024954908</v>
+        <v>0.70445416772933789</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68808154048247339</v>
+        <v>0.73020898173650228</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78512666693334621</v>
+        <v>0.75340437736028165</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79216232383970908</v>
+        <v>0.72426269608201965</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80303175929380799</v>
+        <v>0.76366745736764097</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82116563074435056</v>
+        <v>0.8557410257230601</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82294961798882682</v>
+        <v>0.79775728274427082</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79834737048656634</v>
+        <v>0.79011698522381835</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89435234619780879</v>
+        <v>0.92230085701649034</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9995355191256833E-6</v>
+        <v>5.5957206284153006E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1941620188351465E-6</v>
+        <v>3.1283030081375146E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,7 +28116,7 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0211766958125912E-3</v>
+        <v>5.12688567888233E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28124,47 +28124,47 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27776372424653034</v>
+        <v>0.28046045943338987</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35245565960217573</v>
+        <v>0.37425704060849585</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.39174660717163501</v>
+        <v>0.41173367896610624</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40423978088408541</v>
+        <v>0.42529393613846489</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37234181888604007</v>
+        <v>0.36496871356156407</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27556434575198091</v>
+        <v>0.28130526962181385</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1598995866800661</v>
+        <v>0.14748020130685707</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6453663519856787E-2</v>
+        <v>3.3676241537391509E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1512258473403568E-4</v>
+        <v>2.2170796998099597E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6467148669653467E-5</v>
+        <v>3.9474748559934167E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.386157081466581E-6</v>
+        <v>9.5817020206638013E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7110963114754101E-6</v>
+        <v>5.7687841530054644E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1941620188351465E-6</v>
+        <v>3.4246685562768585E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,31 +28217,31 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4968671196264163E-3</v>
+        <v>5.2325946619520688E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10601347045843318</v>
+        <v>0.1038276257067129</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27506698905967086</v>
+        <v>0.27237025387281133</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35245565960217573</v>
+        <v>0.35972278660428242</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.39174660717163501</v>
+        <v>0.37975436409495233</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.421083105087589</v>
+        <v>0.40002894983320952</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37971492421051611</v>
+        <v>0.36865526622380207</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28249,23 +28249,23 @@
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15058504765015934</v>
+        <v>0.15368989399346158</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4370597033007828E-2</v>
+        <v>3.2981886041775189E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2609822681230282E-4</v>
+        <v>2.2170796998099597E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9474748559934167E-5</v>
+        <v>3.8722848587363992E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.386157081466581E-6</v>
+        <v>9.5817020206638013E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28298,7 +28298,7 @@
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3588095455792263E-6</v>
+        <v>3.2270915241839626E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,55 +28318,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4968671196264163E-3</v>
+        <v>5.12688567888233E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10710639283429331</v>
+        <v>0.11257100471359399</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25888657793851372</v>
+        <v>0.28046045943338987</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37789060410954922</v>
+        <v>0.35608922310322905</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.39574402153052929</v>
+        <v>0.41173367896610624</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41687227403671312</v>
+        <v>0.40002894983320952</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37971492421051611</v>
+        <v>0.38340147687275417</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29852804123131266</v>
+        <v>0.27269388381706444</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15834716350841499</v>
+        <v>0.16300443302336837</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2981886041775189E-2</v>
+        <v>3.4023419285199669E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1073232790272883E-4</v>
+        <v>2.1951284156534253E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8722848587363992E-5</v>
+        <v>3.6467148669653467E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.6794744902624106E-6</v>
+        <v>9.386157081466581E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -30705,7 +30705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8887EC56-5E5B-40B7-BB11-11EDFDA79162}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/data/IEEE9/ieee18_2/ieee18_2_2020.xlsx
+++ b/data/IEEE9/ieee18_2/ieee18_2_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD62E69-BA0E-4BC4-BED3-10A5EA7234F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A5E5E1-4A0E-4C3E-8ACE-7DAA6D822CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="4950" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25635" yWindow="5430" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.1755464480874303E-6</v>
+        <v>8.6304644808743156E-6</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.070098442595471E-6</v>
+        <v>5.3837127792508603E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,55 +13510,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3090161816980236E-3</v>
+        <v>8.2242303022929415E-3</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17841467495094895</v>
+        <v>0.17668249364074556</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4447004610405198</v>
+        <v>0.43199473358221924</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59573985509091953</v>
+        <v>0.56169757765715267</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63867534411971372</v>
+        <v>0.64499886237832482</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65636898498201179</v>
+        <v>0.69614892346577006</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60032157510321316</v>
+        <v>0.5656876380780278</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45217904206718018</v>
+        <v>0.44304411192440885</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25515934307894261</v>
+        <v>0.24029569202580031</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.740070139052604E-2</v>
+        <v>5.2480641271338092E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4458440382499839E-4</v>
+        <v>3.5161673859693715E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4349144953886422E-5</v>
+        <v>6.189774895564313E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6645560939928683E-5</v>
+        <v>1.6968775715461277E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,7 +13583,7 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5443309619236123</v>
+        <v>1.4525885285420115</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13591,91 +13591,91 @@
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3506301182889553</v>
+        <v>1.4188437606267812</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4220902280560073</v>
+        <v>1.4357641725565458</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1486367795600976</v>
+        <v>1.2315280935489707</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0660566491028645</v>
+        <v>1.0033474344497548</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88174821335706244</v>
+        <v>0.89093309057953185</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85764703317902247</v>
+        <v>0.81641400273772324</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83160431248747735</v>
+        <v>0.79930899938116751</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75205088702616996</v>
+        <v>0.74467783911414864</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71044534885633948</v>
+        <v>0.71769479119160817</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70793895844174171</v>
+        <v>0.70071509151886668</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70344895323300349</v>
+        <v>0.6696292920198782</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65314489877606463</v>
+        <v>0.64648015491100275</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82265806982219136</v>
+        <v>0.87302489042355003</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.91571751422173753</v>
+        <v>0.88768534541903121</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0253550458398717</v>
+        <v>0.96676332893473615</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1025606636392795</v>
+        <v>1.091751245368306</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0586218606005735</v>
+        <v>0.98667668560830146</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0621400356040098</v>
+        <v>1.0305913216751779</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1062904185486513</v>
+        <v>1.0731017059921917</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0897945408277145</v>
+        <v>1.1011465672946699</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1205200727944258</v>
+        <v>1.0765781091554287</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2166105343846423</v>
+        <v>1.2414393208006553</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3606557377049172E-6</v>
+        <v>4.5877732240437152E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5350492212977355E-6</v>
+        <v>2.587318277406967E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,19 +13712,19 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0273292717413894E-3</v>
+        <v>4.1121151511464707E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0939518785677867E-2</v>
+        <v>8.5742974855067697E-2</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20752688181890924</v>
+        <v>0.22023260927720981</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28368564528139023</v>
+        <v>0.29503307109264587</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13732,23 +13732,23 @@
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3348144822382989</v>
+        <v>0.34144447198559197</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28861614187654477</v>
+        <v>0.30016078755160658</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23522445117636143</v>
+        <v>0.23065698610497576</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12138648360066201</v>
+        <v>0.12634103395170945</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6786993982245485E-2</v>
+        <v>2.870035069526302E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13756,11 +13756,11 @@
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9723176478699916E-5</v>
+        <v>3.0948874477821565E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7571546127822977E-6</v>
+        <v>8.0803693883148939E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7694672131147537E-6</v>
+        <v>4.5877732240437152E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5611837493523513E-6</v>
+        <v>2.6657218615708144E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,55 +13813,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0273292717413894E-3</v>
+        <v>4.3240798496591761E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9207337475474477E-2</v>
+        <v>8.4010793544864307E-2</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21176212430500943</v>
+        <v>0.21599736679110962</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27801193237576244</v>
+        <v>0.27233821947013459</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33198470857707896</v>
+        <v>0.3288229494477734</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31823950787006627</v>
+        <v>0.3314994873646524</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29150230329531024</v>
+        <v>0.2828438190390139</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22152205596220442</v>
+        <v>0.23294071864066859</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12881830912723316</v>
+        <v>0.13005694671499501</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7333667328821924E-2</v>
+        <v>2.6786993982245485E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.740502856054839E-4</v>
+        <v>1.8108262037742264E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1561723477382385E-5</v>
+        <v>2.9416751978919506E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2419767760811911E-6</v>
+        <v>7.7571546127822977E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4060792349726766E-6</v>
+        <v>4.5877732240437152E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6657218615708144E-6</v>
+        <v>2.6395873335161986E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,31 +13914,31 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0273292717413894E-3</v>
+        <v>4.4088657290642583E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6609065510169392E-2</v>
+        <v>9.0939518785677867E-2</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21811498803415971</v>
+        <v>0.20964450306195934</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27233821947013459</v>
+        <v>0.27801193237576244</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31301415380124586</v>
+        <v>0.3288229494477734</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34475946685923853</v>
+        <v>0.31492451299641977</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27707149620148297</v>
+        <v>0.2828438190390139</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13946,7 +13946,7 @@
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1189092084251383</v>
+        <v>0.13005694671499501</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13954,7 +13954,7 @@
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7580836929846858E-4</v>
+        <v>1.8459878776339202E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14164,7 +14164,7 @@
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2791746670323972E-6</v>
+        <v>5.0178293864862386E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,39 +14184,39 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3090161816980236E-3</v>
+        <v>8.3938020611031058E-3</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17321813102033878</v>
+        <v>0.18187903757135573</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42775949109611905</v>
+        <v>0.40234803617951792</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56169757765715267</v>
+        <v>0.57871871637403605</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61970478934388062</v>
+        <v>0.66396941715415791</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62984902599283954</v>
+        <v>0.68951893371847706</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60609389794074409</v>
+        <v>0.58300460659062048</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43847664685302318</v>
+        <v>0.44304411192440885</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24772751755237146</v>
+        <v>0.2378184168502766</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14224,15 +14224,15 @@
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6568140814081463E-4</v>
+        <v>3.5161673859693715E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2510597955203957E-5</v>
+        <v>6.3736295954325596E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5675916613330893E-5</v>
+        <v>1.5999131388863491E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,87 +14257,87 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4831693396692116</v>
+        <v>1.4678789341056113</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3760776063303881</v>
+        <v>1.3482780587277541</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.33698738982139</v>
+        <v>1.3097019328862598</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4084162835554688</v>
+        <v>1.3810683945543913</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.136795163275973</v>
+        <v>1.1841616284124719</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0869597206539012</v>
+        <v>1.0033474344497548</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93685747669187891</v>
+        <v>0.88174821335706244</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83290721491424291</v>
+        <v>0.79992079056120358</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83160431248747735</v>
+        <v>0.7750875145514351</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75942393493819138</v>
+        <v>0.72993174329010624</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7466925605326834</v>
+        <v>0.70319590652107067</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69349122459599177</v>
+        <v>0.72238669228749153</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64933749529200302</v>
+        <v>0.67639322426250326</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67980387423631217</v>
+        <v>0.63315066718087898</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81426359972196483</v>
+        <v>0.85623595022309706</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92506157048930615</v>
+        <v>0.94374968302444384</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96676332893473615</v>
+        <v>0.99605918738730392</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.124179500181226</v>
+        <v>1.0485135722844128</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0688997427423266</v>
+        <v>0.97639880346654828</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0305913216751779</v>
+        <v>1.0936887495328418</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0841646101776783</v>
+        <v>1.0731017059921917</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14345,11 +14345,11 @@
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0436216364261808</v>
+        <v>1.0985490909749271</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1793673547606227</v>
+        <v>1.2662681072166684</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14366,7 +14366,7 @@
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7179909176800464E-6</v>
+        <v>2.6918563896254302E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,23 +14386,23 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0273292717413894E-3</v>
+        <v>4.4088657290642583E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0939518785677867E-2</v>
+        <v>8.5742974855067697E-2</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2223502305202599</v>
+        <v>0.21387974554805952</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28652250173420413</v>
+        <v>0.29786992754545977</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31301415380124586</v>
+        <v>0.30669063554263482</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14410,31 +14410,31 @@
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30304694897037204</v>
+        <v>0.29727462613284111</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23750818371205426</v>
+        <v>0.22608952103359009</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12138648360066201</v>
+        <v>0.12262512118842388</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7333667328821924E-2</v>
+        <v>2.8153677348686582E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6877603452652984E-4</v>
+        <v>1.7580836929846858E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9416751978919506E-5</v>
+        <v>3.0642449978041152E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9995656944317453E-6</v>
+        <v>7.7571546127822977E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5423497267759557E-6</v>
+        <v>4.6786202185792349E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6918563896254302E-6</v>
+        <v>2.6657218615708144E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,7 +14487,7 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0273292717413894E-3</v>
+        <v>4.281686909956635E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14495,47 +14495,47 @@
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21387974554805952</v>
+        <v>0.21811498803415971</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28652250173420413</v>
+        <v>0.28935935818701802</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30669063554263482</v>
+        <v>0.30985239467194031</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32155450274371283</v>
+        <v>0.3281844924910059</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30016078755160658</v>
+        <v>0.2828438190390139</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22608952103359009</v>
+        <v>0.21923832342651159</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1251023963639476</v>
+        <v>0.12757967153947131</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7060330655533704E-2</v>
+        <v>2.7880340675398362E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7229220191249919E-4</v>
+        <v>1.8108262037742264E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0029600978480329E-5</v>
+        <v>2.9110327479139093E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4035841638474901E-6</v>
+        <v>7.6763509188991491E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6786202185792349E-6</v>
+        <v>4.4060792349726766E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5350492212977355E-6</v>
+        <v>2.6657218615708144E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,35 +14588,35 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4512586687667985E-3</v>
+        <v>4.4088657290642583E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6609065510169392E-2</v>
+        <v>9.0073428130576172E-2</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21176212430500943</v>
+        <v>0.21599736679110962</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28652250173420413</v>
+        <v>0.29219621463983192</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30985239467194031</v>
+        <v>0.31933767205985686</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3348144822382989</v>
+        <v>0.3314994873646524</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28861614187654477</v>
+        <v>0.30016078755160658</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22380578849789726</v>
+        <v>0.21695459089081875</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14624,15 +14624,15 @@
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.870035069526302E-2</v>
+        <v>2.8427014021974801E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7229220191249919E-4</v>
+        <v>1.740502856054839E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0642449978041152E-5</v>
+        <v>3.1255298977601978E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7213114754098344E-6</v>
+        <v>9.3572404371584697E-6</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1223674987047025E-6</v>
+        <v>4.965560330377007E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,31 +14858,31 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8177314581285166E-3</v>
+        <v>8.1394444228878593E-3</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18187903757135573</v>
+        <v>0.17321813102033878</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40658327866561811</v>
+        <v>0.44046521855441961</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55035015184589708</v>
+        <v>0.58439242927966384</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63867534411971372</v>
+        <v>0.65132238063693582</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68951893371847706</v>
+        <v>0.67625895422389093</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58300460659062048</v>
+        <v>0.55414299240296594</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14890,23 +14890,23 @@
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24029569202580031</v>
+        <v>0.2502047927278952</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4667334657643847E-2</v>
+        <v>5.1933967924761654E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5864907336887592E-4</v>
+        <v>3.6216524075484527E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8833503957839012E-5</v>
+        <v>6.0059201956960658E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6322346164396085E-5</v>
+        <v>1.5837524001097193E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,71 +14931,71 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5902021786144127</v>
+        <v>1.5443309619236123</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3760776063303881</v>
+        <v>1.4038771539330224</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4188437606267812</v>
+        <v>1.3642728467565204</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2990247275511602</v>
+        <v>1.4084162835554688</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1604783958442224</v>
+        <v>1.1486367795600976</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0765081848783828</v>
+        <v>1.0869597206539012</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88174821335706244</v>
+        <v>0.89093309057953185</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82466060882598313</v>
+        <v>0.86589363926728224</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79930899938116751</v>
+        <v>0.7750875145514351</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72255869537808493</v>
+        <v>0.73730479120212744</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7321936758621459</v>
+        <v>0.71044534885633948</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71516282536461651</v>
+        <v>0.74405829305611626</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64933749529200302</v>
+        <v>0.67639322426250326</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67313913037125028</v>
+        <v>0.65980964264112651</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83105253992241779</v>
+        <v>0.85623595022309706</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95309373929201247</v>
+        <v>0.92506157048930615</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0253550458398717</v>
+        <v>0.97652861508559219</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -15007,23 +15007,23 @@
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0726562735802871</v>
+        <v>0.9990426077463459</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1284162269196243</v>
+        <v>1.1394791311051107</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1352026466955361</v>
+        <v>1.1579066996294469</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1534765455236737</v>
+        <v>1.0985490909749271</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2538537140086619</v>
+        <v>1.2414393208006553</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3152322404371578E-6</v>
+        <v>4.4060792349726766E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5611837493523513E-6</v>
+        <v>2.5089146932431193E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,35 +15060,35 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.239293970254094E-3</v>
+        <v>4.4088657290642583E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9207337475474477E-2</v>
+        <v>9.0939518785677867E-2</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20540926057585915</v>
+        <v>0.22023260927720981</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28084878882857633</v>
+        <v>0.28652250173420413</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32249943118916241</v>
+        <v>0.3288229494477734</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31823950787006627</v>
+        <v>0.34475946685923853</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30016078755160658</v>
+        <v>0.2741853347827175</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23065698610497576</v>
+        <v>0.22608952103359009</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15096,15 +15096,15 @@
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8153677348686582E-2</v>
+        <v>2.8427014021974801E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7580836929846858E-4</v>
+        <v>1.6701795083354514E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0642449978041152E-5</v>
+        <v>2.9416751978919506E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4969262295081963E-6</v>
+        <v>4.6786202185792349E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6395873335161986E-6</v>
+        <v>2.7179909176800464E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,7 +15161,7 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0273292717413894E-3</v>
+        <v>4.0697222114439296E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15169,7 +15169,7 @@
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20117401808975896</v>
+        <v>0.21811498803415971</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15177,39 +15177,39 @@
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3288229494477734</v>
+        <v>0.30036711728402377</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32155450274371283</v>
+        <v>0.31492451299641977</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2828438190390139</v>
+        <v>0.28572998045777931</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22608952103359009</v>
+        <v>0.22152205596220442</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12014784601290016</v>
+        <v>0.1189092084251383</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6513657308957266E-2</v>
+        <v>2.870035069526302E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8284070407040731E-4</v>
+        <v>1.6877603452652984E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9110327479139093E-5</v>
+        <v>3.0029600978480329E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9187620005485967E-6</v>
+        <v>8.4035841638474901E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4969262295081963E-6</v>
+        <v>4.3152322404371578E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6657218615708144E-6</v>
+        <v>2.5611837493523513E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,43 +15262,43 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4088657290642583E-3</v>
+        <v>4.0273292717413894E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7475156165271087E-2</v>
+        <v>8.4010793544864307E-2</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20117401808975896</v>
+        <v>0.21387974554805952</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27801193237576244</v>
+        <v>0.28084878882857633</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30985239467194031</v>
+        <v>0.33198470857707896</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3314994873646524</v>
+        <v>0.31492451299641977</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27707149620148297</v>
+        <v>0.30304694897037204</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23979191624774709</v>
+        <v>0.23750818371205426</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12262512118842388</v>
+        <v>0.12634103395170945</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7333667328821924E-2</v>
+        <v>2.870035069526302E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15306,11 +15306,11 @@
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0336025478260739E-5</v>
+        <v>3.1561723477382385E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9995656944317453E-6</v>
+        <v>7.9187620005485967E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537568306010929E-5</v>
+        <v>1.1883695355191256E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5859010697631888E-6</v>
+        <v>6.6517600804608211E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,39 +26485,39 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0888025256183095E-2</v>
+        <v>1.0042353391625182E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22951369893062853</v>
+        <v>0.22732785417890827</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51777315587702744</v>
+        <v>0.55552744849306068</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69037706520013797</v>
+        <v>0.74124695421488507</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76750355690769312</v>
+        <v>0.80747770049663548</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86743119648043332</v>
+        <v>0.82532288597167447</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77417605906998432</v>
+        <v>0.70781811114969995</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57409238698329357</v>
+        <v>0.56261053924362769</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31979917336013219</v>
+        <v>0.31669432701682998</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26525,15 +26525,15 @@
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1707439897415078E-4</v>
+        <v>4.2585491263676448E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1430497394166584E-5</v>
+        <v>7.6693797202157809E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0336673676510925E-5</v>
+        <v>1.8772314162933162E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,99 +26558,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1795893806360098</v>
+        <v>1.1682471750529713</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95762742005115198</v>
+        <v>1.0474049906809475</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0131227362983837</v>
+        <v>1.0235673005901196</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0263455407103197</v>
+        <v>0.98609669597658145</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92364607016172828</v>
+        <v>0.87035879688316709</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7691550405546943</v>
+        <v>0.81673164100137641</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74908525600383924</v>
+        <v>0.70628038423219119</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63371672685997349</v>
+        <v>0.64651908497835686</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56290685548690556</v>
+        <v>0.58660819677056475</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52291533826158909</v>
+        <v>0.5555975469029385</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57132037648302891</v>
+        <v>0.54358637762462947</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54642455158584768</v>
+        <v>0.53571034469200751</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48958686164397858</v>
+        <v>0.49458264594646817</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52665105035029203</v>
+        <v>0.50133128831422025</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6031763972128461</v>
+        <v>0.61561302395950268</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66260540528997125</v>
+        <v>0.71840375520912669</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73020898173650228</v>
+        <v>0.69510278069147802</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75340437736028165</v>
+        <v>0.78512666693334621</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76198471150295821</v>
+        <v>0.78461792075552139</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77154031775287435</v>
+        <v>0.82665034044950825</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82980947948902806</v>
+        <v>0.88167257195709225</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8733342884779387</v>
+        <v>0.84814195323338282</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82303852627481078</v>
+        <v>0.83949929680030699</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96888170838095966</v>
+        <v>0.94093319756227811</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9418476775956281E-6</v>
+        <v>5.9995355191256833E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1941620188351465E-6</v>
+        <v>3.3917390509280424E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,51 +26687,51 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4968671196264163E-3</v>
+        <v>5.2325946619520688E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11147808233773386</v>
+        <v>0.10710639283429331</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27776372424653034</v>
+        <v>0.26428004831223273</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34882209610112236</v>
+        <v>0.35972278660428242</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41573109332500047</v>
+        <v>0.39974143588942351</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42950476718934077</v>
+        <v>0.40002894983320952</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38340147687275417</v>
+        <v>0.36865526622380207</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30139850316622913</v>
+        <v>0.27269388381706444</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16300443302336837</v>
+        <v>0.15834716350841499</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5759308024240467E-2</v>
+        <v>3.5412130276432308E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1073232790272883E-4</v>
+        <v>2.1512258473403568E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8722848587363992E-5</v>
+        <v>3.5715248697083292E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9995355191256833E-6</v>
+        <v>5.8264719945355187E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3917390509280424E-6</v>
+        <v>3.3588095455792263E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26796,23 +26796,23 @@
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25888657793851372</v>
+        <v>0.27237025387281133</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37425704060849585</v>
+        <v>0.35608922310322905</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40773626460721202</v>
+        <v>0.37975436409495233</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44213726034196849</v>
+        <v>0.421083105087589</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37234181888604007</v>
+        <v>0.37971492421051611</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26820,23 +26820,23 @@
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15213747082181045</v>
+        <v>0.15368989399346158</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5412130276432308E-2</v>
+        <v>3.6106485772048627E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2609822681230282E-4</v>
+        <v>2.1951284156534253E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6843098655938554E-5</v>
+        <v>3.6467148669653467E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.972791899058242E-6</v>
+        <v>9.4839295510651903E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6534084699453549E-6</v>
+        <v>5.4803449453551911E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1941620188351465E-6</v>
+        <v>3.4246685562768585E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26893,15 +26893,15 @@
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1038276257067129</v>
+        <v>0.11038515996187372</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26428004831223273</v>
+        <v>0.28315719462024941</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34882209610112236</v>
+        <v>0.37789060410954922</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26909,19 +26909,19 @@
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42950476718934077</v>
+        <v>0.4379264292910926</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38708802953499216</v>
+        <v>0.37234181888604007</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27556434575198091</v>
+        <v>0.28991665542656325</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16145200985171723</v>
+        <v>0.15368989399346158</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26929,15 +26929,15 @@
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0853719948707539E-4</v>
+        <v>2.1731771314968909E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8346898601078904E-5</v>
+        <v>3.7594998628508729E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.8750194294596327E-6</v>
+        <v>1.0070564368656853E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2114446721311475E-5</v>
+        <v>1.1999071038251367E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6517600804608211E-6</v>
+        <v>6.7176190911584525E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,35 +27240,35 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0782316273113355E-2</v>
+        <v>1.1099443222322572E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20765525141342581</v>
+        <v>0.22732785417890827</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52856009662446546</v>
+        <v>0.55552744849306068</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70491131920435146</v>
+        <v>0.73397982721277832</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83146218665000093</v>
+        <v>0.77549838562548157</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83374454807342624</v>
+        <v>0.85900953437868155</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76680295374550833</v>
+        <v>0.74468363777208013</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56261053924362769</v>
+        <v>0.57409238698329357</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27276,19 +27276,19 @@
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8046838570399337E-2</v>
+        <v>6.8741194066015657E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5219645362460563E-4</v>
+        <v>4.3902568313068505E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5941897229587634E-5</v>
+        <v>7.1430497394166584E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8967859102130381E-5</v>
+        <v>1.9945583798116484E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,39 +27313,39 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1569049694699327</v>
+        <v>1.0888517359717014</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98755327692775052</v>
+        <v>1.0274544194298818</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0131227362983837</v>
+        <v>1.0235673005901196</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0464699630771885</v>
+        <v>1.0263455407103197</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87035879688316709</v>
+        <v>0.84371516024388638</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7929433407780353</v>
+        <v>0.7691550405546943</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68487794834636728</v>
+        <v>0.74195111070856457</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6273155478007818</v>
+        <v>0.67212380121512338</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59253353209147952</v>
+        <v>0.5984588674123944</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27353,15 +27353,15 @@
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58241397602638867</v>
+        <v>0.55467997716798922</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56249586192660794</v>
+        <v>0.51963903435124725</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51956156745891613</v>
+        <v>0.50956999885393695</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27369,43 +27369,43 @@
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6031763972128461</v>
+        <v>0.64048627745281594</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71840375520912669</v>
+        <v>0.67655499276976017</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69510278069147802</v>
+        <v>0.71616650131849258</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76926552214681387</v>
+        <v>0.83271010129294298</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79216232383970908</v>
+        <v>0.78461792075552139</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75579459698240747</v>
+        <v>0.81877748006427487</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83845332823370533</v>
+        <v>0.82116563074435056</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82294961798882682</v>
+        <v>0.80615472782578956</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79011698522381835</v>
+        <v>0.82303852627481078</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.91298468674359656</v>
+        <v>0.90366851647070268</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0572233606557376E-6</v>
+        <v>5.4803449453551911E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2270915241839626E-6</v>
+        <v>3.3588095455792263E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,19 +27442,19 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.12688567888233E-3</v>
+        <v>5.4968671196264163E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10819931521015345</v>
+        <v>0.11038515996187372</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26428004831223273</v>
+        <v>0.26158331312537325</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36335635010533579</v>
+        <v>0.35608922310322905</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27462,27 +27462,27 @@
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42529393613846489</v>
+        <v>0.4379264292910926</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36865526622380207</v>
+        <v>0.36496871356156407</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29852804123131266</v>
+        <v>0.27843480768689738</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16300443302336837</v>
+        <v>0.14748020130685707</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2981886041775189E-2</v>
+        <v>3.4023419285199669E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1073232790272883E-4</v>
+        <v>2.1951284156534253E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27490,7 +27490,7 @@
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.28838461186797E-6</v>
+        <v>9.5817020206638013E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6534084699453549E-6</v>
+        <v>5.8264719945355187E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2929505348815944E-6</v>
+        <v>3.4575980616256742E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,55 +27543,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2325946619520688E-3</v>
+        <v>5.1797401704171998E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11257100471359399</v>
+        <v>0.11366392708945414</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25618984275165418</v>
+        <v>0.26428004831223273</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37789060410954922</v>
+        <v>0.38152416761060259</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38774919281274078</v>
+        <v>0.41573109332500047</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4379264292910926</v>
+        <v>0.40002894983320952</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37971492421051611</v>
+        <v>0.37602837154827812</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27269388381706444</v>
+        <v>0.29278711736147972</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14903262447850821</v>
+        <v>0.16300443302336837</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4370597033007828E-2</v>
+        <v>3.4717774780815988E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2609822681230282E-4</v>
+        <v>2.1731771314968909E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7594998628508729E-5</v>
+        <v>3.7970948614793817E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.8750194294596327E-6</v>
+        <v>9.6794744902624106E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,55 +27644,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2325946619520688E-3</v>
+        <v>5.4968671196264163E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11038515996187372</v>
+        <v>0.1038276257067129</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27237025387281133</v>
+        <v>0.26697678349909226</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35245565960217573</v>
+        <v>0.35972278660428242</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41972850768389469</v>
+        <v>0.39174660717163501</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41687227403671312</v>
+        <v>0.4379264292910926</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37234181888604007</v>
+        <v>0.36496871356156407</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29852804123131266</v>
+        <v>0.28704619349164678</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14748020130685707</v>
+        <v>0.1598995866800661</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5759308024240467E-2</v>
+        <v>3.3676241537391509E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0853719948707539E-4</v>
+        <v>2.1292745631838224E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5715248697083292E-5</v>
+        <v>3.6467148669653467E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.28838461186797E-6</v>
+        <v>9.972791899058242E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.142219262295082E-5</v>
+        <v>1.0960689890710382E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4541830483679252E-6</v>
+        <v>6.3224650269726606E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,55 +27914,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1099443222322572E-2</v>
+        <v>1.0888025256183095E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21202694091686636</v>
+        <v>0.22514200942718798</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51237968550330837</v>
+        <v>0.55552744849306068</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75578120821909844</v>
+        <v>0.7485140812169917</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79948287177884703</v>
+        <v>0.82346735793221248</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8169012238699227</v>
+        <v>0.85900953437868155</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72256432179865204</v>
+        <v>0.72993742712312815</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55112869150396182</v>
+        <v>0.57409238698329357</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31358948067352771</v>
+        <v>0.30117009530031869</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6658127579166698E-2</v>
+        <v>7.2907327039713574E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3463542629937818E-4</v>
+        <v>4.3024516946807136E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6693797202157809E-5</v>
+        <v>7.3686197311877109E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0336673676510925E-5</v>
+        <v>1.8772314162933162E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,27 +27987,27 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1795893806360098</v>
+        <v>1.1682471750529713</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94765213442561902</v>
+        <v>0.97757799130221756</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99223360771491176</v>
+        <v>1.0026781720066478</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0263455407103197</v>
+        <v>0.9659722736097125</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90588364573554114</v>
+        <v>0.93252728237482185</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81673164100137641</v>
+        <v>0.80087277418581571</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28015,11 +28015,11 @@
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62091436874159012</v>
+        <v>0.61451318968239854</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61030953805422405</v>
+        <v>0.5984588674123944</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28027,35 +28027,35 @@
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56022677693966916</v>
+        <v>0.57132037648302891</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52499613779816734</v>
+        <v>0.53571034469200751</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51956156745891613</v>
+        <v>0.48459107734148904</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5063952407214346</v>
+        <v>0.51652314553586332</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63426796407948771</v>
+        <v>0.59695808383951776</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70445416772933789</v>
+        <v>0.66260540528997125</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73020898173650228</v>
+        <v>0.68808154048247339</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75340437736028165</v>
+        <v>0.82477952889967687</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28063,7 +28063,7 @@
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76366745736764097</v>
+        <v>0.78728603852334111</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28071,15 +28071,15 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79775728274427082</v>
+        <v>0.84814195323338282</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79011698522381835</v>
+        <v>0.80657775574931456</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92230085701649034</v>
+        <v>0.91298468674359656</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28096,7 +28096,7 @@
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1283030081375146E-6</v>
+        <v>3.3588095455792263E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,19 +28116,19 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.12688567888233E-3</v>
+        <v>5.4968671196264163E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1038276257067129</v>
+        <v>0.10492054808257303</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28046045943338987</v>
+        <v>0.27506698905967086</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37425704060849585</v>
+        <v>0.35608922310322905</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28136,19 +28136,19 @@
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42529393613846489</v>
+        <v>0.41266144298583723</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36496871356156407</v>
+        <v>0.38340147687275417</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28130526962181385</v>
+        <v>0.27556434575198091</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14748020130685707</v>
+        <v>0.16145200985171723</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28156,15 +28156,15 @@
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2170796998099597E-4</v>
+        <v>2.1731771314968909E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9474748559934167E-5</v>
+        <v>3.8346898601078904E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5817020206638013E-6</v>
+        <v>9.8750194294596327E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7687841530054644E-6</v>
+        <v>5.4803449453551911E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4246685562768585E-6</v>
+        <v>3.3588095455792263E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,55 +28217,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2325946619520688E-3</v>
+        <v>5.3383036450218085E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1038276257067129</v>
+        <v>0.10601347045843318</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27237025387281133</v>
+        <v>0.25618984275165418</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35972278660428242</v>
+        <v>0.35608922310322905</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37975436409495233</v>
+        <v>0.41972850768389469</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40002894983320952</v>
+        <v>0.4379264292910926</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36865526622380207</v>
+        <v>0.37971492421051611</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28704619349164678</v>
+        <v>0.27269388381706444</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15368989399346158</v>
+        <v>0.16145200985171723</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2981886041775189E-2</v>
+        <v>3.5064952528624148E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2170796998099597E-4</v>
+        <v>2.0853719948707539E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8722848587363992E-5</v>
+        <v>3.6467148669653467E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5817020206638013E-6</v>
+        <v>9.28838461186797E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5957206284153006E-6</v>
+        <v>5.9418476775956281E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2270915241839626E-6</v>
+        <v>3.4575980616256742E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,23 +28318,23 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.12688567888233E-3</v>
+        <v>5.2325946619520688E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11257100471359399</v>
+        <v>0.10929223758601359</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28046045943338987</v>
+        <v>0.26428004831223273</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35608922310322905</v>
+        <v>0.34518853260006899</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41173367896610624</v>
+        <v>0.38774919281274078</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28342,31 +28342,31 @@
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38340147687275417</v>
+        <v>0.37971492421051611</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27269388381706444</v>
+        <v>0.29278711736147972</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16300443302336837</v>
+        <v>0.15524231716511272</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4023419285199669E-2</v>
+        <v>3.6106485772048627E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1951284156534253E-4</v>
+        <v>2.3048848364360966E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6467148669653467E-5</v>
+        <v>3.8722848587363992E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.386157081466581E-6</v>
+        <v>1.0266109307854073E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_2/ieee18_2_2020.xlsx
+++ b/data/IEEE9/ieee18_2/ieee18_2_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A5E5E1-4A0E-4C3E-8ACE-7DAA6D822CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59F0ED2-58C3-4B91-8E0C-267CFF5F6065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25635" yWindow="5430" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13695" yWindow="7500" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>2.5000000000000001E-2</v>
+            <v>0.01</v>
           </cell>
         </row>
         <row r="3">
@@ -8967,7 +8967,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6304644808743156E-6</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3837127792508603E-6</v>
+        <v>0</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,55 +13510,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2242303022929415E-3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17668249364074556</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43199473358221924</v>
+        <v>0</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56169757765715267</v>
+        <v>0</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64499886237832482</v>
+        <v>0</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69614892346577006</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5656876380780278</v>
+        <v>0</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44304411192440885</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24029569202580031</v>
+        <v>0</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2480641271338092E-2</v>
+        <v>0</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5161673859693715E-4</v>
+        <v>0</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.189774895564313E-5</v>
+        <v>0</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6968775715461277E-5</v>
+        <v>0</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,99 +13583,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4525885285420115</v>
+        <v>0</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4038771539330224</v>
+        <v>0</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4188437606267812</v>
+        <v>0</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4357641725565458</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2315280935489707</v>
+        <v>0</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0033474344497548</v>
+        <v>0</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89093309057953185</v>
+        <v>0</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81641400273772324</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79930899938116751</v>
+        <v>0</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74467783911414864</v>
+        <v>0</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71769479119160817</v>
+        <v>0</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70071509151886668</v>
+        <v>0</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6696292920198782</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64648015491100275</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87302489042355003</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88768534541903121</v>
+        <v>0</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96676332893473615</v>
+        <v>0</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.091751245368306</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98667668560830146</v>
+        <v>0</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0305913216751779</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0731017059921917</v>
+        <v>0</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1011465672946699</v>
+        <v>0</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0765781091554287</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2414393208006553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5877732240437152E-6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.587318277406967E-6</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,55 +13712,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1121151511464707E-3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5742974855067697E-2</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22023260927720981</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29503307109264587</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32566119031846791</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34144447198559197</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30016078755160658</v>
+        <v>0</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23065698610497576</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12634103395170945</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.870035069526302E-2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7932453668443796E-4</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0948874477821565E-5</v>
+        <v>0</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0803693883148939E-6</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5877732240437152E-6</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6657218615708144E-6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,55 +13813,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3240798496591761E-3</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4010793544864307E-2</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21599736679110962</v>
+        <v>0</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27233821947013459</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3288229494477734</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3314994873646524</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2828438190390139</v>
+        <v>0</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23294071864066859</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13005694671499501</v>
+        <v>0</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6786993982245485E-2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8108262037742264E-4</v>
+        <v>0</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9416751978919506E-5</v>
+        <v>0</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7571546127822977E-6</v>
+        <v>0</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5877732240437152E-6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6395873335161986E-6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,55 +13914,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4088657290642583E-3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0939518785677867E-2</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20964450306195934</v>
+        <v>0</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27801193237576244</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3288229494477734</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31492451299641977</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2828438190390139</v>
+        <v>0</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23979191624774709</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13005694671499501</v>
+        <v>0</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8427014021974801E-2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8459878776339202E-4</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0336025478260739E-5</v>
+        <v>0</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7571546127822977E-6</v>
+        <v>0</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0846994535519115E-6</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0178293864862386E-6</v>
+        <v>0</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,55 +14184,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3938020611031058E-3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18187903757135573</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40234803617951792</v>
+        <v>0</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57871871637403605</v>
+        <v>0</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66396941715415791</v>
+        <v>0</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68951893371847706</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58300460659062048</v>
+        <v>0</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44304411192440885</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2378184168502766</v>
+        <v>0</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.357398796449097E-2</v>
+        <v>0</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5161673859693715E-4</v>
+        <v>0</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3736295954325596E-5</v>
+        <v>0</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5999131388863491E-5</v>
+        <v>0</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,99 +14257,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4678789341056113</v>
+        <v>0</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3482780587277541</v>
+        <v>0</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3097019328862598</v>
+        <v>0</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3810683945543913</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1841616284124719</v>
+        <v>0</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0033474344497548</v>
+        <v>0</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88174821335706244</v>
+        <v>0</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79992079056120358</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7750875145514351</v>
+        <v>0</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72993174329010624</v>
+        <v>0</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70319590652107067</v>
+        <v>0</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72238669228749153</v>
+        <v>0</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67639322426250326</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63315066718087898</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85623595022309706</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94374968302444384</v>
+        <v>0</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99605918738730392</v>
+        <v>0</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0485135722844128</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97639880346654828</v>
+        <v>0</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0936887495328418</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0731017059921917</v>
+        <v>0</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1124985937616252</v>
+        <v>0</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0985490909749271</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2662681072166684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5423497267759557E-6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6918563896254302E-6</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,55 +14386,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4088657290642583E-3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5742974855067697E-2</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21387974554805952</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29786992754545977</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30669063554263482</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32155450274371283</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29727462613284111</v>
+        <v>0</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22608952103359009</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12262512118842388</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8153677348686582E-2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7580836929846858E-4</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0642449978041152E-5</v>
+        <v>0</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7571546127822977E-6</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6786202185792349E-6</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6657218615708144E-6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,55 +14487,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.281686909956635E-3</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9207337475474477E-2</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21811498803415971</v>
+        <v>0</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28935935818701802</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30985239467194031</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3281844924910059</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2828438190390139</v>
+        <v>0</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21923832342651159</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12757967153947131</v>
+        <v>0</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7880340675398362E-2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8108262037742264E-4</v>
+        <v>0</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9110327479139093E-5</v>
+        <v>0</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6763509188991491E-6</v>
+        <v>0</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4060792349726766E-6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6657218615708144E-6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,55 +14588,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4088657290642583E-3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0073428130576172E-2</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21599736679110962</v>
+        <v>0</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29219621463983192</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31933767205985686</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3314994873646524</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30016078755160658</v>
+        <v>0</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21695459089081875</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12014784601290016</v>
+        <v>0</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8427014021974801E-2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.740502856054839E-4</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1255298977601978E-5</v>
+        <v>0</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3227804699643415E-6</v>
+        <v>0</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.3572404371584697E-6</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.965560330377007E-6</v>
+        <v>0</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,55 +14858,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1394444228878593E-3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17321813102033878</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44046521855441961</v>
+        <v>0</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58439242927966384</v>
+        <v>0</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65132238063693582</v>
+        <v>0</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67625895422389093</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55414299240296594</v>
+        <v>0</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46588143728133719</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2502047927278952</v>
+        <v>0</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1933967924761654E-2</v>
+        <v>0</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6216524075484527E-4</v>
+        <v>0</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0059201956960658E-5</v>
+        <v>0</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5837524001097193E-5</v>
+        <v>0</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,99 +14931,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5443309619236123</v>
+        <v>0</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4038771539330224</v>
+        <v>0</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3642728467565204</v>
+        <v>0</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4084162835554688</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1486367795600976</v>
+        <v>0</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0869597206539012</v>
+        <v>0</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89093309057953185</v>
+        <v>0</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86589363926728224</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7750875145514351</v>
+        <v>0</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73730479120212744</v>
+        <v>0</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71044534885633948</v>
+        <v>0</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74405829305611626</v>
+        <v>0</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67639322426250326</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65980964264112651</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85623595022309706</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92506157048930615</v>
+        <v>0</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97652861508559219</v>
+        <v>0</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0809418270973328</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0791776248840799</v>
+        <v>0</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.9990426077463459</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1394791311051107</v>
+        <v>0</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1579066996294469</v>
+        <v>0</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0985490909749271</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2414393208006553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4060792349726766E-6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5089146932431193E-6</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,55 +15060,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4088657290642583E-3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0939518785677867E-2</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22023260927720981</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28652250173420413</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3288229494477734</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34475946685923853</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2741853347827175</v>
+        <v>0</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22608952103359009</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11767057083737643</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8427014021974801E-2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6701795083354514E-4</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9416751978919506E-5</v>
+        <v>0</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7571546127822977E-6</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6786202185792349E-6</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7179909176800464E-6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,55 +15161,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0697222114439296E-3</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9207337475474477E-2</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21811498803415971</v>
+        <v>0</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26950136301732069</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30036711728402377</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31492451299641977</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28572998045777931</v>
+        <v>0</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22152205596220442</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1189092084251383</v>
+        <v>0</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.870035069526302E-2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6877603452652984E-4</v>
+        <v>0</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0029600978480329E-5</v>
+        <v>0</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4035841638474901E-6</v>
+        <v>0</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3152322404371578E-6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5611837493523513E-6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,55 +15262,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0273292717413894E-3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4010793544864307E-2</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21387974554805952</v>
+        <v>0</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28084878882857633</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33198470857707896</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31492451299641977</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30304694897037204</v>
+        <v>0</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23750818371205426</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12634103395170945</v>
+        <v>0</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.870035069526302E-2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8459878776339202E-4</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1561723477382385E-5</v>
+        <v>0</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9187620005485967E-6</v>
+        <v>0</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17001,7 +17001,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17025,7 +17025,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -17036,7 +17036,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -17047,7 +17047,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -17058,7 +17058,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -17069,7 +17069,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1883695355191256E-5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6517600804608211E-6</v>
+        <v>0</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,55 +26485,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0042353391625182E-2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22732785417890827</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55552744849306068</v>
+        <v>0</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74124695421488507</v>
+        <v>0</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80747770049663548</v>
+        <v>0</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82532288597167447</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70781811114969995</v>
+        <v>0</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56261053924362769</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31669432701682998</v>
+        <v>0</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6658127579166698E-2</v>
+        <v>0</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2585491263676448E-4</v>
+        <v>0</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6693797202157809E-5</v>
+        <v>0</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8772314162933162E-5</v>
+        <v>0</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,99 +26558,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1682471750529713</v>
+        <v>0</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0474049906809475</v>
+        <v>0</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0235673005901196</v>
+        <v>0</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98609669597658145</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87035879688316709</v>
+        <v>0</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81673164100137641</v>
+        <v>0</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70628038423219119</v>
+        <v>0</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64651908497835686</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58660819677056475</v>
+        <v>0</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5555975469029385</v>
+        <v>0</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54358637762462947</v>
+        <v>0</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53571034469200751</v>
+        <v>0</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.49458264594646817</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50133128831422025</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61561302395950268</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71840375520912669</v>
+        <v>0</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69510278069147802</v>
+        <v>0</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78512666693334621</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78461792075552139</v>
+        <v>0</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82665034044950825</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88167257195709225</v>
+        <v>0</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84814195323338282</v>
+        <v>0</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83949929680030699</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94093319756227811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9995355191256833E-6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3917390509280424E-6</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,55 +26687,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2325946619520688E-3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10710639283429331</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26428004831223273</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35972278660428242</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.39974143588942351</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40002894983320952</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36865526622380207</v>
+        <v>0</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27269388381706444</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15834716350841499</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5412130276432308E-2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1512258473403568E-4</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5715248697083292E-5</v>
+        <v>0</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.28838461186797E-6</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8264719945355187E-6</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3588095455792263E-6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,55 +26788,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2854491534869387E-3</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11475684946531427</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27237025387281133</v>
+        <v>0</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35608922310322905</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37975436409495233</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.421083105087589</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37971492421051611</v>
+        <v>0</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27843480768689738</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15368989399346158</v>
+        <v>0</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6106485772048627E-2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1951284156534253E-4</v>
+        <v>0</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6467148669653467E-5</v>
+        <v>0</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4839295510651903E-6</v>
+        <v>0</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4803449453551911E-6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4246685562768585E-6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,55 +26889,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.12688567888233E-3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11038515996187372</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28315719462024941</v>
+        <v>0</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37789060410954922</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.39974143588942351</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4379264292910926</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37234181888604007</v>
+        <v>0</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28991665542656325</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15368989399346158</v>
+        <v>0</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4717774780815988E-2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1731771314968909E-4</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7594998628508729E-5</v>
+        <v>0</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0070564368656853E-5</v>
+        <v>0</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1999071038251367E-5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7176190911584525E-6</v>
+        <v>0</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1099443222322572E-2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22732785417890827</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55552744849306068</v>
+        <v>0</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73397982721277832</v>
+        <v>0</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77549838562548157</v>
+        <v>0</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85900953437868155</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74468363777208013</v>
+        <v>0</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57409238698329357</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32600886604673673</v>
+        <v>0</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8741194066015657E-2</v>
+        <v>0</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3902568313068505E-4</v>
+        <v>0</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1430497394166584E-5</v>
+        <v>0</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9945583798116484E-5</v>
+        <v>0</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,99 +27313,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0888517359717014</v>
+        <v>0</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0274544194298818</v>
+        <v>0</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0235673005901196</v>
+        <v>0</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0263455407103197</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84371516024388638</v>
+        <v>0</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7691550405546943</v>
+        <v>0</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74195111070856457</v>
+        <v>0</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67212380121512338</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5984588674123944</v>
+        <v>0</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5392564425822638</v>
+        <v>0</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55467997716798922</v>
+        <v>0</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51963903435124725</v>
+        <v>0</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50956999885393695</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51652314553586332</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64048627745281594</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67655499276976017</v>
+        <v>0</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71616650131849258</v>
+        <v>0</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83271010129294298</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78461792075552139</v>
+        <v>0</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81877748006427487</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82116563074435056</v>
+        <v>0</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80615472782578956</v>
+        <v>0</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82303852627481078</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90366851647070268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4803449453551911E-6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3588095455792263E-6</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,55 +27442,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4968671196264163E-3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11038515996187372</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26158331312537325</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35608922310322905</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38774919281274078</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4379264292910926</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36496871356156407</v>
+        <v>0</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27843480768689738</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14748020130685707</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4023419285199669E-2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1951284156534253E-4</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6843098655938554E-5</v>
+        <v>0</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5817020206638013E-6</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8264719945355187E-6</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4575980616256742E-6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,55 +27543,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1797401704171998E-3</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11366392708945414</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26428004831223273</v>
+        <v>0</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38152416761060259</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41573109332500047</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40002894983320952</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37602837154827812</v>
+        <v>0</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29278711736147972</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16300443302336837</v>
+        <v>0</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4717774780815988E-2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1731771314968909E-4</v>
+        <v>0</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7970948614793817E-5</v>
+        <v>0</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.6794744902624106E-6</v>
+        <v>0</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7110963114754101E-6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3588095455792263E-6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,55 +27644,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4968671196264163E-3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1038276257067129</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26697678349909226</v>
+        <v>0</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35972278660428242</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.39174660717163501</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4379264292910926</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36496871356156407</v>
+        <v>0</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28704619349164678</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1598995866800661</v>
+        <v>0</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3676241537391509E-2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1292745631838224E-4</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6467148669653467E-5</v>
+        <v>0</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.972791899058242E-6</v>
+        <v>0</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0960689890710382E-5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3224650269726606E-6</v>
+        <v>0</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,55 +27914,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0888025256183095E-2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22514200942718798</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55552744849306068</v>
+        <v>0</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7485140812169917</v>
+        <v>0</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82346735793221248</v>
+        <v>0</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85900953437868155</v>
+        <v>0</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72993742712312815</v>
+        <v>0</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57409238698329357</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30117009530031869</v>
+        <v>0</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2907327039713574E-2</v>
+        <v>0</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3024516946807136E-4</v>
+        <v>0</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.3686197311877109E-5</v>
+        <v>0</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8772314162933162E-5</v>
+        <v>0</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,99 +27987,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1682471750529713</v>
+        <v>0</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97757799130221756</v>
+        <v>0</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0026781720066478</v>
+        <v>0</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.9659722736097125</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93252728237482185</v>
+        <v>0</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80087277418581571</v>
+        <v>0</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69914623893691652</v>
+        <v>0</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61451318968239854</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5984588674123944</v>
+        <v>0</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55015051212938026</v>
+        <v>0</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57132037648302891</v>
+        <v>0</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53571034469200751</v>
+        <v>0</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48459107734148904</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51652314553586332</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59695808383951776</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66260540528997125</v>
+        <v>0</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68808154048247339</v>
+        <v>0</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82477952889967687</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72426269608201965</v>
+        <v>0</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78728603852334111</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8557410257230601</v>
+        <v>0</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84814195323338282</v>
+        <v>0</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80657775574931456</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.91298468674359656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5957206284153006E-6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3588095455792263E-6</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,55 +28116,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4968671196264163E-3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10492054808257303</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27506698905967086</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35608922310322905</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41173367896610624</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41266144298583723</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38340147687275417</v>
+        <v>0</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27556434575198091</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16145200985171723</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3676241537391509E-2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1731771314968909E-4</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8346898601078904E-5</v>
+        <v>0</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.8750194294596327E-6</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4803449453551911E-6</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3588095455792263E-6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,55 +28217,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3383036450218085E-3</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10601347045843318</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25618984275165418</v>
+        <v>0</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35608922310322905</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41972850768389469</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4379264292910926</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37971492421051611</v>
+        <v>0</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27269388381706444</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16145200985171723</v>
+        <v>0</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5064952528624148E-2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0853719948707539E-4</v>
+        <v>0</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6467148669653467E-5</v>
+        <v>0</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.28838461186797E-6</v>
+        <v>0</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9418476775956281E-6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4575980616256742E-6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,55 +28318,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2325946619520688E-3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10929223758601359</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26428004831223273</v>
+        <v>0</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34518853260006899</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38774919281274078</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40002894983320952</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37971492421051611</v>
+        <v>0</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29278711736147972</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15524231716511272</v>
+        <v>0</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6106485772048627E-2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3048848364360966E-4</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8722848587363992E-5</v>
+        <v>0</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0266109307854073E-5</v>
+        <v>0</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_2/ieee18_2_2020.xlsx
+++ b/data/IEEE9/ieee18_2/ieee18_2_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59F0ED2-58C3-4B91-8E0C-267CFF5F6065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67E8A63-9ADE-4ECC-9148-502FD6AA206B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13695" yWindow="7500" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28215" yWindow="3615" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.05</v>
+            <v>0.1</v>
           </cell>
         </row>
       </sheetData>

--- a/data/IEEE9/ieee18_2/ieee18_2_2020.xlsx
+++ b/data/IEEE9/ieee18_2/ieee18_2_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67E8A63-9ADE-4ECC-9148-502FD6AA206B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61693330-E8B8-4404-94DE-EC5254756F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28215" yWindow="3615" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26865" yWindow="3390" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -8898,7 +8898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.2663934426229492E-6</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.4359818353600928E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,55 +13510,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.6481596993183522E-3</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.16628940577952522</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.41928900612391867</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.56737129056278046</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.66396941715415791</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.65636898498201179</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.55414299240296594</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.46588143728133719</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.2502047927278952</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.1933967924761654E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.6568140814081463E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.8833503957839012E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.5675916613330893E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,99 +13583,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4831693396692116</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3343782849264372</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.33698738982139</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4084162835554688</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1841616284124719</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0765081848783828</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.96441210835928715</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.84115382100250269</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.83967814076405478</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.76679698285021258</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.7539420028679521</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.75850602690186608</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.6696292920198782</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.69979810583149782</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.8058691296217384</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.91571751422173753</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.94723275663302431</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1349889184521995</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0586218606005735</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0305913216751779</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1062904185486513</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1919627790303129</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.087563600065178</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1793673547606227</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.5423497267759557E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7179909176800464E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,55 +13712,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.0697222114439296E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.8341246820372782E-2</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.2223502305202599</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.28368564528139023</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.30036711728402377</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.34144447198559197</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.27707149620148297</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.23979191624774709</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.1251023963639476</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7880340675398362E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7580836929846858E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.0029600978480329E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.4035841638474901E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.4515027322404369E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6395873335161986E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,55 +13813,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.281686909956635E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.6609065510169392E-2</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.20752688181890924</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.28652250173420413</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.30352887641332932</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.34807446173288503</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.28861614187654477</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.22380578849789726</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.12386375877618573</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.8427014021974801E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6877603452652984E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.0029600978480329E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.9187620005485967E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.5877732240437152E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6657218615708144E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,55 +13914,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.3664727893617172E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.4876884199966002E-2</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.22023260927720981</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.28084878882857633</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.30985239467194031</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.3314994873646524</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.28572998045777931</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.22837325356928292</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.12881830912723316</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7060330655533704E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6701795083354514E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9110327479139093E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.7571546127822977E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.5389344262295074E-6</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.1746365548139341E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,55 +14184,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.3090161816980236E-3</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.16802158708972861</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.40234803617951792</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.57304500346840825</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.64499886237832482</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.63647901574013255</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.5656876380780278</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.44761157699579451</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.25515934307894261</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.4667334657643847E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.6568140814081463E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.8220654958278186E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6968775715461277E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,99 +14257,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4525885285420115</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4177769277343395</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.391558303691651</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4084162835554688</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1249535469918484</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0660566491028645</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.88174821335706244</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.86589363926728224</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.79123517110459007</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.7741700307622339</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.70319590652107067</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.70071509151886668</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.67639322426250326</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.65314489877606463</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.82265806982219136</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.94374968302444384</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.93746747048216839</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1025606636392795</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.99695456775005464</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.9990426077463459</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0509758976212185</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1465546731624914</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0655926182456794</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2786825004246751</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.4060792349726766E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.587318277406967E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,55 +14386,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.1969010305515529E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.4876884199966002E-2</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.20329163933280905</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.26950136301732069</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.33198470857707896</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.32486949761735934</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.30016078755160658</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.22152205596220442</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.11767057083737643</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7607004002110143E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.740502856054839E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.0948874477821565E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.7571546127822977E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.4060792349726766E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.4827801651885035E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,55 +14487,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.3664727893617172E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.0939518785677867E-2</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.21176212430500943</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.26950136301732069</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.30036711728402377</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.34807446173288503</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.2741853347827175</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.22152205596220442</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.12014784601290016</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7060330655533704E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.7053411821951452E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.2174572476943211E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.7571546127822977E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.7240437158469943E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6395873335161986E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,55 +14588,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.3664727893617172E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.6609065510169392E-2</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.20964450306195934</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.27517507592294854</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.31933767205985686</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.31492451299641977</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.27707149620148297</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.23294071864066859</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.12634103395170945</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7060330655533704E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8284070407040731E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9110327479139093E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.7571546127822977E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.2663934426229492E-6</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.2791746670323972E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,55 +14858,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.5633738199132701E-3</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.17841467495094895</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.41505376363781848</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.55602386475152488</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.63867534411971372</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.62984902599283954</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.5656876380780278</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.44761157699579451</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.26011389342999003</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.1933967924761654E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.5864907336887592E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.2510597955203957E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.6483953552162382E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,99 +14931,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4984597452328119</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.4177769277343395</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3779155752240857</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.3810683945543913</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2078448609807213</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0556051133273463</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.9276725994694095</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.83290721491424291</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.8235304842108998</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.73730479120212744</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.71044534885633948</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.69349122459599177</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.70344895323300349</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.65314489877606463</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.8058691296217384</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.95309373929201247</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.94723275663302431</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.026894735742466</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0380660963170671</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0095588457226232</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0841646101776783</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1352026466955361</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0655926182456794</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.2290249275926488</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.6331967213114746E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7179909176800464E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,55 +15060,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.281686909956635E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.4010793544864307E-2</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.21811498803415971</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.28652250173420413</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.30669063554263482</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.31492451299641977</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.29727462613284111</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.22380578849789726</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.12634103395170945</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.8427014021974801E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8459878776339202E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.9723176478699916E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.2419767760811911E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.6786202185792349E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.587318277406967E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,55 +15161,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.281686909956635E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.0939518785677867E-2</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.2223502305202599</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.29786992754545977</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.32249943118916241</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.31492451299641977</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.30304694897037204</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.22380578849789726</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.13005694671499501</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.8427014021974801E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8108262037742264E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.1255298977601978E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.6763509188991491E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.4969262295081963E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.6918563896254302E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,55 +15262,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.0697222114439296E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.0073428130576172E-2</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.20752688181890924</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.28935935818701802</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.30036711728402377</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.3314994873646524</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.30304694897037204</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.21695459089081875</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.12138648360066201</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.7880340675398362E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.8108262037742264E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.0642449978041152E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>8.2419767760811911E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17000,7 +17000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -17025,7 +17025,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -17036,7 +17036,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -17047,7 +17047,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -17058,7 +17058,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -17069,7 +17069,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.130681693989071E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.5200420590655566E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,55 +26485,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0465189323904138E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.21421278566858662</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.5231666262507465</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.71217844620645809</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.78349321434327002</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.86743119648043332</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.74468363777208013</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.55112869150396182</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.3042749416436209</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.8046838570399337E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.5658671045591245E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.4438097284447284E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9358948980524821E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,99 +26558,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1909315862190484</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0374297050554147</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.086234686340535</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0062211183434506</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.91476485794863471</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.7929433407780353</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.69914623893691652</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.65932144309674001</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.6221602086960536</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.54470347735582203</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.56577357671134909</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.53571034469200751</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.47959529303899939</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.49626733590700584</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.62183133733283102</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.73235334268891561</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.71616650131849258</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.80891838411314465</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.78461792075552139</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.7951588989085745</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.86438487446773749</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.80615472782578956</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.79834737048656634</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.8850361759249149</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.6534084699453549E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.3258800402304106E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,55 +26687,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.3911581365566775E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.11147808233773386</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.28315719462024941</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.38152416761060259</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.41173367896610624</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.44213726034196849</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.35022250291261198</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.27556434575198091</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.16145200985171723</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.5759308024240467E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1073232790272883E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.6467148669653467E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.8750194294596327E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.7110963114754101E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.2929505348815944E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,55 +26788,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.1797401704171998E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.10929223758601359</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.25618984275165418</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.38152416761060259</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.37975436409495233</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.44213726034196849</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.36128216089932602</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.29278711736147972</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.14748020130685707</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.2981886041775189E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.0853719948707539E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.7594998628508729E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.28838461186797E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.7110963114754101E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.2600210295327783E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,55 +26889,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.12688567888233E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.10601347045843318</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.25618984275165418</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.37062347710744253</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.37975436409495233</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.40845061193496135</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.37971492421051611</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.28417573155673032</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.16300443302336837</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.4717774780815988E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1073232790272883E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.9098798573649079E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0266109307854073E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1537568306010929E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.3224650269726606E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0042353391625182E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.22951369893062853</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.52856009662446546</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.71944557320856484</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.81547252921442404</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.84216621017517801</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.70781811114969995</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.54538776763412888</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.31048463433022544</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.1518616048480935E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.3902568313068505E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.5189997257017459E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.9945583798116484E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,99 +27313,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1569049694699327</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0474049906809475</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0653455577570632</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.036407751893754</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.90588364573554114</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.7691550405546943</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.70628038423219119</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.65292026403754855</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.58660819677056475</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.53380940780870556</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.52694597830958978</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.53571034469200751</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.47459950873650986</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.52665105035029203</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.65292290419947263</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.69747937398944349</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.66701781985545883</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.76926552214681387</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.72426269608201965</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.81090461967904137</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.84709717697838283</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.85653939831490145</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.83949929680030699</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.94093319756227811</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.8264719945355187E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.4575980616256742E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,55 +27442,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.1797401704171998E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.10492054808257303</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.27506698905967086</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.36698991360638916</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.39974143588942351</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.41266144298583723</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.36128216089932602</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.28130526962181385</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.15524231716511272</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.5759308024240467E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1073232790272883E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.8722848587363992E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.28838461186797E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.7110963114754101E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.2270915241839626E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,55 +27543,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.1797401704171998E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.11475684946531427</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.26158331312537325</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.35245565960217573</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.38774919281274078</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.44213726034196849</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.36128216089932602</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.27843480768689738</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.15524231716511272</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.6453663519856787E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1512258473403568E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.9098798573649079E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.28838461186797E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.4803449453551911E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.3258800402304106E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,55 +27644,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.4968671196264163E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.10929223758601359</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.2696735186859518</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.36698991360638916</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.38774919281274078</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.4379264292910926</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.37602837154827812</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.28130526962181385</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.15368989399346158</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.5412130276432308E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1292745631838224E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.7219048642223642E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.4839295510651903E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1999071038251367E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>6.849337112553717E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,55 +27914,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1099443222322572E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.22514200942718798</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.5231666262507465</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.7485140812169917</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.75950872818990467</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.8758528585821852</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.71519121647417605</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.58557423472295944</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.32290401970343446</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.0824260552864615E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>4.3024516946807136E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>7.2182397366736759E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.857676922373594E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,99 +27987,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.1569049694699327</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0474049906809475</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.99223360771491176</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>1.0062211183434506</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.8614775846700734</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.80880220759359611</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.69914623893691652</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.65932144309674001</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.6221602086960536</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.5555975469029385</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.5491331773963094</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.54642455158584768</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.47459950873650986</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.50133128831422025</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.59073977046618942</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.69747937398944349</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.67403906006446357</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.75340437736028165</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.75444030841877052</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.82665034044950825</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.89031642070176975</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.82294961798882682</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.78188659996107024</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.8850361759249149</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.6534084699453549E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.4246685562768585E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,55 +28116,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.3911581365566775E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.10710639283429331</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.26428004831223273</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.34518853260006899</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.41573109332500047</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.40423978088408541</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.37971492421051611</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.29278711736147972</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.1598995866800661</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.2981886041775189E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.2390309839664938E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.9474748559934167E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.4839295510651903E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.9995355191256833E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.4246685562768585E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,55 +28217,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.074031187347461E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.11038515996187372</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.25618984275165418</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.37062347710744253</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.41573109332500047</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.40423978088408541</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.37602837154827812</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.27843480768689738</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.15213747082181045</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.4717774780815988E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.1073232790272883E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.6091198683368379E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.972791899058242E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.7687841530054644E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.3588095455792263E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,55 +28318,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>5.3911581365566775E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.10492054808257303</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.25618984275165418</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.38152416761060259</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.40373885024831774</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.41266144298583723</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.36865526622380207</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.28991665542656325</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>0.15524231716511272</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.4370597033007828E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>2.3048848364360966E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>3.5715248697083292E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0</v>
+        <v>9.28838461186797E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_2/ieee18_2_2020.xlsx
+++ b/data/IEEE9/ieee18_2/ieee18_2_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61693330-E8B8-4404-94DE-EC5254756F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD0A2AF-79D4-4C35-A675-7F53F210BA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26865" yWindow="3390" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8700" yWindow="4965" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -8898,7 +8898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2663934426229492E-6</v>
+        <v>8.7213114754098344E-6</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4359818353600928E-6</v>
+        <v>5.1746365548139341E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,31 +13510,31 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6481596993183522E-3</v>
+        <v>8.2242303022929415E-3</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16628940577952522</v>
+        <v>0.17495031233054217</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41928900612391867</v>
+        <v>0.4447004610405198</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56737129056278046</v>
+        <v>0.54467643894026918</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66396941715415791</v>
+        <v>0.61338127108526963</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65636898498201179</v>
+        <v>0.6629989747293048</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55414299240296594</v>
+        <v>0.55991531524049687</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13542,23 +13542,23 @@
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2502047927278952</v>
+        <v>0.24277296720132402</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1933967924761654E-2</v>
+        <v>5.6307354697373163E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6568140814081463E-4</v>
+        <v>3.6216524075484527E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8833503957839012E-5</v>
+        <v>5.8220654958278186E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5675916613330893E-5</v>
+        <v>1.6322346164396085E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,71 +13583,71 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4831693396692116</v>
+        <v>1.5137501507964117</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3343782849264372</v>
+        <v>1.4038771539330224</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.33698738982139</v>
+        <v>1.4052010321592161</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4084162835554688</v>
+        <v>1.2990247275511602</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1841616284124719</v>
+        <v>1.1604783958442224</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0765081848783828</v>
+        <v>1.0974112564294194</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96441210835928715</v>
+        <v>0.93685747669187891</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84115382100250269</v>
+        <v>0.83290721491424291</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83967814076405478</v>
+        <v>0.8235304842108998</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76679698285021258</v>
+        <v>0.7078125995540423</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7539420028679521</v>
+        <v>0.70319590652107067</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75850602690186608</v>
+        <v>0.68626735767311697</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6696292920198782</v>
+        <v>0.66286535977725325</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69979810583149782</v>
+        <v>0.65314489877606463</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8058691296217384</v>
+        <v>0.88141936052377645</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.91571751422173753</v>
+        <v>0.95309373929201247</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94723275663302431</v>
+        <v>0.97652861508559219</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13655,7 +13655,7 @@
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0586218606005735</v>
+        <v>1.0483439784588204</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13663,11 +13663,11 @@
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1062904185486513</v>
+        <v>1.0509758976212185</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1919627790303129</v>
+        <v>1.0784425143607592</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13675,7 +13675,7 @@
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1793673547606227</v>
+        <v>1.191781747968629</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5423497267759557E-6</v>
+        <v>4.4060792349726766E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7179909176800464E-6</v>
+        <v>2.5350492212977355E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,7 +13712,7 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0697222114439296E-3</v>
+        <v>4.4088657290642583E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13720,47 +13720,47 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2223502305202599</v>
+        <v>0.21811498803415971</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28368564528139023</v>
+        <v>0.28935935818701802</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30036711728402377</v>
+        <v>0.30352887641332932</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34144447198559197</v>
+        <v>0.3314994873646524</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27707149620148297</v>
+        <v>0.27995765762024843</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23979191624774709</v>
+        <v>0.21923832342651159</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1251023963639476</v>
+        <v>0.12014784601290016</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7880340675398362E-2</v>
+        <v>2.5966983962380827E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7580836929846858E-4</v>
+        <v>1.6877603452652984E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0029600978480329E-5</v>
+        <v>3.2174572476943211E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4035841638474901E-6</v>
+        <v>7.8379583066654464E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4515027322404369E-6</v>
+        <v>4.5423497267759557E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6395873335161986E-6</v>
+        <v>2.6918563896254302E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13817,51 +13817,51 @@
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6609065510169392E-2</v>
+        <v>9.0073428130576172E-2</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20752688181890924</v>
+        <v>0.20329163933280905</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28652250173420413</v>
+        <v>0.27517507592294854</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30352887641332932</v>
+        <v>0.32249943118916241</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34807446173288503</v>
+        <v>0.3281844924910059</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28861614187654477</v>
+        <v>0.2828438190390139</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22380578849789726</v>
+        <v>0.23065698610497576</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12386375877618573</v>
+        <v>0.1189092084251383</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8427014021974801E-2</v>
+        <v>2.7060330655533704E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6877603452652984E-4</v>
+        <v>1.7756645299145325E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0029600978480329E-5</v>
+        <v>3.2174572476943211E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9187620005485967E-6</v>
+        <v>7.8379583066654464E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5877732240437152E-6</v>
+        <v>4.6331967213114746E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6657218615708144E-6</v>
+        <v>2.5089146932431193E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,27 +13914,27 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3664727893617172E-3</v>
+        <v>4.1969010305515529E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4876884199966002E-2</v>
+        <v>8.6609065510169392E-2</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22023260927720981</v>
+        <v>0.20964450306195934</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28084878882857633</v>
+        <v>0.29219621463983192</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30985239467194031</v>
+        <v>0.33198470857707896</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3314994873646524</v>
+        <v>0.32155450274371283</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13942,15 +13942,15 @@
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22837325356928292</v>
+        <v>0.21695459089081875</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12881830912723316</v>
+        <v>0.12138648360066201</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7060330655533704E-2</v>
+        <v>2.8427014021974801E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13958,7 +13958,7 @@
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9110327479139093E-5</v>
+        <v>3.0642449978041152E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5389344262295074E-6</v>
+        <v>8.7213114754098344E-6</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1746365548139341E-6</v>
+        <v>5.2791746670323972E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,11 +14184,11 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3090161816980236E-3</v>
+        <v>8.6481596993183522E-3</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16802158708972861</v>
+        <v>0.16455722446932183</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14196,39 +14196,39 @@
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57304500346840825</v>
+        <v>0.55035015184589708</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64499886237832482</v>
+        <v>0.65132238063693582</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63647901574013255</v>
+        <v>0.68288894397118394</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5656876380780278</v>
+        <v>0.60032157510321316</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44761157699579451</v>
+        <v>0.45217904206718018</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25515934307894261</v>
+        <v>0.25268206790341891</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4667334657643847E-2</v>
+        <v>5.2480641271338092E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6568140814081463E-4</v>
+        <v>3.5513290598290651E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8220654958278186E-5</v>
+        <v>6.0672050956521478E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,99 +14257,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4525885285420115</v>
+        <v>1.5137501507964117</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4177769277343395</v>
+        <v>1.4316767015356566</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.391558303691651</v>
+        <v>1.3779155752240857</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4084162835554688</v>
+        <v>1.3537205055533144</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1249535469918484</v>
+        <v>1.2196864772648461</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0660566491028645</v>
+        <v>0.99289589867423644</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88174821335706244</v>
+        <v>0.87256333613459303</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86589363926728224</v>
+        <v>0.80816739664946347</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79123517110459007</v>
+        <v>0.7750875145514351</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7741700307622339</v>
+        <v>0.7078125995540423</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70319590652107067</v>
+        <v>0.7466925605326834</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70071509151886668</v>
+        <v>0.75128215997899117</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67639322426250326</v>
+        <v>0.69668502099037843</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65314489877606463</v>
+        <v>0.63315066718087898</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82265806982219136</v>
+        <v>0.79747465952151197</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94374968302444384</v>
+        <v>0.97178185182714993</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93746747048216839</v>
+        <v>0.94723275663302431</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1025606636392795</v>
+        <v>1.124179500181226</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99695456775005464</v>
+        <v>1.0277882141753141</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.9990426077463459</v>
+        <v>1.0516237976277325</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0509758976212185</v>
+        <v>1.0620388018067051</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1465546731624914</v>
+        <v>1.1579066996294469</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0655926182456794</v>
+        <v>1.1315055637041751</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2786825004246751</v>
+        <v>1.3035112868406882</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4060792349726766E-6</v>
+        <v>4.5877732240437152E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.587318277406967E-6</v>
+        <v>2.6134528054615828E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,7 +14386,7 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1969010305515529E-3</v>
+        <v>4.0697222114439296E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14394,47 +14394,47 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20329163933280905</v>
+        <v>0.20752688181890924</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26950136301732069</v>
+        <v>0.28935935818701802</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33198470857707896</v>
+        <v>0.30036711728402377</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32486949761735934</v>
+        <v>0.34144447198559197</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30016078755160658</v>
+        <v>0.29150230329531024</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22152205596220442</v>
+        <v>0.23294071864066859</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11767057083737643</v>
+        <v>0.12757967153947131</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7607004002110143E-2</v>
+        <v>2.6240320635669046E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.740502856054839E-4</v>
+        <v>1.7932453668443796E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0948874477821565E-5</v>
+        <v>2.9110327479139093E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7571546127822977E-6</v>
+        <v>8.2419767760811911E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4060792349726766E-6</v>
+        <v>4.5877732240437152E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4827801651885035E-6</v>
+        <v>2.6395873335161986E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,55 +14487,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3664727893617172E-3</v>
+        <v>4.4088657290642583E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0939518785677867E-2</v>
+        <v>8.3144702889762612E-2</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21176212430500943</v>
+        <v>0.21387974554805952</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26950136301732069</v>
+        <v>0.29503307109264587</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30036711728402377</v>
+        <v>0.30985239467194031</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34807446173288503</v>
+        <v>0.34475946685923853</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2741853347827175</v>
+        <v>0.27995765762024843</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22152205596220442</v>
+        <v>0.23294071864066859</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12014784601290016</v>
+        <v>0.12881830912723316</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7060330655533704E-2</v>
+        <v>2.7607004002110143E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7053411821951452E-4</v>
+        <v>1.6701795083354514E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2174572476943211E-5</v>
+        <v>2.9110327479139093E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7571546127822977E-6</v>
+        <v>7.6763509188991491E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7240437158469943E-6</v>
+        <v>4.6786202185792349E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6395873335161986E-6</v>
+        <v>2.5611837493523513E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,23 +14588,23 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3664727893617172E-3</v>
+        <v>4.1969010305515529E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6609065510169392E-2</v>
+        <v>8.4876884199966002E-2</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20964450306195934</v>
+        <v>0.20540926057585915</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27517507592294854</v>
+        <v>0.29786992754545977</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31933767205985686</v>
+        <v>0.31301415380124586</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14612,23 +14612,23 @@
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27707149620148297</v>
+        <v>0.30304694897037204</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23294071864066859</v>
+        <v>0.21923832342651159</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12634103395170945</v>
+        <v>0.12757967153947131</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7060330655533704E-2</v>
+        <v>2.8153677348686582E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8284070407040731E-4</v>
+        <v>1.8108262037742264E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14636,7 +14636,7 @@
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7571546127822977E-6</v>
+        <v>8.3227804699643415E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2663934426229492E-6</v>
+        <v>8.9938524590163926E-6</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2791746670323972E-6</v>
+        <v>5.0178293864862386E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,15 +14858,15 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5633738199132701E-3</v>
+        <v>8.1394444228878593E-3</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17841467495094895</v>
+        <v>0.169753768399932</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41505376363781848</v>
+        <v>0.42775949109611905</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14874,39 +14874,39 @@
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63867534411971372</v>
+        <v>0.61970478934388062</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62984902599283954</v>
+        <v>0.66962896447659781</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5656876380780278</v>
+        <v>0.57723228375308955</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44761157699579451</v>
+        <v>0.47958383249549419</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26011389342999003</v>
+        <v>0.24772751755237146</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1933967924761654E-2</v>
+        <v>5.2480641271338092E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5864907336887592E-4</v>
+        <v>3.481005712109678E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2510597955203957E-5</v>
+        <v>6.4349144953886422E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6483953552162382E-5</v>
+        <v>1.5675916613330893E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,75 +14931,75 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4984597452328119</v>
+        <v>1.5443309619236123</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4177769277343395</v>
+        <v>1.32047851112512</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3779155752240857</v>
+        <v>1.391558303691651</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3810683945543913</v>
+        <v>1.3126986720516987</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2078448609807213</v>
+        <v>1.172320012128347</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0556051133273463</v>
+        <v>1.0765081848783828</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.9276725994694095</v>
+        <v>0.91848772224694009</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83290721491424291</v>
+        <v>0.85764703317902247</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8235304842108998</v>
+        <v>0.83160431248747735</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73730479120212744</v>
+        <v>0.72993174329010624</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71044534885633948</v>
+        <v>0.69594646418580197</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69349122459599177</v>
+        <v>0.75850602690186608</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70344895323300349</v>
+        <v>0.68992108874775337</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65314489877606463</v>
+        <v>0.65980964264112651</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8058691296217384</v>
+        <v>0.8646304203233236</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95309373929201247</v>
+        <v>0.97178185182714993</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94723275663302431</v>
+        <v>1.015589759689016</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.026894735742466</v>
+        <v>1.0809418270973328</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -15007,11 +15007,11 @@
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0095588457226232</v>
+        <v>1.1042049875091191</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0841646101776783</v>
+        <v>1.1062904185486513</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -15019,11 +15019,11 @@
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0655926182456794</v>
+        <v>1.087563600065178</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2290249275926488</v>
+        <v>1.2662681072166684</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6331967213114746E-6</v>
+        <v>4.3152322404371578E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7179909176800464E-6</v>
+        <v>2.587318277406967E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,55 +15060,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.281686909956635E-3</v>
+        <v>4.0697222114439296E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4010793544864307E-2</v>
+        <v>8.7475156165271087E-2</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21811498803415971</v>
+        <v>0.21176212430500943</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28652250173420413</v>
+        <v>0.28084878882857633</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30669063554263482</v>
+        <v>0.31617591293055136</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31492451299641977</v>
+        <v>0.31823950787006627</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29727462613284111</v>
+        <v>0.27707149620148297</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22380578849789726</v>
+        <v>0.23294071864066859</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12634103395170945</v>
+        <v>0.1251023963639476</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8427014021974801E-2</v>
+        <v>2.5966983962380827E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8459878776339202E-4</v>
+        <v>1.7229220191249919E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9723176478699916E-5</v>
+        <v>2.9110327479139093E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2419767760811911E-6</v>
+        <v>7.6763509188991491E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6786202185792349E-6</v>
+        <v>4.3152322404371578E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.587318277406967E-6</v>
+        <v>2.6395873335161986E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,35 +15161,35 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.281686909956635E-3</v>
+        <v>4.0697222114439296E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0939518785677867E-2</v>
+        <v>8.2278612234660917E-2</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2223502305202599</v>
+        <v>0.21176212430500943</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29786992754545977</v>
+        <v>0.28084878882857633</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32249943118916241</v>
+        <v>0.30352887641332932</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31492451299641977</v>
+        <v>0.34144447198559197</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30304694897037204</v>
+        <v>0.2741853347827175</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22380578849789726</v>
+        <v>0.23294071864066859</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15197,19 +15197,19 @@
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8427014021974801E-2</v>
+        <v>2.7607004002110143E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8108262037742264E-4</v>
+        <v>1.6877603452652984E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1255298977601978E-5</v>
+        <v>3.0029600978480329E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6763509188991491E-6</v>
+        <v>7.9187620005485967E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4969262295081963E-6</v>
+        <v>4.5877732240437152E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6918563896254302E-6</v>
+        <v>2.6657218615708144E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,55 +15262,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0697222114439296E-3</v>
+        <v>4.1545080908490118E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0073428130576172E-2</v>
+        <v>8.4876884199966002E-2</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20752688181890924</v>
+        <v>0.22023260927720981</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28935935818701802</v>
+        <v>0.28652250173420413</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30036711728402377</v>
+        <v>0.32249943118916241</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3314994873646524</v>
+        <v>0.3348144822382989</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30304694897037204</v>
+        <v>0.28861614187654477</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21695459089081875</v>
+        <v>0.23750818371205426</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12138648360066201</v>
+        <v>0.12262512118842388</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7880340675398362E-2</v>
+        <v>2.8427014021974801E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8108262037742264E-4</v>
+        <v>1.7053411821951452E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0642449978041152E-5</v>
+        <v>3.1255298977601978E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2419767760811911E-6</v>
+        <v>8.3227804699643415E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17000,7 +17000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.130681693989071E-5</v>
+        <v>1.1076065573770491E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5200420590655566E-6</v>
+        <v>6.3224650269726606E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,55 +26485,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0465189323904138E-2</v>
+        <v>1.0888025256183095E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21421278566858662</v>
+        <v>0.22732785417890827</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5231666262507465</v>
+        <v>0.53934703737190359</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71217844620645809</v>
+        <v>0.72671270021067158</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78349321434327002</v>
+        <v>0.83146218665000093</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86743119648043332</v>
+        <v>0.85900953437868155</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74468363777208013</v>
+        <v>0.77417605906998432</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55112869150396182</v>
+        <v>0.59705608246262531</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3042749416436209</v>
+        <v>0.31979917336013219</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8046838570399337E-2</v>
+        <v>7.2907327039713574E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5658671045591245E-4</v>
+        <v>4.3902568313068505E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.4438097284447284E-5</v>
+        <v>7.2934297339306934E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9358948980524821E-5</v>
+        <v>1.8967859102130381E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,15 +26558,15 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1909315862190484</v>
+        <v>1.1682471750529713</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0374297050554147</v>
+        <v>0.95762742005115198</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.086234686340535</v>
+        <v>1.0131227362983837</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26574,19 +26574,19 @@
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.91476485794863471</v>
+        <v>0.92364607016172828</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7929433407780353</v>
+        <v>0.83259050781693711</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69914623893691652</v>
+        <v>0.71341452952746587</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65932144309674001</v>
+        <v>0.67212380121512338</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26594,11 +26594,11 @@
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54470347735582203</v>
+        <v>0.53380940780870556</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56577357671134909</v>
+        <v>0.52694597830958978</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26606,43 +26606,43 @@
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47959529303899939</v>
+        <v>0.50457421455144735</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.49626733590700584</v>
+        <v>0.48613943109257712</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62183133733283102</v>
+        <v>0.65292290419947263</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73235334268891561</v>
+        <v>0.68352978650965457</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71616650131849258</v>
+        <v>0.66701781985545883</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80891838411314465</v>
+        <v>0.76926552214681387</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78461792075552139</v>
+        <v>0.72426269608201965</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7951588989085745</v>
+        <v>0.74792173659717409</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86438487446773749</v>
+        <v>0.87302872321241498</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80615472782578956</v>
+        <v>0.8733342884779387</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26650,7 +26650,7 @@
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8850361759249149</v>
+        <v>0.94093319756227811</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6534084699453549E-6</v>
+        <v>5.7687841530054644E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3258800402304106E-6</v>
+        <v>3.2270915241839626E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,23 +26687,23 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3911581365566775E-3</v>
+        <v>5.3383036450218085E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11147808233773386</v>
+        <v>0.10929223758601359</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28315719462024941</v>
+        <v>0.2696735186859518</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38152416761060259</v>
+        <v>0.37789060410954922</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41173367896610624</v>
+        <v>0.38774919281274078</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26711,31 +26711,31 @@
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35022250291261198</v>
+        <v>0.38708802953499216</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27556434575198091</v>
+        <v>0.28991665542656325</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16145200985171723</v>
+        <v>0.15679474033676385</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5759308024240467E-2</v>
+        <v>3.4370597033007828E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1073232790272883E-4</v>
+        <v>2.2170796998099597E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6467148669653467E-5</v>
+        <v>3.6091198683368379E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.8750194294596327E-6</v>
+        <v>9.972791899058242E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7110963114754101E-6</v>
+        <v>5.5957206284153006E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2929505348815944E-6</v>
+        <v>3.1283030081375146E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,31 +26788,31 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1797401704171998E-3</v>
+        <v>5.3911581365566775E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10929223758601359</v>
+        <v>0.1038276257067129</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25618984275165418</v>
+        <v>0.28046045943338987</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38152416761060259</v>
+        <v>0.35608922310322905</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37975436409495233</v>
+        <v>0.39574402153052929</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44213726034196849</v>
+        <v>0.40423978088408541</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36128216089932602</v>
+        <v>0.38708802953499216</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26820,23 +26820,23 @@
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14748020130685707</v>
+        <v>0.15524231716511272</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2981886041775189E-2</v>
+        <v>3.3676241537391509E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0853719948707539E-4</v>
+        <v>2.1731771314968909E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7594998628508729E-5</v>
+        <v>3.6467148669653467E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.28838461186797E-6</v>
+        <v>9.7772469598610216E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7110963114754101E-6</v>
+        <v>5.4803449453551911E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2600210295327783E-6</v>
+        <v>3.1941620188351465E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,55 +26889,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.12688567888233E-3</v>
+        <v>5.4440126280915473E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10601347045843318</v>
+        <v>0.10929223758601359</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25618984275165418</v>
+        <v>0.27237025387281133</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37062347710744253</v>
+        <v>0.37425704060849585</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37975436409495233</v>
+        <v>0.40373885024831774</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40845061193496135</v>
+        <v>0.41266144298583723</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37971492421051611</v>
+        <v>0.36496871356156407</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28417573155673032</v>
+        <v>0.27269388381706444</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16300443302336837</v>
+        <v>0.15679474033676385</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4717774780815988E-2</v>
+        <v>3.3676241537391509E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1073232790272883E-4</v>
+        <v>2.1292745631838224E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9098798573649079E-5</v>
+        <v>3.9474748559934167E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0266109307854073E-5</v>
+        <v>9.28838461186797E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537568306010929E-5</v>
+        <v>1.2114446721311475E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3224650269726606E-6</v>
+        <v>6.5200420590655566E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,27 +27240,27 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0042353391625182E-2</v>
+        <v>1.0570898306973877E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22951369893062853</v>
+        <v>0.21421278566858662</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52856009662446546</v>
+        <v>0.56631438924049882</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71944557320856484</v>
+        <v>0.71217844620645809</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81547252921442404</v>
+        <v>0.79148804306105858</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84216621017517801</v>
+        <v>0.82532288597167447</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27272,23 +27272,23 @@
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31048463433022544</v>
+        <v>0.31979917336013219</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1518616048480935E-2</v>
+        <v>7.2907327039713574E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3902568313068505E-4</v>
+        <v>4.2146465580545766E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5189997257017459E-5</v>
+        <v>7.7445697174727984E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9945583798116484E-5</v>
+        <v>1.857676922373594E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,39 +27313,39 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1569049694699327</v>
+        <v>1.1795893806360098</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0474049906809475</v>
+        <v>0.96760270567668472</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0653455577570632</v>
+        <v>1.0444564291735914</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.036407751893754</v>
+        <v>1.0464699630771885</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90588364573554114</v>
+        <v>0.8614775846700734</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7691550405546943</v>
+        <v>0.80087277418581571</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70628038423219119</v>
+        <v>0.6777438030510925</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65292026403754855</v>
+        <v>0.64011790591916518</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58660819677056475</v>
+        <v>0.6221602086960536</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27353,7 +27353,7 @@
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52694597830958978</v>
+        <v>0.57132037648302891</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27361,15 +27361,15 @@
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47459950873650986</v>
+        <v>0.47959529303899939</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52665105035029203</v>
+        <v>0.50133128831422025</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65292290419947263</v>
+        <v>0.59073977046618942</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27377,7 +27377,7 @@
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66701781985545883</v>
+        <v>0.69510278069147802</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27385,27 +27385,27 @@
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72426269608201965</v>
+        <v>0.7695291145871459</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81090461967904137</v>
+        <v>0.80303175929380799</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84709717697838283</v>
+        <v>0.90760411819112441</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85653939831490145</v>
+        <v>0.88173173355945744</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83949929680030699</v>
+        <v>0.83126891153755889</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94093319756227811</v>
+        <v>0.97819787865385355</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8264719945355187E-6</v>
+        <v>5.7110963114754101E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4575980616256742E-6</v>
+        <v>3.4246685562768585E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,55 +27442,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1797401704171998E-3</v>
+        <v>5.3911581365566775E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10492054808257303</v>
+        <v>0.10710639283429331</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27506698905967086</v>
+        <v>0.27776372424653034</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36698991360638916</v>
+        <v>0.37425704060849585</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.39974143588942351</v>
+        <v>0.38774919281274078</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41266144298583723</v>
+        <v>0.44213726034196849</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36128216089932602</v>
+        <v>0.35390905557484997</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28130526962181385</v>
+        <v>0.27556434575198091</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15524231716511272</v>
+        <v>0.15058504765015934</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5759308024240467E-2</v>
+        <v>3.6106485772048627E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1073232790272883E-4</v>
+        <v>2.2829335522795623E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8722848587363992E-5</v>
+        <v>3.7219048642223642E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.28838461186797E-6</v>
+        <v>9.8750194294596327E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7110963114754101E-6</v>
+        <v>6.0572233606557376E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2270915241839626E-6</v>
+        <v>3.2600210295327783E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,55 +27543,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1797401704171998E-3</v>
+        <v>5.3383036450218085E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11475684946531427</v>
+        <v>0.10819931521015345</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26158331312537325</v>
+        <v>0.28046045943338987</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35245565960217573</v>
+        <v>0.34518853260006899</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38774919281274078</v>
+        <v>0.39974143588942351</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44213726034196849</v>
+        <v>0.421083105087589</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36128216089932602</v>
+        <v>0.36865526622380207</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27843480768689738</v>
+        <v>0.29278711736147972</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15524231716511272</v>
+        <v>0.15368989399346158</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6453663519856787E-2</v>
+        <v>3.6106485772048627E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1512258473403568E-4</v>
+        <v>2.3048848364360966E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9098798573649079E-5</v>
+        <v>3.5715248697083292E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.28838461186797E-6</v>
+        <v>9.4839295510651903E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4803449453551911E-6</v>
+        <v>5.7687841530054644E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3258800402304106E-6</v>
+        <v>3.1283030081375146E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,11 +27644,11 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4968671196264163E-3</v>
+        <v>5.0211766958125912E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10929223758601359</v>
+        <v>0.10710639283429331</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27656,43 +27656,43 @@
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36698991360638916</v>
+        <v>0.37062347710744253</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38774919281274078</v>
+        <v>0.37975436409495233</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4379264292910926</v>
+        <v>0.43371559824021666</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37602837154827812</v>
+        <v>0.36496871356156407</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28130526962181385</v>
+        <v>0.27556434575198091</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15368989399346158</v>
+        <v>0.15679474033676385</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5412130276432308E-2</v>
+        <v>3.4370597033007828E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1292745631838224E-4</v>
+        <v>2.2609822681230282E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7219048642223642E-5</v>
+        <v>3.7594998628508729E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4839295510651903E-6</v>
+        <v>9.28838461186797E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1999071038251367E-5</v>
+        <v>1.1076065573770491E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.849337112553717E-6</v>
+        <v>6.2566060162750292E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,27 +27914,27 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1099443222322572E-2</v>
+        <v>1.0993734239252833E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22514200942718798</v>
+        <v>0.22732785417890827</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5231666262507465</v>
+        <v>0.56092091886677975</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7485140812169917</v>
+        <v>0.69764419220224472</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75950872818990467</v>
+        <v>0.79148804306105858</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8758528585821852</v>
+        <v>0.82532288597167447</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27942,27 +27942,27 @@
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58557423472295944</v>
+        <v>0.55112869150396182</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32290401970343446</v>
+        <v>0.32600886604673673</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0824260552864615E-2</v>
+        <v>6.8046838570399337E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3024516946807136E-4</v>
+        <v>4.2146465580545766E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2182397366736759E-5</v>
+        <v>7.8197597147298159E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.857676922373594E-5</v>
+        <v>1.9163404041327603E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,43 +27987,43 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1569049694699327</v>
+        <v>1.122878352720817</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0474049906809475</v>
+        <v>1.0374297050554147</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99223360771491176</v>
+        <v>1.0549009934653273</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0062211183434506</v>
+        <v>1.0565321742606231</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8614775846700734</v>
+        <v>0.88812122130935411</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80880220759359611</v>
+        <v>0.81673164100137641</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69914623893691652</v>
+        <v>0.74195111070856457</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65932144309674001</v>
+        <v>0.67212380121512338</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6221602086960536</v>
+        <v>0.58660819677056475</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5555975469029385</v>
+        <v>0.52836237303514733</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28039,11 +28039,11 @@
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50133128831422025</v>
+        <v>0.51652314553586332</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59073977046618942</v>
+        <v>0.64048627745281594</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28055,15 +28055,15 @@
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75340437736028165</v>
+        <v>0.80098781171987854</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75444030841877052</v>
+        <v>0.79216232383970908</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82665034044950825</v>
+        <v>0.74792173659717409</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28071,15 +28071,15 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82294961798882682</v>
+        <v>0.80615472782578956</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78188659996107024</v>
+        <v>0.83126891153755889</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8850361759249149</v>
+        <v>0.94093319756227811</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6534084699453549E-6</v>
+        <v>5.5380327868852455E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4246685562768585E-6</v>
+        <v>3.3588095455792263E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,23 +28116,23 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3911581365566775E-3</v>
+        <v>5.4968671196264163E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10710639283429331</v>
+        <v>0.10601347045843318</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26428004831223273</v>
+        <v>0.27506698905967086</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34518853260006899</v>
+        <v>0.35608922310322905</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41573109332500047</v>
+        <v>0.40773626460721202</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28140,31 +28140,31 @@
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37971492421051611</v>
+        <v>0.38340147687275417</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29278711736147972</v>
+        <v>0.29565757929639619</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1598995866800661</v>
+        <v>0.16300443302336837</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2981886041775189E-2</v>
+        <v>3.6106485772048627E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2390309839664938E-4</v>
+        <v>2.1731771314968909E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9474748559934167E-5</v>
+        <v>3.7594998628508729E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4839295510651903E-6</v>
+        <v>9.6794744902624106E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9995355191256833E-6</v>
+        <v>5.5957206284153006E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4246685562768585E-6</v>
+        <v>3.2600210295327783E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,27 +28217,27 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.074031187347461E-3</v>
+        <v>5.1797401704171998E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11038515996187372</v>
+        <v>0.10601347045843318</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25618984275165418</v>
+        <v>0.27237025387281133</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37062347710744253</v>
+        <v>0.37425704060849585</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41573109332500047</v>
+        <v>0.37975436409495233</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40423978088408541</v>
+        <v>0.421083105087589</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28245,27 +28245,27 @@
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27843480768689738</v>
+        <v>0.27269388381706444</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15213747082181045</v>
+        <v>0.16300443302336837</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4717774780815988E-2</v>
+        <v>3.2981886041775189E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1073232790272883E-4</v>
+        <v>2.2609822681230282E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6091198683368379E-5</v>
+        <v>3.9474748559934167E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.972791899058242E-6</v>
+        <v>9.28838461186797E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7687841530054644E-6</v>
+        <v>5.9995355191256833E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3588095455792263E-6</v>
+        <v>3.2270915241839626E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,35 +28318,35 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3911581365566775E-3</v>
+        <v>5.4440126280915473E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10492054808257303</v>
+        <v>0.10710639283429331</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25618984275165418</v>
+        <v>0.27237025387281133</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38152416761060259</v>
+        <v>0.36698991360638916</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40373885024831774</v>
+        <v>0.39574402153052929</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41266144298583723</v>
+        <v>0.40002894983320952</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36865526622380207</v>
+        <v>0.36496871356156407</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28991665542656325</v>
+        <v>0.28130526962181385</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28354,19 +28354,19 @@
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4370597033007828E-2</v>
+        <v>3.2981886041775189E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3048848364360966E-4</v>
+        <v>2.1951284156534253E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5715248697083292E-5</v>
+        <v>3.7594998628508729E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.28838461186797E-6</v>
+        <v>1.0070564368656853E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_2/ieee18_2_2020.xlsx
+++ b/data/IEEE9/ieee18_2/ieee18_2_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C5F4CE-0671-4C5E-99DA-3AC589E76108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8E6D37-543F-42F2-AA17-21A728061662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="4965" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23760" yWindow="5520" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -249,12 +249,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>2.5000000000000001E-2</v>
+            <v>0.02</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.15</v>
+            <v>0.09</v>
           </cell>
         </row>
       </sheetData>
@@ -8899,7 +8899,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9030054644808738E-6</v>
+        <v>9.5389344262295074E-6</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4359818353600928E-6</v>
+        <v>5.4882508914693243E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,55 +13510,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6481596993183522E-3</v>
+        <v>8.8177314581285166E-3</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16628940577952522</v>
+        <v>0.18187903757135573</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42775949109611905</v>
+        <v>0.40658327866561811</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57304500346840825</v>
+        <v>0.56169757765715267</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63867534411971372</v>
+        <v>0.60705775282665864</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64310900548742567</v>
+        <v>0.68951893371847706</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55991531524049687</v>
+        <v>0.5656876380780278</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45674650713856585</v>
+        <v>0.47044890235272285</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24029569202580031</v>
+        <v>0.24772751755237146</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3027314617914531E-2</v>
+        <v>5.2480641271338092E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4106823643902904E-4</v>
+        <v>3.3755206905305968E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8833503957839012E-5</v>
+        <v>6.0059201956960658E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5514309225564595E-5</v>
+        <v>1.680716832769498E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,23 +13583,23 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5749117730508124</v>
+        <v>1.4525885285420115</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4177769277343395</v>
+        <v>1.4316767015356566</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3642728467565204</v>
+        <v>1.2960592044186945</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2990247275511602</v>
+        <v>1.4084162835554688</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2078448609807213</v>
+        <v>1.1249535469918484</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13607,35 +13607,35 @@
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95522723113681773</v>
+        <v>0.94604235391434832</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85764703317902247</v>
+        <v>0.78342757838468391</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81545665593432237</v>
+        <v>0.79123517110459007</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7151856474660635</v>
+        <v>0.75942393493819138</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69594646418580197</v>
+        <v>0.7466925605326834</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74405829305611626</v>
+        <v>0.71516282536461651</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69668502099037843</v>
+        <v>0.70344895323300349</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69313336196643593</v>
+        <v>0.6664743865061884</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13643,39 +13643,39 @@
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95309373929201247</v>
+        <v>0.92506157048930615</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0253550458398717</v>
+        <v>0.97652861508559219</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0485135722844128</v>
+        <v>1.026894735742466</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0277882141753141</v>
+        <v>1.0688997427423266</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0516237976277325</v>
+        <v>1.0936887495328418</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1394791311051107</v>
+        <v>1.0620388018067051</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1919627790303129</v>
+        <v>1.0897945408277145</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0546071273359301</v>
+        <v>1.1424910546139244</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3035112868406882</v>
+        <v>1.2290249275926488</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7240437158469943E-6</v>
+        <v>4.4515027322404369E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6657218615708144E-6</v>
+        <v>2.7441254457346622E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,55 +13712,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0697222114439296E-3</v>
+        <v>4.239293970254094E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7475156165271087E-2</v>
+        <v>9.0073428130576172E-2</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2223502305202599</v>
+        <v>0.21387974554805952</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29503307109264587</v>
+        <v>0.28652250173420413</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31301415380124586</v>
+        <v>0.30352887641332932</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32155450274371283</v>
+        <v>0.31492451299641977</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30016078755160658</v>
+        <v>0.29150230329531024</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23979191624774709</v>
+        <v>0.22152205596220442</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1251023963639476</v>
+        <v>0.11767057083737643</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6240320635669046E-2</v>
+        <v>2.870035069526302E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7580836929846858E-4</v>
+        <v>1.740502856054839E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0029600978480329E-5</v>
+        <v>3.0948874477821565E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9187620005485967E-6</v>
+        <v>7.6763509188991491E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7694672131147537E-6</v>
+        <v>4.6331967213114746E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7441254457346622E-6</v>
+        <v>2.4827801651885035E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,55 +13813,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.281686909956635E-3</v>
+        <v>4.0273292717413894E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5742974855067697E-2</v>
+        <v>9.0073428130576172E-2</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20752688181890924</v>
+        <v>0.20329163933280905</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28084878882857633</v>
+        <v>0.27233821947013459</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31933767205985686</v>
+        <v>0.31617591293055136</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34144447198559197</v>
+        <v>0.31492451299641977</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2741853347827175</v>
+        <v>0.28861614187654477</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23979191624774709</v>
+        <v>0.22152205596220442</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12014784601290016</v>
+        <v>0.13005694671499501</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8153677348686582E-2</v>
+        <v>2.870035069526302E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8459878776339202E-4</v>
+        <v>1.7053411821951452E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0948874477821565E-5</v>
+        <v>3.1868147977162798E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9995656944317453E-6</v>
+        <v>8.4843878577306387E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5877732240437152E-6</v>
+        <v>4.4060792349726766E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6657218615708144E-6</v>
+        <v>2.5350492212977355E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13918,51 +13918,51 @@
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8341246820372782E-2</v>
+        <v>8.5742974855067697E-2</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20329163933280905</v>
+        <v>0.22023260927720981</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28084878882857633</v>
+        <v>0.29219621463983192</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30985239467194031</v>
+        <v>0.31301415380124586</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34144447198559197</v>
+        <v>0.32486949761735934</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30304694897037204</v>
+        <v>0.28861614187654477</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23750818371205426</v>
+        <v>0.21923832342651159</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12014784601290016</v>
+        <v>0.12262512118842388</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6786993982245485E-2</v>
+        <v>2.6513657308957266E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8459878776339202E-4</v>
+        <v>1.7756645299145325E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0336025478260739E-5</v>
+        <v>3.1255298977601978E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8379583066654464E-6</v>
+        <v>7.7571546127822977E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7213114754098344E-6</v>
+        <v>8.9030054644808738E-6</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.965560330377007E-6</v>
+        <v>5.4882508914693243E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,7 +14184,7 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8177314581285166E-3</v>
+        <v>8.2242303022929415E-3</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14192,39 +14192,39 @@
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4447004610405198</v>
+        <v>0.4108185211517183</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59006614218529174</v>
+        <v>0.53900272603464139</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60705775282665864</v>
+        <v>0.65132238063693582</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68951893371847706</v>
+        <v>0.67625895422389093</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54837066956543501</v>
+        <v>0.60032157510321316</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47501636742410852</v>
+        <v>0.46131397220995152</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2378184168502766</v>
+        <v>0.23534114167475287</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.357398796449097E-2</v>
+        <v>5.1933967924761654E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.481005712109678E-4</v>
+        <v>3.3403590166709027E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14232,7 +14232,7 @@
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6483953552162382E-5</v>
+        <v>1.5675916613330893E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,31 +14257,31 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5902021786144127</v>
+        <v>1.4678789341056113</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4177769277343395</v>
+        <v>1.4594762491382907</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4052010321592161</v>
+        <v>1.3779155752240857</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3537205055533144</v>
+        <v>1.3126986720516987</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.172320012128347</v>
+        <v>1.2196864772648461</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0451535775518279</v>
+        <v>1.0033474344497548</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.91848772224694009</v>
+        <v>0.87256333613459303</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14289,23 +14289,23 @@
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7750875145514351</v>
+        <v>0.76701368627485766</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73730479120212744</v>
+        <v>0.75942393493819138</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70319590652107067</v>
+        <v>0.7466925605326834</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74405829305611626</v>
+        <v>0.73683442613324135</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69668502099037843</v>
+        <v>0.64933749529200302</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14313,11 +14313,11 @@
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88141936052377645</v>
+        <v>0.84784148012287064</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92506157048930615</v>
+        <v>0.934405626756875</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14329,27 +14329,27 @@
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0791776248840799</v>
+        <v>1.0175103320335608</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0516237976277325</v>
+        <v>1.0831725115565645</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1505420352905973</v>
+        <v>1.0731017059921917</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1692587260964022</v>
+        <v>1.1352026466955361</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1205200727944258</v>
+        <v>1.1095345818846765</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2041961411766358</v>
+        <v>1.2414393208006553</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5423497267759557E-6</v>
+        <v>4.3152322404371578E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.587318277406967E-6</v>
+        <v>2.6657218615708144E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14390,27 +14390,27 @@
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4010793544864307E-2</v>
+        <v>8.2278612234660917E-2</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22023260927720981</v>
+        <v>0.20329163933280905</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28935935818701802</v>
+        <v>0.28368564528139023</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33198470857707896</v>
+        <v>0.30352887641332932</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34144447198559197</v>
+        <v>0.3314994873646524</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28572998045777931</v>
+        <v>0.2828438190390139</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14418,19 +14418,19 @@
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12386375877618573</v>
+        <v>0.12138648360066201</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7333667328821924E-2</v>
+        <v>2.6513657308957266E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7932453668443796E-4</v>
+        <v>1.6877603452652984E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9110327479139093E-5</v>
+        <v>3.0029600978480329E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6786202185792349E-6</v>
+        <v>4.7694672131147537E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.587318277406967E-6</v>
+        <v>2.5350492212977355E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1545080908490118E-3</v>
+        <v>4.1969010305515529E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5742974855067697E-2</v>
+        <v>8.6609065510169392E-2</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14499,7 +14499,7 @@
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28368564528139023</v>
+        <v>0.28652250173420413</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14507,35 +14507,35 @@
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34144447198559197</v>
+        <v>0.34475946685923853</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29438846471407565</v>
+        <v>0.30016078755160658</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21695459089081875</v>
+        <v>0.22608952103359009</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12014784601290016</v>
+        <v>0.13005694671499501</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6513657308957266E-2</v>
+        <v>2.7607004002110143E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7756645299145325E-4</v>
+        <v>1.6877603452652984E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9416751978919506E-5</v>
+        <v>2.9723176478699916E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9995656944317453E-6</v>
+        <v>8.2419767760811911E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6786202185792349E-6</v>
+        <v>4.6331967213114746E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5611837493523513E-6</v>
+        <v>2.6918563896254302E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,35 +14588,35 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1969010305515529E-3</v>
+        <v>4.239293970254094E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8341246820372782E-2</v>
+        <v>8.5742974855067697E-2</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21387974554805952</v>
+        <v>0.20964450306195934</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28935935818701802</v>
+        <v>0.27233821947013459</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3288229494477734</v>
+        <v>0.30669063554263482</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34144447198559197</v>
+        <v>0.3314994873646524</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2741853347827175</v>
+        <v>0.2828438190390139</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23522445117636143</v>
+        <v>0.22152205596220442</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14624,19 +14624,19 @@
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8427014021974801E-2</v>
+        <v>2.5966983962380827E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6877603452652984E-4</v>
+        <v>1.740502856054839E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1868147977162798E-5</v>
+        <v>3.1255298977601978E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9187620005485967E-6</v>
+        <v>7.8379583066654464E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2663934426229492E-6</v>
+        <v>8.7213114754098344E-6</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0178293864862386E-6</v>
+        <v>5.070098442595471E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,7 +14858,7 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0546585434827789E-3</v>
+        <v>8.5633738199132701E-3</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14866,23 +14866,23 @@
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41505376363781848</v>
+        <v>0.40658327866561811</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58439242927966384</v>
+        <v>0.55602386475152488</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61970478934388062</v>
+        <v>0.63235182586110272</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65636898498201179</v>
+        <v>0.66962896447659781</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60032157510321316</v>
+        <v>0.54837066956543501</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14890,23 +14890,23 @@
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2502047927278952</v>
+        <v>0.23534114167475287</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1933967924761654E-2</v>
+        <v>5.5760681350796724E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6568140814081463E-4</v>
+        <v>3.5161673859693715E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0059201956960658E-5</v>
+        <v>6.189774895564313E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6645560939928683E-5</v>
+        <v>1.6322346164396085E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,63 +14931,63 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.529040556360012</v>
+        <v>1.5749117730508124</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4594762491382907</v>
+        <v>1.3899773801317052</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4188437606267812</v>
+        <v>1.3779155752240857</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4357641725565458</v>
+        <v>1.4220902280560073</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1486367795600976</v>
+        <v>1.136795163275973</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0765081848783828</v>
+        <v>1.013798970225273</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89093309057953185</v>
+        <v>0.87256333613459303</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79167418447294369</v>
+        <v>0.81641400273772324</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80738282765774494</v>
+        <v>0.79930899938116751</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73730479120212744</v>
+        <v>0.7078125995540423</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7539420028679521</v>
+        <v>0.69594646418580197</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72961055921036644</v>
+        <v>0.70793895844174171</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6696292920198782</v>
+        <v>0.68315715650512843</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67980387423631217</v>
+        <v>0.69979810583149782</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8058691296217384</v>
+        <v>0.88141936052377645</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14999,15 +14999,15 @@
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.124179500181226</v>
+        <v>1.0485135722844128</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0175103320335608</v>
+        <v>1.0688997427423266</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0831725115565645</v>
+        <v>1.0305913216751779</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -15015,7 +15015,7 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1919627790303129</v>
+        <v>1.1465546731624914</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -15023,7 +15023,7 @@
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1793673547606227</v>
+        <v>1.2910968936326817</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5423497267759557E-6</v>
+        <v>4.4969262295081963E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6134528054615828E-6</v>
+        <v>2.5350492212977355E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15064,39 +15064,39 @@
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6609065510169392E-2</v>
+        <v>9.0073428130576172E-2</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20329163933280905</v>
+        <v>0.21176212430500943</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27517507592294854</v>
+        <v>0.27801193237576244</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32566119031846791</v>
+        <v>0.33198470857707896</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34807446173288503</v>
+        <v>0.31823950787006627</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29438846471407565</v>
+        <v>0.30304694897037204</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22380578849789726</v>
+        <v>0.23294071864066859</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12014784601290016</v>
+        <v>0.12881830912723316</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6240320635669046E-2</v>
+        <v>2.7333667328821924E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15104,11 +15104,11 @@
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9723176478699916E-5</v>
+        <v>3.0029600978480329E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4843878577306387E-6</v>
+        <v>8.0803693883148939E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3152322404371578E-6</v>
+        <v>4.5423497267759557E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6395873335161986E-6</v>
+        <v>2.6918563896254302E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,27 +15161,27 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.281686909956635E-3</v>
+        <v>4.3240798496591761E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7475156165271087E-2</v>
+        <v>9.0073428130576172E-2</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2223502305202599</v>
+        <v>0.22023260927720981</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28652250173420413</v>
+        <v>0.27517507592294854</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32566119031846791</v>
+        <v>0.31933767205985686</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31492451299641977</v>
+        <v>0.34475946685923853</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15189,27 +15189,27 @@
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23065698610497576</v>
+        <v>0.22152205596220442</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12757967153947131</v>
+        <v>0.12634103395170945</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8427014021974801E-2</v>
+        <v>2.870035069526302E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7229220191249919E-4</v>
+        <v>1.7580836929846858E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2174572476943211E-5</v>
+        <v>3.1255298977601978E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9187620005485967E-6</v>
+        <v>8.0803693883148939E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4515027322404369E-6</v>
+        <v>4.5423497267759557E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.587318277406967E-6</v>
+        <v>2.5089146932431193E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,11 +15262,11 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1545080908490118E-3</v>
+        <v>4.4088657290642583E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9207337475474477E-2</v>
+        <v>9.0939518785677867E-2</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15278,39 +15278,39 @@
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33198470857707896</v>
+        <v>0.31617591293055136</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3348144822382989</v>
+        <v>0.34807446173288503</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30304694897037204</v>
+        <v>0.29438846471407565</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23294071864066859</v>
+        <v>0.22152205596220442</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12014784601290016</v>
+        <v>0.12262512118842388</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7060330655533704E-2</v>
+        <v>2.7880340675398362E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7756645299145325E-4</v>
+        <v>1.7932453668443796E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0029600978480329E-5</v>
+        <v>3.0642449978041152E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1611730821980425E-6</v>
+        <v>8.3227804699643415E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1883695355191256E-5</v>
+        <v>1.1652943989071037E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2566060162750292E-6</v>
+        <v>6.849337112553717E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,39 +26485,39 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0782316273113355E-2</v>
+        <v>1.1099443222322572E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22732785417890827</v>
+        <v>0.20984109616514607</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56631438924049882</v>
+        <v>0.55013397811934173</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70491131920435146</v>
+        <v>0.72671270021067158</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79948287177884703</v>
+        <v>0.80747770049663548</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85900953437868155</v>
+        <v>0.82532288597167447</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70781811114969995</v>
+        <v>0.71519121647417605</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60279700633245825</v>
+        <v>0.55112869150396182</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31358948067352771</v>
+        <v>0.30737978798692317</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26525,15 +26525,15 @@
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3463542629937818E-4</v>
+        <v>4.1707439897415078E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.4438097284447284E-5</v>
+        <v>7.5189997257017459E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8772314162933162E-5</v>
+        <v>1.9163404041327603E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,83 +26558,83 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1682471750529713</v>
+        <v>1.1001939415547399</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98755327692775052</v>
+        <v>1.0274544194298818</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0026781720066478</v>
+        <v>1.0444564291735914</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0464699630771885</v>
+        <v>1.0565321742606231</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92364607016172828</v>
+        <v>0.88812122130935411</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81673164100137641</v>
+        <v>0.785013907370255</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70628038423219119</v>
+        <v>0.72054867482274065</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61451318968239854</v>
+        <v>0.67212380121512338</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60438420273330917</v>
+        <v>0.61030953805422405</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55015051212938026</v>
+        <v>0.56104458167649662</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52694597830958978</v>
+        <v>0.5324927780812696</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55178165503276777</v>
+        <v>0.51428193090432717</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.49957843024895776</v>
+        <v>0.50956999885393695</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53171500275750638</v>
+        <v>0.48613943109257712</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65292290419947263</v>
+        <v>0.62183133733283102</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68352978650965457</v>
+        <v>0.72537854894902121</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71616650131849258</v>
+        <v>0.73723022194550714</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82477952889967687</v>
+        <v>0.79305723932661232</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7770735176713337</v>
+        <v>0.75444030841877052</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78728603852334111</v>
+        <v>0.82665034044950825</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26642,15 +26642,15 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80615472782578956</v>
+        <v>0.83974450815186408</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80657775574931456</v>
+        <v>0.78188659996107024</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92230085701649034</v>
+        <v>0.95956553810806577</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0572233606557376E-6</v>
+        <v>5.9995355191256833E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2600210295327783E-6</v>
+        <v>3.3588095455792263E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,39 +26687,39 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4440126280915473E-3</v>
+        <v>5.5497216111612862E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10929223758601359</v>
+        <v>0.1038276257067129</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28315719462024941</v>
+        <v>0.25618984275165418</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37425704060849585</v>
+        <v>0.37789060410954922</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37975436409495233</v>
+        <v>0.41573109332500047</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42529393613846489</v>
+        <v>0.41687227403671312</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35759560823708803</v>
+        <v>0.37234181888604007</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27843480768689738</v>
+        <v>0.28417573155673032</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15213747082181045</v>
+        <v>0.15058504765015934</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26727,15 +26727,15 @@
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1292745631838224E-4</v>
+        <v>2.0853719948707539E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6091198683368379E-5</v>
+        <v>3.8346898601078904E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5817020206638013E-6</v>
+        <v>9.4839295510651903E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7110963114754101E-6</v>
+        <v>6.0572233606557376E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1283030081375146E-6</v>
+        <v>3.2929505348815944E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,23 +26788,23 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3383036450218085E-3</v>
+        <v>5.4968671196264163E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10492054808257303</v>
+        <v>0.11038515996187372</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25888657793851372</v>
+        <v>0.26158331312537325</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36335635010533579</v>
+        <v>0.37425704060849585</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.39174660717163501</v>
+        <v>0.41173367896610624</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26812,7 +26812,7 @@
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37234181888604007</v>
+        <v>0.35390905557484997</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26820,23 +26820,23 @@
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15213747082181045</v>
+        <v>0.15058504765015934</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5759308024240467E-2</v>
+        <v>3.6453663519856787E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1512258473403568E-4</v>
+        <v>2.2390309839664938E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9474748559934167E-5</v>
+        <v>3.7219048642223642E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0266109307854073E-5</v>
+        <v>9.8750194294596327E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0572233606557376E-6</v>
+        <v>5.5380327868852455E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1941620188351465E-6</v>
+        <v>3.1283030081375146E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,23 +26889,23 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3911581365566775E-3</v>
+        <v>5.074031187347461E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11257100471359399</v>
+        <v>0.11366392708945414</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26697678349909226</v>
+        <v>0.26428004831223273</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35608922310322905</v>
+        <v>0.36698991360638916</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41573109332500047</v>
+        <v>0.37975436409495233</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26913,11 +26913,11 @@
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35390905557484997</v>
+        <v>0.37602837154827812</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27269388381706444</v>
+        <v>0.29852804123131266</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26925,19 +26925,19 @@
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3676241537391509E-2</v>
+        <v>3.6106485772048627E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1731771314968909E-4</v>
+        <v>2.3048848364360966E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8346898601078904E-5</v>
+        <v>3.9098798573649079E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.7772469598610216E-6</v>
+        <v>9.28838461186797E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.130681693989071E-5</v>
+        <v>1.142219262295082E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9151961232513485E-6</v>
+        <v>6.6517600804608211E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,43 +27240,43 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0042353391625182E-2</v>
+        <v>1.0782316273113355E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22077031992374743</v>
+        <v>0.22514200942718798</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5231666262507465</v>
+        <v>0.51777315587702744</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70491131920435146</v>
+        <v>0.71944557320856484</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80747770049663548</v>
+        <v>0.79148804306105858</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80005789966641905</v>
+        <v>0.85900953437868155</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75942984842103223</v>
+        <v>0.73731053244760414</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58557423472295944</v>
+        <v>0.5798333108531265</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32600886604673673</v>
+        <v>0.29806524895701642</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5963772083550379E-2</v>
+        <v>7.0824260552864615E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27284,11 +27284,11 @@
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6693797202157809E-5</v>
+        <v>7.8197597147298159E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9750038858919265E-5</v>
+        <v>1.9945583798116484E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,35 +27313,35 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1569049694699327</v>
+        <v>1.0775095303886628</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98755327692775052</v>
+        <v>0.95762742005115198</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0549009934653273</v>
+        <v>1.0966792506322711</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0464699630771885</v>
+        <v>1.036407751893754</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93252728237482185</v>
+        <v>0.87035879688316709</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80880220759359611</v>
+        <v>0.8246610744091567</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69201209364164185</v>
+        <v>0.72768282011801522</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61451318968239854</v>
+        <v>0.60811201062320686</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27349,27 +27349,27 @@
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53380940780870556</v>
+        <v>0.57193865122361309</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5324927780812696</v>
+        <v>0.5491331773963094</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51963903435124725</v>
+        <v>0.53571034469200751</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.49458264594646817</v>
+        <v>0.48459107734148904</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53171500275750638</v>
+        <v>0.5063952407214346</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64670459082614429</v>
+        <v>0.62183133733283102</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27377,11 +27377,11 @@
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71616650131849258</v>
+        <v>0.68808154048247339</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78512666693334621</v>
+        <v>0.80891838411314465</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27389,23 +27389,23 @@
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81877748006427487</v>
+        <v>0.81090461967904137</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83845332823370533</v>
+        <v>0.90760411819112441</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81455217290730808</v>
+        <v>0.83974450815186408</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78188659996107024</v>
+        <v>0.80657775574931456</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93161702728938423</v>
+        <v>0.92230085701649034</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,7 +27418,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6534084699453549E-6</v>
+        <v>5.4803449453551911E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,7 +27442,7 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.12688567888233E-3</v>
+        <v>5.4968671196264163E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27450,39 +27450,39 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27776372424653034</v>
+        <v>0.2696735186859518</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38152416761060259</v>
+        <v>0.34518853260006899</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41173367896610624</v>
+        <v>0.38774919281274078</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40423978088408541</v>
+        <v>0.43371559824021666</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37234181888604007</v>
+        <v>0.37602837154827812</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28417573155673032</v>
+        <v>0.27269388381706444</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16145200985171723</v>
+        <v>0.15213747082181045</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4717774780815988E-2</v>
+        <v>3.5759308024240467E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1512258473403568E-4</v>
+        <v>2.3048848364360966E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27490,7 +27490,7 @@
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4839295510651903E-6</v>
+        <v>9.7772469598610216E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7110963114754101E-6</v>
+        <v>5.7687841530054644E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1283030081375146E-6</v>
+        <v>3.1941620188351465E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,23 +27543,23 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.074031187347461E-3</v>
+        <v>5.2325946619520688E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11147808233773386</v>
+        <v>0.11257100471359399</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25618984275165418</v>
+        <v>0.2696735186859518</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35245565960217573</v>
+        <v>0.36335635010533579</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.39574402153052929</v>
+        <v>0.40773626460721202</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27567,11 +27567,11 @@
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37234181888604007</v>
+        <v>0.35759560823708803</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28991665542656325</v>
+        <v>0.28704619349164678</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27579,19 +27579,19 @@
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4023419285199669E-2</v>
+        <v>3.5759308024240467E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3048848364360966E-4</v>
+        <v>2.0853719948707539E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8722848587363992E-5</v>
+        <v>3.8346898601078904E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0168336838255462E-5</v>
+        <v>9.5817020206638013E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4803449453551911E-6</v>
+        <v>5.9418476775956281E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1941620188351465E-6</v>
+        <v>3.3588095455792263E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,39 +27644,39 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0211766958125912E-3</v>
+        <v>5.3383036450218085E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11257100471359399</v>
+        <v>0.1038276257067129</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27506698905967086</v>
+        <v>0.28315719462024941</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35608922310322905</v>
+        <v>0.37425704060849585</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40773626460721202</v>
+        <v>0.38375177845384656</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4379264292910926</v>
+        <v>0.42950476718934077</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37602837154827812</v>
+        <v>0.37234181888604007</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30139850316622913</v>
+        <v>0.28417573155673032</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15058504765015934</v>
+        <v>0.1598995866800661</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27684,15 +27684,15 @@
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2390309839664938E-4</v>
+        <v>2.2170796998099597E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6467148669653467E-5</v>
+        <v>3.9098798573649079E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0266109307854073E-5</v>
+        <v>1.0168336838255462E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0960689890710382E-5</v>
+        <v>1.2114446721311475E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3224650269726606E-6</v>
+        <v>6.7176190911584525E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,55 +27914,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0676607290043617E-2</v>
+        <v>1.0782316273113355E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22732785417890827</v>
+        <v>0.22951369893062853</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52856009662446546</v>
+        <v>0.55552744849306068</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70491131920435146</v>
+        <v>0.74124695421488507</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76750355690769312</v>
+        <v>0.79148804306105858</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83374454807342624</v>
+        <v>0.82532288597167447</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70781811114969995</v>
+        <v>0.71519121647417605</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60279700633245825</v>
+        <v>0.5798333108531265</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32290401970343446</v>
+        <v>0.31358948067352771</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1518616048480935E-2</v>
+        <v>7.2212971544097254E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5219645362460563E-4</v>
+        <v>4.2585491263676448E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.3686197311877109E-5</v>
+        <v>7.2182397366736759E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8772314162933162E-5</v>
+        <v>1.9750038858919265E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,11 +27987,11 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1115361471377785</v>
+        <v>1.1455627638868942</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0474049906809475</v>
+        <v>0.97757799130221756</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27999,43 +27999,43 @@
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97603448479314692</v>
+        <v>1.0062211183434506</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90588364573554114</v>
+        <v>0.84371516024388638</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80087277418581571</v>
+        <v>0.77708447396247471</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71341452952746587</v>
+        <v>0.69914623893691652</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62091436874159012</v>
+        <v>0.61451318968239854</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6221602086960536</v>
+        <v>0.58068286144964998</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52836237303514733</v>
+        <v>0.5555975469029385</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52694597830958978</v>
+        <v>0.53803957785294954</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5410674481389276</v>
+        <v>0.51428193090432717</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48958686164397858</v>
+        <v>0.47459950873650986</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28043,23 +28043,23 @@
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61561302395950268</v>
+        <v>0.64048627745281594</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70445416772933789</v>
+        <v>0.73235334268891561</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72318774152749743</v>
+        <v>0.73020898173650228</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82477952889967687</v>
+        <v>0.83271010129294298</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75444030841877052</v>
+        <v>0.76198471150295821</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28067,19 +28067,19 @@
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82980947948902806</v>
+        <v>0.88167257195709225</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79775728274427082</v>
+        <v>0.84814195323338282</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83126891153755889</v>
+        <v>0.80657775574931456</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.91298468674359656</v>
+        <v>0.97819787865385355</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8841598360655738E-6</v>
+        <v>5.9995355191256833E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4575980616256742E-6</v>
+        <v>3.2270915241839626E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,7 +28116,7 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.12688567888233E-3</v>
+        <v>5.074031187347461E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28124,39 +28124,39 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26158331312537325</v>
+        <v>0.25888657793851372</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35608922310322905</v>
+        <v>0.36698991360638916</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41173367896610624</v>
+        <v>0.39574402153052929</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4379264292910926</v>
+        <v>0.40845061193496135</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35022250291261198</v>
+        <v>0.37602837154827812</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28417573155673032</v>
+        <v>0.30139850316622913</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15213747082181045</v>
+        <v>0.1598995866800661</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4717774780815988E-2</v>
+        <v>3.4370597033007828E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2829335522795623E-4</v>
+        <v>2.3048848364360966E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28164,7 +28164,7 @@
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.7772469598610216E-6</v>
+        <v>1.0168336838255462E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8841598360655738E-6</v>
+        <v>5.8264719945355187E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2600210295327783E-6</v>
+        <v>3.3258800402304106E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,15 +28217,15 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4968671196264163E-3</v>
+        <v>5.4440126280915473E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11038515996187372</v>
+        <v>0.1038276257067129</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25618984275165418</v>
+        <v>0.28046045943338987</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28233,19 +28233,19 @@
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38375177845384656</v>
+        <v>0.37975436409495233</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41687227403671312</v>
+        <v>0.40002894983320952</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37234181888604007</v>
+        <v>0.36128216089932602</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29852804123131266</v>
+        <v>0.27843480768689738</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28253,15 +28253,15 @@
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4717774780815988E-2</v>
+        <v>3.6106485772048627E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1731771314968909E-4</v>
+        <v>2.3048848364360966E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5715248697083292E-5</v>
+        <v>3.6843098655938554E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8841598360655738E-6</v>
+        <v>5.5957206284153006E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1612325134863303E-6</v>
+        <v>3.1941620188351465E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,55 +28318,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.074031187347461E-3</v>
+        <v>5.4440126280915473E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10601347045843318</v>
+        <v>0.1038276257067129</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28315719462024941</v>
+        <v>0.25888657793851372</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37789060410954922</v>
+        <v>0.35245565960217573</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40773626460721202</v>
+        <v>0.38375177845384656</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44213726034196849</v>
+        <v>0.42950476718934077</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35759560823708803</v>
+        <v>0.36128216089932602</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28704619349164678</v>
+        <v>0.28417573155673032</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15679474033676385</v>
+        <v>0.14748020130685707</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5064952528624148E-2</v>
+        <v>3.2981886041775189E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2170796998099597E-4</v>
+        <v>2.3048848364360966E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7970948614793817E-5</v>
+        <v>3.6843098655938554E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.28838461186797E-6</v>
+        <v>9.386157081466581E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_2/ieee18_2_2020.xlsx
+++ b/data/IEEE9/ieee18_2/ieee18_2_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8E6D37-543F-42F2-AA17-21A728061662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560A8B62-A58D-49C2-97C4-E85C7BA06FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23760" yWindow="5520" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24510" yWindow="4815" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.09</v>
+            <v>7.0000000000000007E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5389344262295074E-6</v>
+        <v>8.9938524590163926E-6</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4882508914693243E-6</v>
+        <v>5.0178293864862386E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,31 +13510,31 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8177314581285166E-3</v>
+        <v>8.3938020611031058E-3</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18187903757135573</v>
+        <v>0.17148594971013539</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40658327866561811</v>
+        <v>0.41928900612391867</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56169757765715267</v>
+        <v>0.57871871637403605</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60705775282665864</v>
+        <v>0.65132238063693582</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68951893371847706</v>
+        <v>0.6629989747293048</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5656876380780278</v>
+        <v>0.55991531524049687</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13542,23 +13542,23 @@
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24772751755237146</v>
+        <v>0.24029569202580031</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2480641271338092E-2</v>
+        <v>5.6307354697373163E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3755206905305968E-4</v>
+        <v>3.3403590166709027E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0059201956960658E-5</v>
+        <v>6.189774895564313E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.680716832769498E-5</v>
+        <v>1.6645560939928683E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,15 +13583,15 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4525885285420115</v>
+        <v>1.5749117730508124</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4316767015356566</v>
+        <v>1.4038771539330224</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2960592044186945</v>
+        <v>1.3779155752240857</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13599,47 +13599,47 @@
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1249535469918484</v>
+        <v>1.2433697098330956</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99289589867423644</v>
+        <v>1.013798970225273</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94604235391434832</v>
+        <v>0.90930284502447067</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78342757838468391</v>
+        <v>0.85764703317902247</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79123517110459007</v>
+        <v>0.7750875145514351</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75942393493819138</v>
+        <v>0.7741700307622339</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7466925605326834</v>
+        <v>0.72494423352687698</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71516282536461651</v>
+        <v>0.75850602690186608</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70344895323300349</v>
+        <v>0.68992108874775337</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6664743865061884</v>
+        <v>0.67313913037125028</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8058691296217384</v>
+        <v>0.81426359972196483</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13647,35 +13647,35 @@
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97652861508559219</v>
+        <v>1.0058244735381598</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.026894735742466</v>
+        <v>1.1349889184521995</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0688997427423266</v>
+        <v>1.0175103320335608</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0936887495328418</v>
+        <v>1.0726562735802871</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0620388018067051</v>
+        <v>1.0509758976212185</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0897945408277145</v>
+        <v>1.1465546731624914</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1424910546139244</v>
+        <v>1.1315055637041751</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2290249275926488</v>
+        <v>1.2538537140086619</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13692,7 +13692,7 @@
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7441254457346622E-6</v>
+        <v>2.7179909176800464E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,27 +13712,27 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.239293970254094E-3</v>
+        <v>4.4512586687667985E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0073428130576172E-2</v>
+        <v>8.4876884199966002E-2</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21387974554805952</v>
+        <v>0.2223502305202599</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28652250173420413</v>
+        <v>0.28368564528139023</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30352887641332932</v>
+        <v>0.32566119031846791</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31492451299641977</v>
+        <v>0.34144447198559197</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13740,27 +13740,27 @@
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22152205596220442</v>
+        <v>0.23294071864066859</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11767057083737643</v>
+        <v>0.12634103395170945</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.870035069526302E-2</v>
+        <v>2.6240320635669046E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.740502856054839E-4</v>
+        <v>1.6701795083354514E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0948874477821565E-5</v>
+        <v>3.2174572476943211E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6763509188991491E-6</v>
+        <v>8.2419767760811911E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6331967213114746E-6</v>
+        <v>4.5877732240437152E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4827801651885035E-6</v>
+        <v>2.6657218615708144E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,55 +13813,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0273292717413894E-3</v>
+        <v>4.3664727893617172E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0073428130576172E-2</v>
+        <v>8.2278612234660917E-2</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20329163933280905</v>
+        <v>0.20117401808975896</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27233821947013459</v>
+        <v>0.29786992754545977</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31617591293055136</v>
+        <v>0.30036711728402377</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31492451299641977</v>
+        <v>0.3348144822382989</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28861614187654477</v>
+        <v>0.2741853347827175</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22152205596220442</v>
+        <v>0.23065698610497576</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13005694671499501</v>
+        <v>0.12634103395170945</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.870035069526302E-2</v>
+        <v>2.7333667328821924E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7053411821951452E-4</v>
+        <v>1.7932453668443796E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1868147977162798E-5</v>
+        <v>2.9723176478699916E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4843878577306387E-6</v>
+        <v>8.1611730821980425E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4060792349726766E-6</v>
+        <v>4.7240437158469943E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5350492212977355E-6</v>
+        <v>2.587318277406967E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,11 +13914,11 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.239293970254094E-3</v>
+        <v>4.4088657290642583E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5742974855067697E-2</v>
+        <v>8.2278612234660917E-2</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13926,43 +13926,43 @@
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29219621463983192</v>
+        <v>0.26950136301732069</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31301415380124586</v>
+        <v>0.30669063554263482</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32486949761735934</v>
+        <v>0.34807446173288503</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28861614187654477</v>
+        <v>0.29438846471407565</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21923832342651159</v>
+        <v>0.23979191624774709</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12262512118842388</v>
+        <v>0.13005694671499501</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6513657308957266E-2</v>
+        <v>2.7880340675398362E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7756645299145325E-4</v>
+        <v>1.7229220191249919E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1255298977601978E-5</v>
+        <v>2.9110327479139093E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7571546127822977E-6</v>
+        <v>8.4035841638474901E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9030054644808738E-6</v>
+        <v>8.8121584699453533E-6</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4882508914693243E-6</v>
+        <v>5.3837127792508603E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14188,23 +14188,23 @@
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16455722446932183</v>
+        <v>0.17321813102033878</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4108185211517183</v>
+        <v>0.42352424861001886</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53900272603464139</v>
+        <v>0.55602386475152488</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65132238063693582</v>
+        <v>0.60705775282665864</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67625895422389093</v>
+        <v>0.64973899523471867</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14212,23 +14212,23 @@
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46131397220995152</v>
+        <v>0.47044890235272285</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23534114167475287</v>
+        <v>0.26011389342999003</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1933967924761654E-2</v>
+        <v>5.4120661311067408E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3403590166709027E-4</v>
+        <v>3.4106823643902904E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0672050956521478E-5</v>
+        <v>6.3123446954764769E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,27 +14257,27 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4678789341056113</v>
+        <v>1.4525885285420115</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4594762491382907</v>
+        <v>1.3760776063303881</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3779155752240857</v>
+        <v>1.391558303691651</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3126986720516987</v>
+        <v>1.3400465610527759</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2196864772648461</v>
+        <v>1.1960032446965967</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0033474344497548</v>
+        <v>1.0765081848783828</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14289,7 +14289,7 @@
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76701368627485766</v>
+        <v>0.8235304842108998</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14297,59 +14297,59 @@
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7466925605326834</v>
+        <v>0.76119144520322091</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73683442613324135</v>
+        <v>0.69349122459599177</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64933749529200302</v>
+        <v>0.71021288547562844</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65980964264112651</v>
+        <v>0.68646861810137405</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84784148012287064</v>
+        <v>0.79747465952151197</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.934405626756875</v>
+        <v>0.95309373929201247</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94723275663302431</v>
+        <v>0.97652861508559219</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1025606636392795</v>
+        <v>1.091751245368306</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0175103320335608</v>
+        <v>0.98667668560830146</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0831725115565645</v>
+        <v>1.0411075596514552</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0731017059921917</v>
+        <v>1.1505420352905973</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1352026466955361</v>
+        <v>1.1238506202285807</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1095345818846765</v>
+        <v>1.0436216364261808</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2414393208006553</v>
+        <v>1.2910968936326817</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3152322404371578E-6</v>
+        <v>4.7240437158469943E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6657218615708144E-6</v>
+        <v>2.7441254457346622E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,55 +14386,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3240798496591761E-3</v>
+        <v>4.239293970254094E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2278612234660917E-2</v>
+        <v>9.0073428130576172E-2</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20329163933280905</v>
+        <v>0.2223502305202599</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28368564528139023</v>
+        <v>0.27233821947013459</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30352887641332932</v>
+        <v>0.32249943118916241</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3314994873646524</v>
+        <v>0.31492451299641977</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2828438190390139</v>
+        <v>0.29727462613284111</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22608952103359009</v>
+        <v>0.22152205596220442</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12138648360066201</v>
+        <v>0.12757967153947131</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6513657308957266E-2</v>
+        <v>2.7060330655533704E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6877603452652984E-4</v>
+        <v>1.7756645299145325E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0029600978480329E-5</v>
+        <v>2.9110327479139093E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7571546127822977E-6</v>
+        <v>7.9187620005485967E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7694672131147537E-6</v>
+        <v>4.4060792349726766E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5350492212977355E-6</v>
+        <v>2.6395873335161986E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,31 +14487,31 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1969010305515529E-3</v>
+        <v>4.4512586687667985E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6609065510169392E-2</v>
+        <v>8.4876884199966002E-2</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2223502305202599</v>
+        <v>0.21811498803415971</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28652250173420413</v>
+        <v>0.29503307109264587</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31617591293055136</v>
+        <v>0.30985239467194031</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34475946685923853</v>
+        <v>0.34807446173288503</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30016078755160658</v>
+        <v>0.28861614187654477</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14519,23 +14519,23 @@
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13005694671499501</v>
+        <v>0.12757967153947131</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7607004002110143E-2</v>
+        <v>2.7333667328821924E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6877603452652984E-4</v>
+        <v>1.8459878776339202E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9723176478699916E-5</v>
+        <v>2.9416751978919506E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2419767760811911E-6</v>
+        <v>8.4843878577306387E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,7 +14564,7 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6331967213114746E-6</v>
+        <v>4.3152322404371578E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14592,31 +14592,31 @@
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5742974855067697E-2</v>
+        <v>9.0939518785677867E-2</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20964450306195934</v>
+        <v>0.21176212430500943</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27233821947013459</v>
+        <v>0.27517507592294854</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30669063554263482</v>
+        <v>0.31301415380124586</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3314994873646524</v>
+        <v>0.32155450274371283</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2828438190390139</v>
+        <v>0.29150230329531024</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22152205596220442</v>
+        <v>0.22380578849789726</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14624,19 +14624,19 @@
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5966983962380827E-2</v>
+        <v>2.7880340675398362E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.740502856054839E-4</v>
+        <v>1.7053411821951452E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1255298977601978E-5</v>
+        <v>3.2174572476943211E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8379583066654464E-6</v>
+        <v>8.4035841638474901E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7213114754098344E-6</v>
+        <v>9.3572404371584697E-6</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.070098442595471E-6</v>
+        <v>4.965560330377007E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,55 +14858,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5633738199132701E-3</v>
+        <v>8.0546585434827789E-3</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17321813102033878</v>
+        <v>0.16455722446932183</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40658327866561811</v>
+        <v>0.4108185211517183</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55602386475152488</v>
+        <v>0.59573985509091953</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63235182586110272</v>
+        <v>0.61338127108526963</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66962896447659781</v>
+        <v>0.64310900548742567</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54837066956543501</v>
+        <v>0.5656876380780278</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45217904206718018</v>
+        <v>0.44761157699579451</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23534114167475287</v>
+        <v>0.25268206790341891</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5760681350796724E-2</v>
+        <v>5.1933967924761654E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5161673859693715E-4</v>
+        <v>3.5513290598290651E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.189774895564313E-5</v>
+        <v>6.3736295954325596E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6322346164396085E-5</v>
+        <v>1.5514309225564595E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,87 +14931,87 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5749117730508124</v>
+        <v>1.5596213674872121</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3899773801317052</v>
+        <v>1.32047851112512</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3779155752240857</v>
+        <v>1.4052010321592161</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4220902280560073</v>
+        <v>1.3810683945543913</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.136795163275973</v>
+        <v>1.1960032446965967</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.013798970225273</v>
+        <v>0.99289589867423644</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87256333613459303</v>
+        <v>0.90930284502447067</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81641400273772324</v>
+        <v>0.80816739664946347</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79930899938116751</v>
+        <v>0.7750875145514351</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7078125995540423</v>
+        <v>0.76679698285021258</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69594646418580197</v>
+        <v>0.76119144520322091</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70793895844174171</v>
+        <v>0.72238669228749153</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68315715650512843</v>
+        <v>0.65610142753462819</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69979810583149782</v>
+        <v>0.65314489877606463</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88141936052377645</v>
+        <v>0.83105253992241779</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97178185182714993</v>
+        <v>0.89702940168659995</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0058244735381598</v>
+        <v>0.94723275663302431</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0485135722844128</v>
+        <v>1.1025606636392795</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0688997427423266</v>
+        <v>1.0483439784588204</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0305913216751779</v>
+        <v>1.0936887495328418</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0731017059921917</v>
+        <v>1.0952275143631647</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -15019,11 +15019,11 @@
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0655926182456794</v>
+        <v>1.1534765455236737</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2910968936326817</v>
+        <v>1.2041961411766358</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4969262295081963E-6</v>
+        <v>4.7694672131147537E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5350492212977355E-6</v>
+        <v>2.7441254457346622E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,55 +15060,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4088657290642583E-3</v>
+        <v>4.1969010305515529E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0073428130576172E-2</v>
+        <v>8.5742974855067697E-2</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21176212430500943</v>
+        <v>0.22023260927720981</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27801193237576244</v>
+        <v>0.29786992754545977</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33198470857707896</v>
+        <v>0.31301415380124586</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31823950787006627</v>
+        <v>0.33812947711194546</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30304694897037204</v>
+        <v>0.29150230329531024</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23294071864066859</v>
+        <v>0.23750818371205426</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12881830912723316</v>
+        <v>0.13005694671499501</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7333667328821924E-2</v>
+        <v>2.7607004002110143E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8108262037742264E-4</v>
+        <v>1.7053411821951452E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0029600978480329E-5</v>
+        <v>3.0642449978041152E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0803693883148939E-6</v>
+        <v>7.9995656944317453E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5423497267759557E-6</v>
+        <v>4.3606557377049172E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6918563896254302E-6</v>
+        <v>2.6395873335161986E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,7 +15161,7 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3240798496591761E-3</v>
+        <v>4.281686909956635E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15169,31 +15169,31 @@
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22023260927720981</v>
+        <v>0.21387974554805952</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27517507592294854</v>
+        <v>0.28652250173420413</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31933767205985686</v>
+        <v>0.32566119031846791</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34475946685923853</v>
+        <v>0.32486949761735934</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29438846471407565</v>
+        <v>0.2828438190390139</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22152205596220442</v>
+        <v>0.21923832342651159</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12634103395170945</v>
+        <v>0.11767057083737643</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15201,15 +15201,15 @@
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7580836929846858E-4</v>
+        <v>1.8284070407040731E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1255298977601978E-5</v>
+        <v>3.2174572476943211E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0803693883148939E-6</v>
+        <v>7.9995656944317453E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5423497267759557E-6</v>
+        <v>4.3606557377049172E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5089146932431193E-6</v>
+        <v>2.7441254457346622E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,55 +15262,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4088657290642583E-3</v>
+        <v>4.281686909956635E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0939518785677867E-2</v>
+        <v>8.9207337475474477E-2</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20117401808975896</v>
+        <v>0.21811498803415971</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26950136301732069</v>
+        <v>0.29786992754545977</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31617591293055136</v>
+        <v>0.30036711728402377</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34807446173288503</v>
+        <v>0.31492451299641977</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29438846471407565</v>
+        <v>0.28861614187654477</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22152205596220442</v>
+        <v>0.22608952103359009</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12262512118842388</v>
+        <v>0.12386375877618573</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7880340675398362E-2</v>
+        <v>2.6513657308957266E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7932453668443796E-4</v>
+        <v>1.7053411821951452E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0642449978041152E-5</v>
+        <v>2.9416751978919506E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3227804699643415E-6</v>
+        <v>7.8379583066654464E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1652943989071037E-5</v>
+        <v>1.1537568306010929E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.849337112553717E-6</v>
+        <v>6.9151961232513485E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26489,51 +26489,51 @@
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20984109616514607</v>
+        <v>0.21202694091686636</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55013397811934173</v>
+        <v>0.55552744849306068</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72671270021067158</v>
+        <v>0.70491131920435146</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80747770049663548</v>
+        <v>0.83146218665000093</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82532288597167447</v>
+        <v>0.8758528585821852</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71519121647417605</v>
+        <v>0.73731053244760414</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55112869150396182</v>
+        <v>0.59705608246262531</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30737978798692317</v>
+        <v>0.30117009530031869</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8741194066015657E-2</v>
+        <v>7.0129905057248296E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1707439897415078E-4</v>
+        <v>4.3463542629937818E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5189997257017459E-5</v>
+        <v>7.8197597147298159E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9163404041327603E-5</v>
+        <v>2.0141128737313706E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,55 +26558,55 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1001939415547399</v>
+        <v>1.1795893806360098</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0274544194298818</v>
+        <v>0.95762742005115198</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0444564291735914</v>
+        <v>1.0757901220487991</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0565321742606231</v>
+        <v>0.9659722736097125</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88812122130935411</v>
+        <v>0.85259637245697983</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.785013907370255</v>
+        <v>0.7532961737391336</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72054867482274065</v>
+        <v>0.71341452952746587</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67212380121512338</v>
+        <v>0.64011790591916518</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61030953805422405</v>
+        <v>0.5984588674123944</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56104458167649662</v>
+        <v>0.5555975469029385</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5324927780812696</v>
+        <v>0.5491331773963094</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51428193090432717</v>
+        <v>0.53571034469200751</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50956999885393695</v>
+        <v>0.50457421455144735</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26614,23 +26614,23 @@
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62183133733283102</v>
+        <v>0.60939471058617434</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72537854894902121</v>
+        <v>0.69050458024954908</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73723022194550714</v>
+        <v>0.70212402090048298</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79305723932661232</v>
+        <v>0.76926552214681387</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75444030841877052</v>
+        <v>0.76198471150295821</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26638,19 +26638,19 @@
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90760411819112441</v>
+        <v>0.89031642070176975</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83974450815186408</v>
+        <v>0.81455217290730808</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78188659996107024</v>
+        <v>0.80657775574931456</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95956553810806577</v>
+        <v>0.96888170838095966</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9995355191256833E-6</v>
+        <v>5.7687841530054644E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3588095455792263E-6</v>
+        <v>3.2929505348815944E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,55 +26687,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5497216111612862E-3</v>
+        <v>5.1797401704171998E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1038276257067129</v>
+        <v>0.11038515996187372</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25618984275165418</v>
+        <v>0.25888657793851372</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37789060410954922</v>
+        <v>0.34882209610112236</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41573109332500047</v>
+        <v>0.39974143588942351</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41687227403671312</v>
+        <v>0.42950476718934077</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37234181888604007</v>
+        <v>0.35022250291261198</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28417573155673032</v>
+        <v>0.28704619349164678</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15058504765015934</v>
+        <v>0.15834716350841499</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4023419285199669E-2</v>
+        <v>3.6453663519856787E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0853719948707539E-4</v>
+        <v>2.2829335522795623E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8346898601078904E-5</v>
+        <v>3.9098798573649079E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4839295510651903E-6</v>
+        <v>9.386157081466581E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0572233606557376E-6</v>
+        <v>5.8841598360655738E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2929505348815944E-6</v>
+        <v>3.3258800402304106E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,47 +26788,47 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4968671196264163E-3</v>
+        <v>5.1797401704171998E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11038515996187372</v>
+        <v>0.10710639283429331</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26158331312537325</v>
+        <v>0.26428004831223273</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37425704060849585</v>
+        <v>0.34518853260006899</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41173367896610624</v>
+        <v>0.41972850768389469</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42529393613846489</v>
+        <v>0.40423978088408541</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35390905557484997</v>
+        <v>0.38708802953499216</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29565757929639619</v>
+        <v>0.29852804123131266</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15058504765015934</v>
+        <v>0.15213747082181045</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6453663519856787E-2</v>
+        <v>3.3676241537391509E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2390309839664938E-4</v>
+        <v>2.1731771314968909E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26836,7 +26836,7 @@
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.8750194294596327E-6</v>
+        <v>9.5817020206638013E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5380327868852455E-6</v>
+        <v>5.4803449453551911E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1283030081375146E-6</v>
+        <v>3.1612325134863303E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26893,51 +26893,51 @@
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11366392708945414</v>
+        <v>0.11475684946531427</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26428004831223273</v>
+        <v>0.2696735186859518</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36698991360638916</v>
+        <v>0.35608922310322905</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37975436409495233</v>
+        <v>0.41972850768389469</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41687227403671312</v>
+        <v>0.42529393613846489</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37602837154827812</v>
+        <v>0.35759560823708803</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29852804123131266</v>
+        <v>0.30139850316622913</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1598995866800661</v>
+        <v>0.14903262447850821</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6106485772048627E-2</v>
+        <v>3.6453663519856787E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3048848364360966E-4</v>
+        <v>2.2390309839664938E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9098798573649079E-5</v>
+        <v>3.8346898601078904E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.28838461186797E-6</v>
+        <v>9.8750194294596327E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.142219262295082E-5</v>
+        <v>1.2114446721311475E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6517600804608211E-6</v>
+        <v>6.3883240376702929E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0782316273113355E-2</v>
+        <v>1.0042353391625182E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22514200942718798</v>
+        <v>0.21202694091686636</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51777315587702744</v>
+        <v>0.55013397811934173</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71944557320856484</v>
+        <v>0.72671270021067158</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79148804306105858</v>
+        <v>0.83146218665000093</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85900953437868155</v>
+        <v>0.8169012238699227</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73731053244760414</v>
+        <v>0.70781811114969995</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5798333108531265</v>
+        <v>0.60279700633245825</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29806524895701642</v>
+        <v>0.31669432701682998</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0824260552864615E-2</v>
+        <v>7.1518616048480935E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4780619679329875E-4</v>
+        <v>4.2585491263676448E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8197597147298159E-5</v>
+        <v>7.2934297339306934E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9945583798116484E-5</v>
+        <v>1.9358948980524821E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,55 +27313,55 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0775095303886628</v>
+        <v>1.1569049694699327</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95762742005115198</v>
+        <v>0.96760270567668472</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0966792506322711</v>
+        <v>1.0757901220487991</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.036407751893754</v>
+        <v>1.0464699630771885</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87035879688316709</v>
+        <v>0.85259637245697983</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8246610744091567</v>
+        <v>0.80087277418581571</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72768282011801522</v>
+        <v>0.71341452952746587</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60811201062320686</v>
+        <v>0.61451318968239854</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58068286144964998</v>
+        <v>0.60438420273330917</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57193865122361309</v>
+        <v>0.51746830348803097</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5491331773963094</v>
+        <v>0.56022677693966916</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53571034469200751</v>
+        <v>0.51963903435124725</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48459107734148904</v>
+        <v>0.51456578315642643</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27369,43 +27369,43 @@
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62183133733283102</v>
+        <v>0.65292290419947263</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69747937398944349</v>
+        <v>0.7114289614692324</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68808154048247339</v>
+        <v>0.73020898173650228</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80891838411314465</v>
+        <v>0.75340437736028165</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7695291145871459</v>
+        <v>0.72426269608201965</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81090461967904137</v>
+        <v>0.81877748006427487</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90760411819112441</v>
+        <v>0.89896026944644702</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83974450815186408</v>
+        <v>0.79775728274427082</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80657775574931456</v>
+        <v>0.84772968206305521</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92230085701649034</v>
+        <v>0.95956553810806577</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27422,7 +27422,7 @@
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2600210295327783E-6</v>
+        <v>3.1941620188351465E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,7 +27442,7 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4968671196264163E-3</v>
+        <v>5.2325946619520688E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27450,47 +27450,47 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2696735186859518</v>
+        <v>0.27237025387281133</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34518853260006899</v>
+        <v>0.35608922310322905</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38774919281274078</v>
+        <v>0.41972850768389469</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43371559824021666</v>
+        <v>0.40423978088408541</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37602837154827812</v>
+        <v>0.38340147687275417</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27269388381706444</v>
+        <v>0.29565757929639619</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15213747082181045</v>
+        <v>0.14903262447850821</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5759308024240467E-2</v>
+        <v>3.5064952528624148E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3048848364360966E-4</v>
+        <v>2.1512258473403568E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7594998628508729E-5</v>
+        <v>3.8722848587363992E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.7772469598610216E-6</v>
+        <v>9.4839295510651903E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7687841530054644E-6</v>
+        <v>5.4803449453551911E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1941620188351465E-6</v>
+        <v>3.3588095455792263E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,11 +27543,11 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2325946619520688E-3</v>
+        <v>5.4440126280915473E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11257100471359399</v>
+        <v>0.10819931521015345</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27555,11 +27555,11 @@
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36335635010533579</v>
+        <v>0.34882209610112236</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40773626460721202</v>
+        <v>0.37975436409495233</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27567,31 +27567,31 @@
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35759560823708803</v>
+        <v>0.37234181888604007</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28704619349164678</v>
+        <v>0.29278711736147972</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15368989399346158</v>
+        <v>0.15679474033676385</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5759308024240467E-2</v>
+        <v>3.5064952528624148E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0853719948707539E-4</v>
+        <v>2.2829335522795623E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8346898601078904E-5</v>
+        <v>3.9098798573649079E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5817020206638013E-6</v>
+        <v>9.386157081466581E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,7 +27620,7 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9418476775956281E-6</v>
+        <v>5.6534084699453549E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,19 +27644,19 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3383036450218085E-3</v>
+        <v>5.4440126280915473E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1038276257067129</v>
+        <v>0.10492054808257303</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28315719462024941</v>
+        <v>0.27237025387281133</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37425704060849585</v>
+        <v>0.37789060410954922</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27664,7 +27664,7 @@
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42950476718934077</v>
+        <v>0.44213726034196849</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27672,27 +27672,27 @@
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28417573155673032</v>
+        <v>0.29278711736147972</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1598995866800661</v>
+        <v>0.14903262447850821</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3676241537391509E-2</v>
+        <v>3.5064952528624148E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2170796998099597E-4</v>
+        <v>2.1731771314968909E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9098798573649079E-5</v>
+        <v>3.6467148669653467E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0168336838255462E-5</v>
+        <v>9.28838461186797E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2114446721311475E-5</v>
+        <v>1.130681693989071E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7176190911584525E-6</v>
+        <v>6.3224650269726606E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,55 +27914,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0782316273113355E-2</v>
+        <v>1.0570898306973877E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22951369893062853</v>
+        <v>0.20984109616514607</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55552744849306068</v>
+        <v>0.56092091886677975</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74124695421488507</v>
+        <v>0.69764419220224472</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79148804306105858</v>
+        <v>0.83146218665000093</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82532288597167447</v>
+        <v>0.84216621017517801</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71519121647417605</v>
+        <v>0.73731053244760414</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5798333108531265</v>
+        <v>0.57409238698329357</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31358948067352771</v>
+        <v>0.30737978798692317</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2212971544097254E-2</v>
+        <v>6.9435549561631976E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2585491263676448E-4</v>
+        <v>4.4341593996199193E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2182397366736759E-5</v>
+        <v>7.8197597147298159E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9750038858919265E-5</v>
+        <v>2.0141128737313706E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,11 +27987,11 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1455627638868942</v>
+        <v>1.1795893806360098</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97757799130221756</v>
+        <v>1.017479133804349</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27999,39 +27999,39 @@
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0062211183434506</v>
+        <v>1.0162833295268849</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84371516024388638</v>
+        <v>0.8614775846700734</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.77708447396247471</v>
+        <v>0.7929433407780353</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69914623893691652</v>
+        <v>0.6777438030510925</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61451318968239854</v>
+        <v>0.60811201062320686</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58068286144964998</v>
+        <v>0.58660819677056475</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5555975469029385</v>
+        <v>0.52291533826158909</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53803957785294954</v>
+        <v>0.55467997716798922</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51428193090432717</v>
+        <v>0.53571034469200751</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28039,47 +28039,47 @@
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51145919312864896</v>
+        <v>0.48107547868536277</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64048627745281594</v>
+        <v>0.63426796407948771</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73235334268891561</v>
+        <v>0.67655499276976017</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73020898173650228</v>
+        <v>0.69510278069147802</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83271010129294298</v>
+        <v>0.82477952889967687</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76198471150295821</v>
+        <v>0.75444030841877052</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7951588989085745</v>
+        <v>0.74792173659717409</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88167257195709225</v>
+        <v>0.82980947948902806</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84814195323338282</v>
+        <v>0.88173173355945744</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80657775574931456</v>
+        <v>0.81480814101206267</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97819787865385355</v>
+        <v>0.8850361759249149</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9995355191256833E-6</v>
+        <v>6.0572233606557376E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2270915241839626E-6</v>
+        <v>3.1283030081375146E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,55 +28116,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.074031187347461E-3</v>
+        <v>5.3911581365566775E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11366392708945414</v>
+        <v>0.10492054808257303</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25888657793851372</v>
+        <v>0.2696735186859518</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36698991360638916</v>
+        <v>0.34518853260006899</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.39574402153052929</v>
+        <v>0.39974143588942351</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40845061193496135</v>
+        <v>0.41687227403671312</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37602837154827812</v>
+        <v>0.38708802953499216</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30139850316622913</v>
+        <v>0.28991665542656325</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1598995866800661</v>
+        <v>0.14748020130685707</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4370597033007828E-2</v>
+        <v>3.5759308024240467E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3048848364360966E-4</v>
+        <v>2.1073232790272883E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6091198683368379E-5</v>
+        <v>3.7970948614793817E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0168336838255462E-5</v>
+        <v>9.386157081466581E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8264719945355187E-6</v>
+        <v>5.6534084699453549E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3258800402304106E-6</v>
+        <v>3.4575980616256742E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,39 +28217,39 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4440126280915473E-3</v>
+        <v>5.12688567888233E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1038276257067129</v>
+        <v>0.11038515996187372</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28046045943338987</v>
+        <v>0.27237025387281133</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37425704060849585</v>
+        <v>0.37789060410954922</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37975436409495233</v>
+        <v>0.38375177845384656</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40002894983320952</v>
+        <v>0.41266144298583723</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36128216089932602</v>
+        <v>0.36496871356156407</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27843480768689738</v>
+        <v>0.27269388381706444</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16145200985171723</v>
+        <v>0.14903262447850821</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28257,11 +28257,11 @@
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3048848364360966E-4</v>
+        <v>2.1292745631838224E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6843098655938554E-5</v>
+        <v>3.5715248697083292E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,7 +28294,7 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5957206284153006E-6</v>
+        <v>5.8264719945355187E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,55 +28318,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4440126280915473E-3</v>
+        <v>5.2854491534869387E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1038276257067129</v>
+        <v>0.10492054808257303</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25888657793851372</v>
+        <v>0.2696735186859518</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35245565960217573</v>
+        <v>0.34882209610112236</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38375177845384656</v>
+        <v>0.40773626460721202</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42950476718934077</v>
+        <v>0.44213726034196849</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36128216089932602</v>
+        <v>0.35759560823708803</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28417573155673032</v>
+        <v>0.30139850316622913</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14748020130685707</v>
+        <v>0.15524231716511272</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2981886041775189E-2</v>
+        <v>3.5064952528624148E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3048848364360966E-4</v>
+        <v>2.2829335522795623E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6843098655938554E-5</v>
+        <v>3.6467148669653467E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.386157081466581E-6</v>
+        <v>9.5817020206638013E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_2/ieee18_2_2020.xlsx
+++ b/data/IEEE9/ieee18_2/ieee18_2_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560A8B62-A58D-49C2-97C4-E85C7BA06FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0913766-EB35-4579-B130-303879608DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24510" yWindow="4815" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15570" yWindow="7515" windowWidth="21600" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -249,12 +249,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>0.02</v>
+            <v>0.01</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>7.0000000000000007E-2</v>
+            <v>0.05</v>
           </cell>
         </row>
       </sheetData>
@@ -7724,18 +7724,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
       <sheetData sheetId="27">
         <row r="2">
           <cell r="B2">
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9938524590163926E-6</v>
+        <v>9.2663934426229492E-6</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0178293864862386E-6</v>
+        <v>5.3314437231416288E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,55 +13510,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3938020611031058E-3</v>
+        <v>8.902517337533597E-3</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17148594971013539</v>
+        <v>0.16628940577952522</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41928900612391867</v>
+        <v>0.43199473358221924</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57871871637403605</v>
+        <v>0.56169757765715267</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65132238063693582</v>
+        <v>0.66396941715415791</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6629989747293048</v>
+        <v>0.65636898498201179</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55991531524049687</v>
+        <v>0.55414299240296594</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47044890235272285</v>
+        <v>0.45217904206718018</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24029569202580031</v>
+        <v>0.25268206790341891</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6307354697373163E-2</v>
+        <v>5.4120661311067408E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3403590166709027E-4</v>
+        <v>3.4106823643902904E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.189774895564313E-5</v>
+        <v>5.9446352957399832E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6645560939928683E-5</v>
+        <v>1.6483953552162382E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,75 +13583,75 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5749117730508124</v>
+        <v>1.6054925841780125</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4038771539330224</v>
+        <v>1.3343782849264372</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3779155752240857</v>
+        <v>1.4052010321592161</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4084162835554688</v>
+        <v>1.3537205055533144</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2433697098330956</v>
+        <v>1.2078448609807213</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.013798970225273</v>
+        <v>1.0451535775518279</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90930284502447067</v>
+        <v>0.87256333613459303</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85764703317902247</v>
+        <v>0.83290721491424291</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7750875145514351</v>
+        <v>0.83160431248747735</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7741700307622339</v>
+        <v>0.74467783911414864</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72494423352687698</v>
+        <v>0.7321936758621459</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75850602690186608</v>
+        <v>0.73683442613324135</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68992108874775337</v>
+        <v>0.70344895323300349</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67313913037125028</v>
+        <v>0.63981541104594086</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81426359972196483</v>
+        <v>0.8646304203233236</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92506157048930615</v>
+        <v>0.91571751422173753</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0058244735381598</v>
+        <v>0.98629390123644811</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1349889184521995</v>
+        <v>1.124179500181226</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13659,23 +13659,23 @@
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0726562735802871</v>
+        <v>1.0831725115565645</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0509758976212185</v>
+        <v>1.1062904185486513</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1465546731624914</v>
+        <v>1.1352026466955361</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1315055637041751</v>
+        <v>1.1095345818846765</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2538537140086619</v>
+        <v>1.2414393208006553</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4515027322404369E-6</v>
+        <v>4.4060792349726766E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7179909176800464E-6</v>
+        <v>2.5089146932431193E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,55 +13712,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4512586687667985E-3</v>
+        <v>4.1121151511464707E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4876884199966002E-2</v>
+        <v>8.2278612234660917E-2</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2223502305202599</v>
+        <v>0.21176212430500943</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28368564528139023</v>
+        <v>0.27517507592294854</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32566119031846791</v>
+        <v>0.33198470857707896</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34144447198559197</v>
+        <v>0.3281844924910059</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29150230329531024</v>
+        <v>0.27995765762024843</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23294071864066859</v>
+        <v>0.23065698610497576</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12634103395170945</v>
+        <v>0.12262512118842388</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6240320635669046E-2</v>
+        <v>2.8153677348686582E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6701795083354514E-4</v>
+        <v>1.7932453668443796E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2174572476943211E-5</v>
+        <v>2.9416751978919506E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2419767760811911E-6</v>
+        <v>7.9995656944317453E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5877732240437152E-6</v>
+        <v>4.6331967213114746E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6657218615708144E-6</v>
+        <v>2.7441254457346622E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,55 +13813,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3664727893617172E-3</v>
+        <v>4.1545080908490118E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2278612234660917E-2</v>
+        <v>8.6609065510169392E-2</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20117401808975896</v>
+        <v>0.20752688181890924</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29786992754545977</v>
+        <v>0.27517507592294854</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30036711728402377</v>
+        <v>0.33198470857707896</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3348144822382989</v>
+        <v>0.3281844924910059</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2741853347827175</v>
+        <v>0.27995765762024843</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23065698610497576</v>
+        <v>0.23750818371205426</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12634103395170945</v>
+        <v>0.1189092084251383</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7333667328821924E-2</v>
+        <v>2.7060330655533704E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7932453668443796E-4</v>
+        <v>1.7053411821951452E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9723176478699916E-5</v>
+        <v>3.0336025478260739E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1611730821980425E-6</v>
+        <v>8.4035841638474901E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7240437158469943E-6</v>
+        <v>4.5877732240437152E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.587318277406967E-6</v>
+        <v>2.6918563896254302E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,31 +13914,31 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4088657290642583E-3</v>
+        <v>4.4512586687667985E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2278612234660917E-2</v>
+        <v>8.7475156165271087E-2</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22023260927720981</v>
+        <v>0.21387974554805952</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26950136301732069</v>
+        <v>0.27517507592294854</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30669063554263482</v>
+        <v>0.30036711728402377</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34807446173288503</v>
+        <v>0.32486949761735934</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29438846471407565</v>
+        <v>0.28861614187654477</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13946,7 +13946,7 @@
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13005694671499501</v>
+        <v>0.12386375877618573</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13954,11 +13954,11 @@
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7229220191249919E-4</v>
+        <v>1.8284070407040731E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9110327479139093E-5</v>
+        <v>3.1561723477382385E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8121584699453533E-6</v>
+        <v>8.9938524590163926E-6</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3837127792508603E-6</v>
+        <v>5.2269056109231657E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,11 +14184,11 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2242303022929415E-3</v>
+        <v>8.5633738199132701E-3</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17321813102033878</v>
+        <v>0.17495031233054217</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14196,7 +14196,7 @@
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55602386475152488</v>
+        <v>0.55035015184589708</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14204,35 +14204,35 @@
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64973899523471867</v>
+        <v>0.67625895422389093</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60032157510321316</v>
+        <v>0.60609389794074409</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47044890235272285</v>
+        <v>0.43847664685302318</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26011389342999003</v>
+        <v>0.23534114167475287</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4120661311067408E-2</v>
+        <v>5.2480641271338092E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4106823643902904E-4</v>
+        <v>3.6216524075484527E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3123446954764769E-5</v>
+        <v>6.0059201956960658E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5675916613330893E-5</v>
+        <v>1.6645560939928683E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,15 +14257,15 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4525885285420115</v>
+        <v>1.4984597452328119</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3760776063303881</v>
+        <v>1.3899773801317052</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.391558303691651</v>
+        <v>1.33698738982139</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14273,67 +14273,67 @@
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1960032446965967</v>
+        <v>1.2078448609807213</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0765081848783828</v>
+        <v>1.0033474344497548</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87256333613459303</v>
+        <v>0.90011796780200126</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80816739664946347</v>
+        <v>0.79167418447294369</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8235304842108998</v>
+        <v>0.7750875145514351</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75942393493819138</v>
+        <v>0.72993174329010624</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76119144520322091</v>
+        <v>0.69594646418580197</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69349122459599177</v>
+        <v>0.70793895844174171</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71021288547562844</v>
+        <v>0.64257356304937807</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68646861810137405</v>
+        <v>0.67313913037125028</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79747465952151197</v>
+        <v>0.81426359972196483</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95309373929201247</v>
+        <v>0.94374968302444384</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97652861508559219</v>
+        <v>1.015589759689016</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.091751245368306</v>
+        <v>1.124179500181226</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98667668560830146</v>
+        <v>0.97639880346654828</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0411075596514552</v>
+        <v>1.0200750836989005</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14341,15 +14341,15 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1238506202285807</v>
+        <v>1.1011465672946699</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0436216364261808</v>
+        <v>1.0546071273359301</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2910968936326817</v>
+        <v>1.2041961411766358</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7240437158469943E-6</v>
+        <v>4.3152322404371578E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7441254457346622E-6</v>
+        <v>2.5611837493523513E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,19 +14386,19 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.239293970254094E-3</v>
+        <v>4.281686909956635E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0073428130576172E-2</v>
+        <v>8.8341246820372782E-2</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2223502305202599</v>
+        <v>0.22023260927720981</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27233821947013459</v>
+        <v>0.27517507592294854</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14406,11 +14406,11 @@
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31492451299641977</v>
+        <v>0.34475946685923853</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29727462613284111</v>
+        <v>0.30016078755160658</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14418,23 +14418,23 @@
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12757967153947131</v>
+        <v>0.12634103395170945</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7060330655533704E-2</v>
+        <v>2.8427014021974801E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7756645299145325E-4</v>
+        <v>1.6701795083354514E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9110327479139093E-5</v>
+        <v>3.0029600978480329E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9187620005485967E-6</v>
+        <v>7.7571546127822977E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4060792349726766E-6</v>
+        <v>4.6786202185792349E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6395873335161986E-6</v>
+        <v>2.6657218615708144E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,43 +14487,43 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4512586687667985E-3</v>
+        <v>4.239293970254094E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4876884199966002E-2</v>
+        <v>8.7475156165271087E-2</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21811498803415971</v>
+        <v>0.21599736679110962</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29503307109264587</v>
+        <v>0.29219621463983192</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30985239467194031</v>
+        <v>0.30036711728402377</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34807446173288503</v>
+        <v>0.32486949761735934</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28861614187654477</v>
+        <v>0.30304694897037204</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22608952103359009</v>
+        <v>0.21695459089081875</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12757967153947131</v>
+        <v>0.13005694671499501</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7333667328821924E-2</v>
+        <v>2.6240320635669046E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14531,11 +14531,11 @@
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9416751978919506E-5</v>
+        <v>3.0948874477821565E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4843878577306387E-6</v>
+        <v>7.9995656944317453E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3152322404371578E-6</v>
+        <v>4.5423497267759557E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6918563896254302E-6</v>
+        <v>2.5611837493523513E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,11 +14588,11 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.239293970254094E-3</v>
+        <v>4.1969010305515529E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0939518785677867E-2</v>
+        <v>8.4010793544864307E-2</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14600,35 +14600,35 @@
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27517507592294854</v>
+        <v>0.29786992754545977</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31301415380124586</v>
+        <v>0.33198470857707896</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32155450274371283</v>
+        <v>0.34475946685923853</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29150230329531024</v>
+        <v>0.2828438190390139</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22380578849789726</v>
+        <v>0.23750818371205426</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12262512118842388</v>
+        <v>0.12881830912723316</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7880340675398362E-2</v>
+        <v>2.6513657308957266E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7053411821951452E-4</v>
+        <v>1.7580836929846858E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14636,7 +14636,7 @@
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4035841638474901E-6</v>
+        <v>8.3227804699643415E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.3572404371584697E-6</v>
+        <v>9.0846994535519115E-6</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.965560330377007E-6</v>
+        <v>5.070098442595471E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,55 +14858,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0546585434827789E-3</v>
+        <v>8.902517337533597E-3</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16455722446932183</v>
+        <v>0.18014685626115234</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4108185211517183</v>
+        <v>0.41928900612391867</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59573985509091953</v>
+        <v>0.57871871637403605</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61338127108526963</v>
+        <v>0.63235182586110272</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64310900548742567</v>
+        <v>0.67625895422389093</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5656876380780278</v>
+        <v>0.5887769294281513</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44761157699579451</v>
+        <v>0.45674650713856585</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25268206790341891</v>
+        <v>0.23534114167475287</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1933967924761654E-2</v>
+        <v>5.4120661311067408E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5513290598290651E-4</v>
+        <v>3.4106823643902904E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3736295954325596E-5</v>
+        <v>5.8220654958278186E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5514309225564595E-5</v>
+        <v>1.6645560939928683E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,35 +14931,35 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5596213674872121</v>
+        <v>1.5749117730508124</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.32047851112512</v>
+        <v>1.3482780587277541</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4052010321592161</v>
+        <v>1.4188437606267812</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3810683945543913</v>
+        <v>1.3673944500538529</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1960032446965967</v>
+        <v>1.2078448609807213</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99289589867423644</v>
+        <v>1.0765081848783828</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90930284502447067</v>
+        <v>0.93685747669187891</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80816739664946347</v>
+        <v>0.79992079056120358</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14971,51 +14971,51 @@
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76119144520322091</v>
+        <v>0.69594646418580197</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72238669228749153</v>
+        <v>0.75128215997899117</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65610142753462819</v>
+        <v>0.69668502099037843</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65314489877606463</v>
+        <v>0.65980964264112651</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83105253992241779</v>
+        <v>0.87302489042355003</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89702940168659995</v>
+        <v>0.91571751422173753</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94723275663302431</v>
+        <v>0.93746747048216839</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1025606636392795</v>
+        <v>1.026894735742466</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0483439784588204</v>
+        <v>1.0586218606005735</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0936887495328418</v>
+        <v>1.1042049875091191</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0952275143631647</v>
+        <v>1.0731017059921917</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1465546731624914</v>
+        <v>1.0897945408277145</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -15023,7 +15023,7 @@
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2041961411766358</v>
+        <v>1.1793673547606227</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7694672131147537E-6</v>
+        <v>4.3152322404371578E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7441254457346622E-6</v>
+        <v>2.5089146932431193E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,47 +15060,47 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1969010305515529E-3</v>
+        <v>4.4512586687667985E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5742974855067697E-2</v>
+        <v>8.3144702889762612E-2</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22023260927720981</v>
+        <v>0.2223502305202599</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29786992754545977</v>
+        <v>0.27517507592294854</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31301415380124586</v>
+        <v>0.30985239467194031</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33812947711194546</v>
+        <v>0.32486949761735934</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29150230329531024</v>
+        <v>0.29438846471407565</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23750818371205426</v>
+        <v>0.23979191624774709</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13005694671499501</v>
+        <v>0.1189092084251383</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7607004002110143E-2</v>
+        <v>2.8153677348686582E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7053411821951452E-4</v>
+        <v>1.8284070407040731E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9995656944317453E-6</v>
+        <v>8.2419767760811911E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3606557377049172E-6</v>
+        <v>4.7240437158469943E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6395873335161986E-6</v>
+        <v>2.5350492212977355E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15165,43 +15165,43 @@
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0073428130576172E-2</v>
+        <v>8.3144702889762612E-2</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21387974554805952</v>
+        <v>0.20964450306195934</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28652250173420413</v>
+        <v>0.28368564528139023</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32566119031846791</v>
+        <v>0.33198470857707896</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32486949761735934</v>
+        <v>0.3281844924910059</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2828438190390139</v>
+        <v>0.29438846471407565</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21923832342651159</v>
+        <v>0.21695459089081875</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11767057083737643</v>
+        <v>0.1251023963639476</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.870035069526302E-2</v>
+        <v>2.7333667328821924E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8284070407040731E-4</v>
+        <v>1.6877603452652984E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15209,7 +15209,7 @@
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9995656944317453E-6</v>
+        <v>8.3227804699643415E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3606557377049172E-6</v>
+        <v>4.7240437158469943E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7441254457346622E-6</v>
+        <v>2.6134528054615828E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,55 +15262,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.281686909956635E-3</v>
+        <v>4.1121151511464707E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9207337475474477E-2</v>
+        <v>8.2278612234660917E-2</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21811498803415971</v>
+        <v>0.20964450306195934</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29786992754545977</v>
+        <v>0.28652250173420413</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30036711728402377</v>
+        <v>0.30669063554263482</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31492451299641977</v>
+        <v>0.31823950787006627</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28861614187654477</v>
+        <v>0.27995765762024843</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22608952103359009</v>
+        <v>0.23294071864066859</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12386375877618573</v>
+        <v>0.12138648360066201</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6513657308957266E-2</v>
+        <v>2.8427014021974801E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7053411821951452E-4</v>
+        <v>1.8108262037742264E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9416751978919506E-5</v>
+        <v>3.0029600978480329E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8379583066654464E-6</v>
+        <v>8.2419767760811911E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,43 +26485,43 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1099443222322572E-2</v>
+        <v>1.025377135776466E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21202694091686636</v>
+        <v>0.22732785417890827</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55552744849306068</v>
+        <v>0.51777315587702744</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70491131920435146</v>
+        <v>0.71944557320856484</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83146218665000093</v>
+        <v>0.78349321434327002</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8758528585821852</v>
+        <v>0.80005789966641905</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73731053244760414</v>
+        <v>0.75942984842103223</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59705608246262531</v>
+        <v>0.55686961537379476</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30117009530031869</v>
+        <v>0.31979917336013219</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0129905057248296E-2</v>
+        <v>6.8741194066015657E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26529,11 +26529,11 @@
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8197597147298159E-5</v>
+        <v>7.6693797202157809E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0141128737313706E-5</v>
+        <v>1.857676922373594E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,31 +26558,31 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1795893806360098</v>
+        <v>1.1909315862190484</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95762742005115198</v>
+        <v>0.94765213442561902</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0757901220487991</v>
+        <v>0.99223360771491176</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.9659722736097125</v>
+        <v>1.0565321742606231</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85259637245697983</v>
+        <v>0.93252728237482185</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7532961737391336</v>
+        <v>0.7612256071469139</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71341452952746587</v>
+        <v>0.68487794834636728</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26590,67 +26590,67 @@
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5984588674123944</v>
+        <v>0.56290685548690556</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5555975469029385</v>
+        <v>0.52291533826158909</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5491331773963094</v>
+        <v>0.5324927780812696</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53571034469200751</v>
+        <v>0.51963903435124725</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50457421455144735</v>
+        <v>0.50956999885393695</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48613943109257712</v>
+        <v>0.53171500275750638</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60939471058617434</v>
+        <v>0.59695808383951776</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69050458024954908</v>
+        <v>0.71840375520912669</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70212402090048298</v>
+        <v>0.66701781985545883</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76926552214681387</v>
+        <v>0.80098781171987854</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76198471150295821</v>
+        <v>0.78461792075552139</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82665034044950825</v>
+        <v>0.7951588989085745</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89031642070176975</v>
+        <v>0.87302872321241498</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81455217290730808</v>
+        <v>0.84814195323338282</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80657775574931456</v>
+        <v>0.78188659996107024</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96888170838095966</v>
+        <v>0.97819787865385355</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7687841530054644E-6</v>
+        <v>5.5957206284153006E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2929505348815944E-6</v>
+        <v>3.1283030081375146E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,55 +26687,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1797401704171998E-3</v>
+        <v>5.3911581365566775E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11038515996187372</v>
+        <v>0.11257100471359399</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25888657793851372</v>
+        <v>0.27776372424653034</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34882209610112236</v>
+        <v>0.36698991360638916</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.39974143588942351</v>
+        <v>0.37975436409495233</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42950476718934077</v>
+        <v>0.43371559824021666</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35022250291261198</v>
+        <v>0.37234181888604007</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28704619349164678</v>
+        <v>0.29852804123131266</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15834716350841499</v>
+        <v>0.14748020130685707</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6453663519856787E-2</v>
+        <v>3.4370597033007828E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2829335522795623E-4</v>
+        <v>2.1073232790272883E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9098798573649079E-5</v>
+        <v>3.8346898601078904E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.386157081466581E-6</v>
+        <v>1.0168336838255462E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8841598360655738E-6</v>
+        <v>5.5957206284153006E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3258800402304106E-6</v>
+        <v>3.2929505348815944E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26792,35 +26792,35 @@
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10710639283429331</v>
+        <v>0.11147808233773386</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26428004831223273</v>
+        <v>0.25618984275165418</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34518853260006899</v>
+        <v>0.35972278660428242</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41972850768389469</v>
+        <v>0.39974143588942351</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40423978088408541</v>
+        <v>0.421083105087589</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38708802953499216</v>
+        <v>0.35022250291261198</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29852804123131266</v>
+        <v>0.29565757929639619</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15213747082181045</v>
+        <v>0.16145200985171723</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26828,15 +26828,15 @@
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1731771314968909E-4</v>
+        <v>2.1512258473403568E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7219048642223642E-5</v>
+        <v>3.9098798573649079E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5817020206638013E-6</v>
+        <v>9.386157081466581E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26869,7 +26869,7 @@
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1612325134863303E-6</v>
+        <v>3.2929505348815944E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,27 +26889,27 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.074031187347461E-3</v>
+        <v>5.3383036450218085E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11475684946531427</v>
+        <v>0.10601347045843318</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2696735186859518</v>
+        <v>0.26428004831223273</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35608922310322905</v>
+        <v>0.35245565960217573</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41972850768389469</v>
+        <v>0.40373885024831774</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42529393613846489</v>
+        <v>0.4379264292910926</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26917,27 +26917,27 @@
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30139850316622913</v>
+        <v>0.28130526962181385</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14903262447850821</v>
+        <v>0.16145200985171723</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6453663519856787E-2</v>
+        <v>3.4023419285199669E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2390309839664938E-4</v>
+        <v>2.2170796998099597E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8346898601078904E-5</v>
+        <v>3.6467148669653467E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.8750194294596327E-6</v>
+        <v>9.6794744902624106E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2114446721311475E-5</v>
+        <v>1.130681693989071E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3883240376702929E-6</v>
+        <v>6.7834781018560848E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0042353391625182E-2</v>
+        <v>1.0465189323904138E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21202694091686636</v>
+        <v>0.21421278566858662</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55013397811934173</v>
+        <v>0.51237968550330837</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72671270021067158</v>
+        <v>0.71944557320856484</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83146218665000093</v>
+        <v>0.83945701536778938</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8169012238699227</v>
+        <v>0.84216621017517801</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70781811114969995</v>
+        <v>0.76680295374550833</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60279700633245825</v>
+        <v>0.54538776763412888</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31669432701682998</v>
+        <v>0.30737978798692317</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1518616048480935E-2</v>
+        <v>7.2212971544097254E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2585491263676448E-4</v>
+        <v>4.6097696728721933E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2934297339306934E-5</v>
+        <v>7.5189997257017459E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9358948980524821E-5</v>
+        <v>1.9945583798116484E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,99 +27313,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1569049694699327</v>
+        <v>1.122878352720817</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96760270567668472</v>
+        <v>1.017479133804349</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0757901220487991</v>
+        <v>1.0026781720066478</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0464699630771885</v>
+        <v>0.99615890716001609</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85259637245697983</v>
+        <v>0.91476485794863471</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80087277418581571</v>
+        <v>0.7691550405546943</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71341452952746587</v>
+        <v>0.72054867482274065</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.61451318968239854</v>
+        <v>0.60811201062320686</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60438420273330917</v>
+        <v>0.56883219080782044</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51746830348803097</v>
+        <v>0.56649161645005486</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56022677693966916</v>
+        <v>0.55467997716798922</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51963903435124725</v>
+        <v>0.54642455158584768</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51456578315642643</v>
+        <v>0.48958686164397858</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5063952407214346</v>
+        <v>0.51145919312864896</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65292290419947263</v>
+        <v>0.62183133733283102</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7114289614692324</v>
+        <v>0.66958019902986565</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73020898173650228</v>
+        <v>0.68808154048247339</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75340437736028165</v>
+        <v>0.76133494975354776</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72426269608201965</v>
+        <v>0.76198471150295821</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81877748006427487</v>
+        <v>0.74792173659717409</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89896026944644702</v>
+        <v>0.86438487446773749</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79775728274427082</v>
+        <v>0.82294961798882682</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84772968206305521</v>
+        <v>0.83126891153755889</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95956553810806577</v>
+        <v>0.95024936783517189</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4803449453551911E-6</v>
+        <v>5.5380327868852455E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1941620188351465E-6</v>
+        <v>3.1612325134863303E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,23 +27442,23 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2325946619520688E-3</v>
+        <v>5.0211766958125912E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10492054808257303</v>
+        <v>0.11147808233773386</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27237025387281133</v>
+        <v>0.28315719462024941</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35608922310322905</v>
+        <v>0.36335635010533579</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41972850768389469</v>
+        <v>0.39174660717163501</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27466,31 +27466,31 @@
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38340147687275417</v>
+        <v>0.36865526622380207</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29565757929639619</v>
+        <v>0.28417573155673032</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14903262447850821</v>
+        <v>0.15368989399346158</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5064952528624148E-2</v>
+        <v>3.4023419285199669E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1512258473403568E-4</v>
+        <v>2.2829335522795623E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8722848587363992E-5</v>
+        <v>3.6091198683368379E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4839295510651903E-6</v>
+        <v>1.0168336838255462E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27523,7 +27523,7 @@
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3588095455792263E-6</v>
+        <v>3.1612325134863303E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27547,51 +27547,51 @@
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10819931521015345</v>
+        <v>0.11147808233773386</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2696735186859518</v>
+        <v>0.28046045943338987</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34882209610112236</v>
+        <v>0.36335635010533579</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37975436409495233</v>
+        <v>0.40373885024831774</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41687227403671312</v>
+        <v>0.40423978088408541</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37234181888604007</v>
+        <v>0.37602837154827812</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29278711736147972</v>
+        <v>0.27269388381706444</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15679474033676385</v>
+        <v>0.1598995866800661</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5064952528624148E-2</v>
+        <v>3.3329063789583349E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2829335522795623E-4</v>
+        <v>2.2609822681230282E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9098798573649079E-5</v>
+        <v>3.7594998628508729E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.386157081466581E-6</v>
+        <v>9.6794744902624106E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6534084699453549E-6</v>
+        <v>5.5957206284153006E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3588095455792263E-6</v>
+        <v>3.2600210295327783E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,7 +27644,7 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4440126280915473E-3</v>
+        <v>5.074031187347461E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27652,11 +27652,11 @@
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27237025387281133</v>
+        <v>0.26428004831223273</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37789060410954922</v>
+        <v>0.34882209610112236</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27664,7 +27664,7 @@
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44213726034196849</v>
+        <v>0.43371559824021666</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27672,27 +27672,27 @@
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29278711736147972</v>
+        <v>0.28704619349164678</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14903262447850821</v>
+        <v>0.15524231716511272</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5064952528624148E-2</v>
+        <v>3.4370597033007828E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1731771314968909E-4</v>
+        <v>2.0853719948707539E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6467148669653467E-5</v>
+        <v>3.7594998628508729E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.28838461186797E-6</v>
+        <v>9.8750194294596327E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.130681693989071E-5</v>
+        <v>1.0960689890710382E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3224650269726606E-6</v>
+        <v>6.5859010697631888E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,47 +27914,47 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0570898306973877E-2</v>
+        <v>1.0148062374694922E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20984109616514607</v>
+        <v>0.22951369893062853</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56092091886677975</v>
+        <v>0.55552744849306068</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69764419220224472</v>
+        <v>0.71944557320856484</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83146218665000093</v>
+        <v>0.79148804306105858</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84216621017517801</v>
+        <v>0.82532288597167447</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73731053244760414</v>
+        <v>0.72256432179865204</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57409238698329357</v>
+        <v>0.54538776763412888</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30737978798692317</v>
+        <v>0.3042749416436209</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9435549561631976E-2</v>
+        <v>6.7352483074783018E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4341593996199193E-4</v>
+        <v>4.5219645362460563E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27962,7 +27962,7 @@
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0141128737313706E-5</v>
+        <v>1.8967859102130381E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,15 +27987,15 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1795893806360098</v>
+        <v>1.122878352720817</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.017479133804349</v>
+        <v>0.98755327692775052</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.086234686340535</v>
+        <v>1.0757901220487991</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28003,31 +28003,31 @@
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8614775846700734</v>
+        <v>0.84371516024388638</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7929433407780353</v>
+        <v>0.83259050781693711</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.6777438030510925</v>
+        <v>0.71341452952746587</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60811201062320686</v>
+        <v>0.64651908497835686</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.58660819677056475</v>
+        <v>0.60438420273330917</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52291533826158909</v>
+        <v>0.5555975469029385</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55467997716798922</v>
+        <v>0.56022677693966916</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28035,19 +28035,19 @@
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47459950873650986</v>
+        <v>0.51956156745891613</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48107547868536277</v>
+        <v>0.49626733590700584</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63426796407948771</v>
+        <v>0.65292290419947263</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67655499276976017</v>
+        <v>0.7114289614692324</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28055,31 +28055,31 @@
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82477952889967687</v>
+        <v>0.76133494975354776</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75444030841877052</v>
+        <v>0.74689590533458272</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74792173659717409</v>
+        <v>0.82665034044950825</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82980947948902806</v>
+        <v>0.87302872321241498</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88173173355945744</v>
+        <v>0.86493684339642007</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81480814101206267</v>
+        <v>0.84772968206305521</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8850361759249149</v>
+        <v>0.97819787865385355</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0572233606557376E-6</v>
+        <v>5.8264719945355187E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1283030081375146E-6</v>
+        <v>3.2270915241839626E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,55 +28116,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3911581365566775E-3</v>
+        <v>5.5497216111612862E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10492054808257303</v>
+        <v>0.11147808233773386</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2696735186859518</v>
+        <v>0.25888657793851372</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34518853260006899</v>
+        <v>0.35245565960217573</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.39974143588942351</v>
+        <v>0.41972850768389469</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41687227403671312</v>
+        <v>0.41266144298583723</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38708802953499216</v>
+        <v>0.36496871356156407</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28991665542656325</v>
+        <v>0.29565757929639619</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14748020130685707</v>
+        <v>0.15058504765015934</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5759308024240467E-2</v>
+        <v>3.5412130276432308E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1073232790272883E-4</v>
+        <v>2.1951284156534253E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7970948614793817E-5</v>
+        <v>3.7594998628508729E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.386157081466581E-6</v>
+        <v>9.7772469598610216E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6534084699453549E-6</v>
+        <v>5.9418476775956281E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4575980616256742E-6</v>
+        <v>3.3258800402304106E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,55 +28217,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.12688567888233E-3</v>
+        <v>5.5497216111612862E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11038515996187372</v>
+        <v>0.10929223758601359</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27237025387281133</v>
+        <v>0.2696735186859518</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37789060410954922</v>
+        <v>0.35972278660428242</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38375177845384656</v>
+        <v>0.41972850768389469</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41266144298583723</v>
+        <v>0.40002894983320952</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36496871356156407</v>
+        <v>0.35759560823708803</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27269388381706444</v>
+        <v>0.29278711736147972</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14903262447850821</v>
+        <v>0.16300443302336837</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6106485772048627E-2</v>
+        <v>3.6453663519856787E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1292745631838224E-4</v>
+        <v>2.1512258473403568E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5715248697083292E-5</v>
+        <v>3.9474748559934167E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0168336838255462E-5</v>
+        <v>9.972791899058242E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,7 +28294,7 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8264719945355187E-6</v>
+        <v>5.6534084699453549E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,11 +28318,11 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2854491534869387E-3</v>
+        <v>5.12688567888233E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10492054808257303</v>
+        <v>0.10819931521015345</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28330,43 +28330,43 @@
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34882209610112236</v>
+        <v>0.35608922310322905</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40773626460721202</v>
+        <v>0.41173367896610624</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44213726034196849</v>
+        <v>0.43371559824021666</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35759560823708803</v>
+        <v>0.38708802953499216</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30139850316622913</v>
+        <v>0.27269388381706444</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15524231716511272</v>
+        <v>0.15368989399346158</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5064952528624148E-2</v>
+        <v>3.2981886041775189E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2829335522795623E-4</v>
+        <v>2.1731771314968909E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6467148669653467E-5</v>
+        <v>3.8722848587363992E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5817020206638013E-6</v>
+        <v>1.0168336838255462E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_2/ieee18_2_2020.xlsx
+++ b/data/IEEE9/ieee18_2/ieee18_2_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0913766-EB35-4579-B130-303879608DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88887749-8155-468A-BA1F-D16C8B60185A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15570" yWindow="7515" windowWidth="21600" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-10980" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7724,18 +7724,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
       <sheetData sheetId="27">
         <row r="2">
           <cell r="B2">
@@ -8899,15 +8899,15 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -8992,9 +8992,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>0.44314167526859499</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>-1.152276988929642</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>-0.87928014047106962</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>-0.78414657802614685</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>-0.6045365802190642</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>0.31441741892702912</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>-0.72103556234462607</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>-0.86535008412144165</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -9905,7 +9905,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -9931,7 +9931,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -9957,7 +9957,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -9983,7 +9983,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -10009,7 +10009,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -10035,7 +10035,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -10074,9 +10074,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>0.43879714904047151</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>-1.1408683058709326</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>-0.89722463313374456</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>-0.79982950958666976</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>-0.61058194602125493</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>0.31441741892702912</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>-0.72817452830843432</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10961,7 +10961,7 @@
         <v>-0.87391790673650549</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -10987,7 +10987,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -11013,7 +11013,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -11039,7 +11039,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -11065,7 +11065,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -11091,7 +11091,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -11117,7 +11117,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -11156,9 +11156,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>0.19758400000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>0.16465333333333335</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>0.13172266666666668</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>9.8792000000000019E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>9.8792000000000019E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>9.8792000000000019E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>9.8792000000000019E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>9.8792000000000019E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -12069,7 +12069,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -12095,7 +12095,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -12121,7 +12121,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -12147,7 +12147,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -12173,7 +12173,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -12199,7 +12199,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -12238,9 +12238,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>0.57211200000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>0.47675999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>0.38140799999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12721,7 +12721,7 @@
         <v>0.28605600000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>0.28605600000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>0.28605600000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>0.28605600000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>0.28605600000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -13151,7 +13151,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -13177,7 +13177,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -13203,7 +13203,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -13229,7 +13229,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -13255,7 +13255,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -13281,7 +13281,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -13320,9 +13320,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -13399,7 +13399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13476,7 +13476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2663934426229492E-6</v>
+        <v>8.7213114754098344E-6</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3314437231416288E-6</v>
+        <v>5.1223674987047025E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,55 +13510,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.902517337533597E-3</v>
+        <v>8.1394444228878593E-3</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16628940577952522</v>
+        <v>0.17495031233054217</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43199473358221924</v>
+        <v>0.41505376363781848</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56169757765715267</v>
+        <v>0.57304500346840825</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66396941715415791</v>
+        <v>0.61338127108526963</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65636898498201179</v>
+        <v>0.66962896447659781</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55414299240296594</v>
+        <v>0.5656876380780278</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45217904206718018</v>
+        <v>0.45674650713856585</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25268206790341891</v>
+        <v>0.24525024237684775</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4120661311067408E-2</v>
+        <v>5.2480641271338092E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4106823643902904E-4</v>
+        <v>3.3755206905305968E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9446352957399832E-5</v>
+        <v>6.189774895564313E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6483953552162382E-5</v>
+        <v>1.5352701837798298E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13577,65 +13577,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6054925841780125</v>
+        <v>1.4984597452328119</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3343782849264372</v>
+        <v>1.4177769277343395</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4052010321592161</v>
+        <v>1.2960592044186945</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3537205055533144</v>
+        <v>1.3400465610527759</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2078448609807213</v>
+        <v>1.136795163275973</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0451535775518279</v>
+        <v>1.0765081848783828</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87256333613459303</v>
+        <v>0.96441210835928715</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83290721491424291</v>
+        <v>0.80816739664946347</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83160431248747735</v>
+        <v>0.8235304842108998</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74467783911414864</v>
+        <v>0.75205088702616996</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7321936758621459</v>
+        <v>0.76119144520322091</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.73683442613324135</v>
+        <v>0.72238669228749153</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70344895323300349</v>
+        <v>0.68315715650512843</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63981541104594086</v>
+        <v>0.64648015491100275</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13643,11 +13643,11 @@
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.91571751422173753</v>
+        <v>0.89702940168659995</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98629390123644811</v>
+        <v>0.97652861508559219</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13655,30 +13655,30 @@
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0175103320335608</v>
+        <v>1.0072324498918077</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0831725115565645</v>
+        <v>1.0305913216751779</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1062904185486513</v>
+        <v>1.1394791311051107</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1352026466955361</v>
+        <v>1.1124985937616252</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1095345818846765</v>
+        <v>1.1424910546139244</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2414393208006553</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1.2538537140086619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4060792349726766E-6</v>
+        <v>4.4515027322404369E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5089146932431193E-6</v>
+        <v>2.4827801651885035E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,7 +13712,7 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1121151511464707E-3</v>
+        <v>4.1969010305515529E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13720,43 +13720,43 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21176212430500943</v>
+        <v>0.21387974554805952</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27517507592294854</v>
+        <v>0.27801193237576244</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33198470857707896</v>
+        <v>0.30985239467194031</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3281844924910059</v>
+        <v>0.32486949761735934</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27995765762024843</v>
+        <v>0.2741853347827175</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23065698610497576</v>
+        <v>0.23294071864066859</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12262512118842388</v>
+        <v>0.11767057083737643</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8153677348686582E-2</v>
+        <v>2.7880340675398362E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7932453668443796E-4</v>
+        <v>1.7053411821951452E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9416751978919506E-5</v>
+        <v>3.0029600978480329E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13779,7 +13779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6331967213114746E-6</v>
+        <v>4.7694672131147537E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7441254457346622E-6</v>
+        <v>2.7179909176800464E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,15 +13813,15 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1545080908490118E-3</v>
+        <v>4.239293970254094E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6609065510169392E-2</v>
+        <v>8.5742974855067697E-2</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20752688181890924</v>
+        <v>0.20117401808975896</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13829,39 +13829,39 @@
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33198470857707896</v>
+        <v>0.30985239467194031</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3281844924910059</v>
+        <v>0.3348144822382989</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27995765762024843</v>
+        <v>0.28861614187654477</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23750818371205426</v>
+        <v>0.23065698610497576</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1189092084251383</v>
+        <v>0.12262512118842388</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7060330655533704E-2</v>
+        <v>2.8153677348686582E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7053411821951452E-4</v>
+        <v>1.7756645299145325E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0336025478260739E-5</v>
+        <v>3.1255298977601978E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4035841638474901E-6</v>
+        <v>7.9187620005485967E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13880,7 +13880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5877732240437152E-6</v>
+        <v>4.7694672131147537E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6918563896254302E-6</v>
+        <v>2.5089146932431193E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,31 +13914,31 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4512586687667985E-3</v>
+        <v>4.0273292717413894E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7475156165271087E-2</v>
+        <v>8.4010793544864307E-2</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21387974554805952</v>
+        <v>0.2223502305202599</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27517507592294854</v>
+        <v>0.29503307109264587</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30036711728402377</v>
+        <v>0.30985239467194031</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32486949761735934</v>
+        <v>0.31823950787006627</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28861614187654477</v>
+        <v>0.27995765762024843</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13946,7 +13946,7 @@
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12386375877618573</v>
+        <v>0.1251023963639476</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13954,15 +13954,15 @@
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8284070407040731E-4</v>
+        <v>1.7932453668443796E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1561723477382385E-5</v>
+        <v>3.0029600978480329E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4035841638474901E-6</v>
+        <v>7.7571546127822977E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13994,9 +13994,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -14160,7 +14160,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9938524590163926E-6</v>
+        <v>8.8121584699453533E-6</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,51 +14184,51 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5633738199132701E-3</v>
+        <v>8.8177314581285166E-3</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.17495031233054217</v>
+        <v>0.17321813102033878</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42352424861001886</v>
+        <v>0.42775949109611905</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55035015184589708</v>
+        <v>0.56169757765715267</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60705775282665864</v>
+        <v>0.62602830760249173</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67625895422389093</v>
+        <v>0.69614892346577006</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60609389794074409</v>
+        <v>0.55414299240296594</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43847664685302318</v>
+        <v>0.47958383249549419</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23534114167475287</v>
+        <v>0.25515934307894261</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2480641271338092E-2</v>
+        <v>5.1933967924761654E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6216524075484527E-4</v>
+        <v>3.6568140814081463E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0059201956960658E-5</v>
+        <v>6.0672050956521478E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14251,29 +14251,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4984597452328119</v>
+        <v>1.4525885285420115</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3899773801317052</v>
+        <v>1.3760776063303881</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.33698738982139</v>
+        <v>1.4052010321592161</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3400465610527759</v>
+        <v>1.3126986720516987</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2078448609807213</v>
+        <v>1.2433697098330956</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14281,59 +14281,59 @@
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90011796780200126</v>
+        <v>0.87256333613459303</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79167418447294369</v>
+        <v>0.78342757838468391</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7750875145514351</v>
+        <v>0.84775196904063221</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72993174329010624</v>
+        <v>0.75942393493819138</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69594646418580197</v>
+        <v>0.70319590652107067</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.70793895844174171</v>
+        <v>0.70071509151886668</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64257356304937807</v>
+        <v>0.64933749529200302</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67313913037125028</v>
+        <v>0.63315066718087898</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81426359972196483</v>
+        <v>0.8058691296217384</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94374968302444384</v>
+        <v>0.98112590809471878</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.015589759689016</v>
+        <v>0.97652861508559219</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.124179500181226</v>
+        <v>1.0485135722844128</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97639880346654828</v>
+        <v>1.0277882141753141</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0200750836989005</v>
+        <v>1.0621400356040098</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14341,18 +14341,18 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1011465672946699</v>
+        <v>1.1352026466955361</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0546071273359301</v>
+        <v>1.0765781091554287</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2041961411766358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1.2910968936326817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3152322404371578E-6</v>
+        <v>4.5423497267759557E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5611837493523513E-6</v>
+        <v>2.4827801651885035E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,55 +14386,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.281686909956635E-3</v>
+        <v>4.0697222114439296E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8341246820372782E-2</v>
+        <v>8.9207337475474477E-2</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22023260927720981</v>
+        <v>0.20329163933280905</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27517507592294854</v>
+        <v>0.28084878882857633</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32249943118916241</v>
+        <v>0.30669063554263482</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34475946685923853</v>
+        <v>0.31492451299641977</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30016078755160658</v>
+        <v>0.29438846471407565</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22152205596220442</v>
+        <v>0.21923832342651159</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12634103395170945</v>
+        <v>0.12881830912723316</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8427014021974801E-2</v>
+        <v>2.6513657308957266E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6701795083354514E-4</v>
+        <v>1.8459878776339202E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0029600978480329E-5</v>
+        <v>3.0336025478260739E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7571546127822977E-6</v>
+        <v>8.2419767760811911E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14453,7 +14453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -14467,7 +14467,7 @@
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6657218615708144E-6</v>
+        <v>2.6918563896254302E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,15 +14487,15 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.239293970254094E-3</v>
+        <v>4.0273292717413894E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7475156165271087E-2</v>
+        <v>8.5742974855067697E-2</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21599736679110962</v>
+        <v>0.21176212430500943</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14503,27 +14503,27 @@
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30036711728402377</v>
+        <v>0.30985239467194031</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32486949761735934</v>
+        <v>0.3281844924910059</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30304694897037204</v>
+        <v>0.28572998045777931</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21695459089081875</v>
+        <v>0.22380578849789726</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.13005694671499501</v>
+        <v>0.12014784601290016</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6240320635669046E-2</v>
+        <v>2.7060330655533704E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14531,7 +14531,7 @@
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0948874477821565E-5</v>
+        <v>3.0029600978480329E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14554,7 +14554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5423497267759557E-6</v>
+        <v>4.7240437158469943E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5611837493523513E-6</v>
+        <v>2.6134528054615828E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,19 +14588,19 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1969010305515529E-3</v>
+        <v>4.281686909956635E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4010793544864307E-2</v>
+        <v>8.2278612234660917E-2</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21176212430500943</v>
+        <v>0.21811498803415971</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29786992754545977</v>
+        <v>0.29219621463983192</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14608,35 +14608,35 @@
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34475946685923853</v>
+        <v>0.31823950787006627</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2828438190390139</v>
+        <v>0.28861614187654477</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23750818371205426</v>
+        <v>0.23065698610497576</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12881830912723316</v>
+        <v>0.12262512118842388</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6513657308957266E-2</v>
+        <v>2.8153677348686582E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7580836929846858E-4</v>
+        <v>1.7229220191249919E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2174572476943211E-5</v>
+        <v>2.9723176478699916E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3227804699643415E-6</v>
+        <v>7.8379583066654464E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14668,9 +14668,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14824,7 +14824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0846994535519115E-6</v>
+        <v>9.4480874316939885E-6</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.070098442595471E-6</v>
+        <v>5.0178293864862386E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,55 +14858,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.902517337533597E-3</v>
+        <v>8.3090161816980236E-3</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.18014685626115234</v>
+        <v>0.17668249364074556</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41928900612391867</v>
+        <v>0.40658327866561811</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57871871637403605</v>
+        <v>0.59573985509091953</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63235182586110272</v>
+        <v>0.61338127108526963</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.67625895422389093</v>
+        <v>0.62984902599283954</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5887769294281513</v>
+        <v>0.55414299240296594</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45674650713856585</v>
+        <v>0.43390918178163751</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23534114167475287</v>
+        <v>0.25763661825446632</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4120661311067408E-2</v>
+        <v>5.5760681350796724E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4106823643902904E-4</v>
+        <v>3.4458440382499839E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8220654958278186E-5</v>
+        <v>6.4349144953886422E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6645560939928683E-5</v>
+        <v>1.680716832769498E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14925,108 +14925,108 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5749117730508124</v>
+        <v>1.5443309619236123</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3482780587277541</v>
+        <v>1.3343782849264372</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4188437606267812</v>
+        <v>1.3779155752240857</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3673944500538529</v>
+        <v>1.4084162835554688</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2078448609807213</v>
+        <v>1.2196864772648461</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0765081848783828</v>
+        <v>1.0451535775518279</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93685747669187891</v>
+        <v>0.96441210835928715</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79992079056120358</v>
+        <v>0.84940042709076269</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7750875145514351</v>
+        <v>0.79930899938116751</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76679698285021258</v>
+        <v>0.7078125995540423</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69594646418580197</v>
+        <v>0.70319590652107067</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75128215997899117</v>
+        <v>0.72961055921036644</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69668502099037843</v>
+        <v>0.68992108874775337</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65980964264112651</v>
+        <v>0.64648015491100275</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87302489042355003</v>
+        <v>0.79747465952151197</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.91571751422173753</v>
+        <v>0.88768534541903121</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93746747048216839</v>
+        <v>1.015589759689016</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.026894735742466</v>
+        <v>1.0485135722844128</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0586218606005735</v>
+        <v>1.0688997427423266</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1042049875091191</v>
+        <v>1.0621400356040098</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0731017059921917</v>
+        <v>1.1173533227341377</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0897945408277145</v>
+        <v>1.1919627790303129</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1534765455236737</v>
+        <v>1.1315055637041751</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1793673547606227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1.2786825004246751</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3152322404371578E-6</v>
+        <v>4.5423497267759557E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5089146932431193E-6</v>
+        <v>2.6395873335161986E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,47 +15060,47 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4512586687667985E-3</v>
+        <v>4.239293970254094E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3144702889762612E-2</v>
+        <v>8.9207337475474477E-2</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2223502305202599</v>
+        <v>0.21387974554805952</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27517507592294854</v>
+        <v>0.28935935818701802</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.30985239467194031</v>
+        <v>0.31617591293055136</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32486949761735934</v>
+        <v>0.34475946685923853</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29438846471407565</v>
+        <v>0.2828438190390139</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23979191624774709</v>
+        <v>0.22608952103359009</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1189092084251383</v>
+        <v>0.12138648360066201</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8153677348686582E-2</v>
+        <v>2.6513657308957266E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8284070407040731E-4</v>
+        <v>1.8108262037742264E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2419767760811911E-6</v>
+        <v>7.9995656944317453E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7240437158469943E-6</v>
+        <v>4.4515027322404369E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5350492212977355E-6</v>
+        <v>2.5089146932431193E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,19 +15161,19 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.281686909956635E-3</v>
+        <v>4.0697222114439296E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3144702889762612E-2</v>
+        <v>9.0073428130576172E-2</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20964450306195934</v>
+        <v>0.2223502305202599</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28368564528139023</v>
+        <v>0.29786992754545977</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15181,7 +15181,7 @@
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3281844924910059</v>
+        <v>0.34475946685923853</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15189,27 +15189,27 @@
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21695459089081875</v>
+        <v>0.23294071864066859</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1251023963639476</v>
+        <v>0.1189092084251383</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7333667328821924E-2</v>
+        <v>2.8153677348686582E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6877603452652984E-4</v>
+        <v>1.7932453668443796E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2174572476943211E-5</v>
+        <v>3.0336025478260739E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3227804699643415E-6</v>
+        <v>8.4035841638474901E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15228,7 +15228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7240437158469943E-6</v>
+        <v>4.5423497267759557E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6134528054615828E-6</v>
+        <v>2.6395873335161986E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,15 +15262,15 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1121151511464707E-3</v>
+        <v>4.3664727893617172E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2278612234660917E-2</v>
+        <v>8.4010793544864307E-2</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.20964450306195934</v>
+        <v>0.21811498803415971</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15282,35 +15282,35 @@
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31823950787006627</v>
+        <v>0.34807446173288503</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27995765762024843</v>
+        <v>0.28861614187654477</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.23294071864066859</v>
+        <v>0.22608952103359009</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.12138648360066201</v>
+        <v>0.12386375877618573</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8427014021974801E-2</v>
+        <v>2.7333667328821924E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8108262037742264E-4</v>
+        <v>1.7756645299145325E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0029600978480329E-5</v>
+        <v>3.2174572476943211E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2419767760811911E-6</v>
+        <v>7.8379583066654464E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15342,9 +15342,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15498,7 +15498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -15575,7 +15575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -15652,7 +15652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -15729,7 +15729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -15896,9 +15896,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16052,7 +16052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -16283,7 +16283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -16450,9 +16450,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -16529,7 +16529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16606,7 +16606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -16683,7 +16683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -16837,7 +16837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -16914,7 +16914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -17004,9 +17004,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -17017,7 +17017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -17028,7 +17028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -17039,7 +17039,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -17050,7 +17050,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -17061,7 +17061,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -17085,9 +17085,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -17164,7 +17164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17241,7 +17241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -17395,7 +17395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -17472,7 +17472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -17549,7 +17549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -17639,9 +17639,9 @@
       <selection activeCell="B2" sqref="B2:Y9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -17718,7 +17718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17819,7 +17819,7 @@
         <v>4.5720684651162804</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17920,7 +17920,7 @@
         <v>3.6713786904761903</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18021,7 +18021,7 @@
         <v>2.5140293419078246</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -18122,7 +18122,7 @@
         <v>1.5360499459459458</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>2.382272674698795</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -18324,7 +18324,7 @@
         <v>2.206860393001346</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>1.8897868752642708</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>1.4183059704433501</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -18552,7 +18552,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -18578,7 +18578,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -18604,7 +18604,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -18630,7 +18630,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -18656,7 +18656,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -18682,7 +18682,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -18721,9 +18721,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18901,7 +18901,7 @@
         <v>4.6599056744186056</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19002,7 +19002,7 @@
         <v>3.6009545833333338</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19103,7 +19103,7 @@
         <v>2.5379682486602362</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -19204,7 +19204,7 @@
         <v>1.5505094054054052</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -19305,7 +19305,7 @@
         <v>2.3364293012048192</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -19406,7 +19406,7 @@
         <v>2.206860393001346</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -19507,7 +19507,7 @@
         <v>1.8537932177589855</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -19608,7 +19608,7 @@
         <v>1.4448700098522169</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -19634,7 +19634,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -19660,7 +19660,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -19686,7 +19686,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -19712,7 +19712,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -19738,7 +19738,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -19764,7 +19764,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -19803,9 +19803,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -19882,7 +19882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19983,7 +19983,7 @@
         <v>4.5281498604651169</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20084,7 +20084,7 @@
         <v>3.7065907440476189</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20185,7 +20185,7 @@
         <v>2.4661515284030013</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -20286,7 +20286,7 @@
         <v>1.5215904864864862</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -20387,7 +20387,7 @@
         <v>2.3593509879518066</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>2.249195520861373</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -20589,7 +20589,7 @@
         <v>1.8537932177589853</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -20690,7 +20690,7 @@
         <v>1.4050239507389166</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -20716,7 +20716,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -20742,7 +20742,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -20768,7 +20768,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -20794,7 +20794,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -20820,7 +20820,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -20846,7 +20846,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -20885,9 +20885,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -20964,7 +20964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>0.70067114093959737</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21166,7 +21166,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21267,7 +21267,7 @@
         <v>-0.56911764705882351</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -21368,7 +21368,7 @@
         <v>-0.6940677966101696</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -21469,7 +21469,7 @@
         <v>-0.12073170731707321</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -21570,7 +21570,7 @@
         <v>0.40078124999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -21671,7 +21671,7 @@
         <v>-0.49891304347826088</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -21772,7 +21772,7 @@
         <v>-0.86225806451612885</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -21798,7 +21798,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -21824,7 +21824,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -21850,7 +21850,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -21876,7 +21876,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -21902,7 +21902,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -21928,7 +21928,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -21967,9 +21967,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -22046,7 +22046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22147,7 +22147,7 @@
         <v>0.70767785234899339</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22248,7 +22248,7 @@
         <v>5.6111111111111105E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -22349,7 +22349,7 @@
         <v>-0.58050000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -22450,7 +22450,7 @@
         <v>-0.70794915254237301</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -22551,7 +22551,7 @@
         <v>-0.12073170731707321</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -22652,7 +22652,7 @@
         <v>0.40879687499999995</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -22753,7 +22753,7 @@
         <v>-0.50390217391304348</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>-0.87088064516129016</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -22880,7 +22880,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -22906,7 +22906,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -22932,7 +22932,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -22958,7 +22958,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -22984,7 +22984,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -23010,7 +23010,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -23049,9 +23049,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -23128,7 +23128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -23229,7 +23229,7 @@
         <v>0.68665771812080545</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23330,7 +23330,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23431,7 +23431,7 @@
         <v>-0.57480882352941176</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -23532,7 +23532,7 @@
         <v>-0.68712711864406784</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -23633,7 +23633,7 @@
         <v>-0.12193902439024394</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -23734,7 +23734,7 @@
         <v>0.39677343749999994</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -23835,7 +23835,7 @@
         <v>-0.50889130434782615</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -23936,7 +23936,7 @@
         <v>-0.87950322580645146</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -23962,7 +23962,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -23988,7 +23988,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -24014,7 +24014,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -24040,7 +24040,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -24066,7 +24066,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -24092,7 +24092,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -24131,9 +24131,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -24210,7 +24210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -24311,7 +24311,7 @@
         <v>0.19758400000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -24412,7 +24412,7 @@
         <v>0.16465333333333335</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -24513,7 +24513,7 @@
         <v>0.13172266666666668</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -24614,7 +24614,7 @@
         <v>9.8792000000000019E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -24715,7 +24715,7 @@
         <v>9.8792000000000019E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -24816,7 +24816,7 @@
         <v>9.8792000000000019E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -24917,7 +24917,7 @@
         <v>9.8792000000000019E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -25018,7 +25018,7 @@
         <v>9.8792000000000019E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -25044,7 +25044,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -25070,7 +25070,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -25096,7 +25096,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -25122,7 +25122,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -25148,7 +25148,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -25174,7 +25174,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -25213,9 +25213,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -25292,7 +25292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -25393,7 +25393,7 @@
         <v>0.57211200000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -25494,7 +25494,7 @@
         <v>0.47675999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -25595,7 +25595,7 @@
         <v>0.38140799999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -25696,7 +25696,7 @@
         <v>0.28605600000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -25797,7 +25797,7 @@
         <v>0.28605600000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -25898,7 +25898,7 @@
         <v>0.28605600000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -25999,7 +25999,7 @@
         <v>0.28605600000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -26100,7 +26100,7 @@
         <v>0.28605600000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -26126,7 +26126,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -26152,7 +26152,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -26178,7 +26178,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -26204,7 +26204,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -26230,7 +26230,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -26256,7 +26256,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -26295,9 +26295,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -26374,7 +26374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26451,7 +26451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537568306010929E-5</v>
+        <v>1.1076065573770491E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9151961232513485E-6</v>
+        <v>6.5200420590655566E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,55 +26485,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.025377135776466E-2</v>
+        <v>1.0465189323904138E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22732785417890827</v>
+        <v>0.21639863042030691</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51777315587702744</v>
+        <v>0.55552744849306068</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71944557320856484</v>
+        <v>0.7485140812169917</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78349321434327002</v>
+        <v>0.75950872818990467</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80005789966641905</v>
+        <v>0.85900953437868155</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.75942984842103223</v>
+        <v>0.70044500582522395</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55686961537379476</v>
+        <v>0.54538776763412888</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31979917336013219</v>
+        <v>0.3042749416436209</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8741194066015657E-2</v>
+        <v>7.0129905057248296E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3463542629937818E-4</v>
+        <v>4.1707439897415078E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6693797202157809E-5</v>
+        <v>7.8197597147298159E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.857676922373594E-5</v>
+        <v>1.9554493919722043E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26552,108 +26552,108 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1909315862190484</v>
+        <v>1.0888517359717014</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94765213442561902</v>
+        <v>0.99752856255328326</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99223360771491176</v>
+        <v>1.0966792506322711</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0565321742606231</v>
+        <v>0.95591006242627796</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.93252728237482185</v>
+        <v>0.88812122130935411</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7612256071469139</v>
+        <v>0.7691550405546943</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68487794834636728</v>
+        <v>0.71341452952746587</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64011790591916518</v>
+        <v>0.62091436874159012</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56290685548690556</v>
+        <v>0.58660819677056475</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52291533826158909</v>
+        <v>0.57193865122361309</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5324927780812696</v>
+        <v>0.57686717625470885</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51963903435124725</v>
+        <v>0.54642455158584768</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.50956999885393695</v>
+        <v>0.51456578315642643</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53171500275750638</v>
+        <v>0.51145919312864896</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.59695808383951776</v>
+        <v>0.61561302395950268</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71840375520912669</v>
+        <v>0.73235334268891561</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66701781985545883</v>
+        <v>0.72318774152749743</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80098781171987854</v>
+        <v>0.75340437736028165</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78461792075552139</v>
+        <v>0.7695291145871459</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7951588989085745</v>
+        <v>0.82665034044950825</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87302872321241498</v>
+        <v>0.8557410257230601</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84814195323338282</v>
+        <v>0.82294961798882682</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.78188659996107024</v>
+        <v>0.80657775574931456</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97819787865385355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.89435234619780879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -26667,7 +26667,7 @@
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1283030081375146E-6</v>
+        <v>3.1941620188351465E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,55 +26687,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3911581365566775E-3</v>
+        <v>5.1797401704171998E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11257100471359399</v>
+        <v>0.10819931521015345</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27776372424653034</v>
+        <v>0.25618984275165418</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36698991360638916</v>
+        <v>0.37789060410954922</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37975436409495233</v>
+        <v>0.41173367896610624</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43371559824021666</v>
+        <v>0.42950476718934077</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37234181888604007</v>
+        <v>0.35759560823708803</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29852804123131266</v>
+        <v>0.28130526962181385</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.14748020130685707</v>
+        <v>0.15524231716511272</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4370597033007828E-2</v>
+        <v>3.2981886041775189E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1073232790272883E-4</v>
+        <v>2.2609822681230282E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8346898601078904E-5</v>
+        <v>3.7594998628508729E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0168336838255462E-5</v>
+        <v>1.0070564368656853E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26754,7 +26754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5957206284153006E-6</v>
+        <v>5.8841598360655738E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2929505348815944E-6</v>
+        <v>3.4575980616256742E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26792,51 +26792,51 @@
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11147808233773386</v>
+        <v>0.10710639283429331</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25618984275165418</v>
+        <v>0.26697678349909226</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35972278660428242</v>
+        <v>0.37062347710744253</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.39974143588942351</v>
+        <v>0.38375177845384656</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.421083105087589</v>
+        <v>0.44213726034196849</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35022250291261198</v>
+        <v>0.36865526622380207</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29565757929639619</v>
+        <v>0.29852804123131266</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16145200985171723</v>
+        <v>0.15834716350841499</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3676241537391509E-2</v>
+        <v>3.4370597033007828E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1512258473403568E-4</v>
+        <v>2.3048848364360966E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9098798573649079E-5</v>
+        <v>3.7594998628508729E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.386157081466581E-6</v>
+        <v>9.6794744902624106E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26855,7 +26855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -26865,7 +26865,7 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4803449453551911E-6</v>
+        <v>5.7110963114754101E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,55 +26889,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3383036450218085E-3</v>
+        <v>5.2325946619520688E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10601347045843318</v>
+        <v>0.10710639283429331</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26428004831223273</v>
+        <v>0.25888657793851372</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35245565960217573</v>
+        <v>0.35972278660428242</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40373885024831774</v>
+        <v>0.41173367896610624</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4379264292910926</v>
+        <v>0.42950476718934077</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35759560823708803</v>
+        <v>0.36128216089932602</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28130526962181385</v>
+        <v>0.27556434575198091</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16145200985171723</v>
+        <v>0.15058504765015934</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4023419285199669E-2</v>
+        <v>3.4370597033007828E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2170796998099597E-4</v>
+        <v>2.1731771314968909E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6467148669653467E-5</v>
+        <v>3.7219048642223642E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.6794744902624106E-6</v>
+        <v>9.5817020206638013E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26969,9 +26969,9 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -26982,7 +26982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -27004,7 +27004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -27050,9 +27050,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -27129,7 +27129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -27206,7 +27206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.130681693989071E-5</v>
+        <v>1.1652943989071037E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7834781018560848E-6</v>
+        <v>6.9151961232513485E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,19 +27240,19 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0465189323904138E-2</v>
+        <v>1.0676607290043617E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.21421278566858662</v>
+        <v>0.21202694091686636</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51237968550330837</v>
+        <v>0.56631438924049882</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71944557320856484</v>
+        <v>0.69764419220224472</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27260,15 +27260,15 @@
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84216621017517801</v>
+        <v>0.83374454807342624</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76680295374550833</v>
+        <v>0.77417605906998432</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54538776763412888</v>
+        <v>0.56261053924362769</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27276,11 +27276,11 @@
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2212971544097254E-2</v>
+        <v>6.8741194066015657E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6097696728721933E-4</v>
+        <v>4.3463542629937818E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27288,7 +27288,7 @@
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9945583798116484E-5</v>
+        <v>1.9554493919722043E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27307,29 +27307,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.122878352720817</v>
+        <v>1.1569049694699327</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.017479133804349</v>
+        <v>1.0075038481788161</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0026781720066478</v>
+        <v>1.0653455577570632</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99615890716001609</v>
+        <v>0.9659722736097125</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.91476485794863471</v>
+        <v>0.88812122130935411</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27337,78 +27337,78 @@
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72054867482274065</v>
+        <v>0.73481696541328989</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60811201062320686</v>
+        <v>0.63371672685997349</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56883219080782044</v>
+        <v>0.60438420273330917</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56649161645005486</v>
+        <v>0.56104458167649662</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55467997716798922</v>
+        <v>0.5324927780812696</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54642455158584768</v>
+        <v>0.55178165503276777</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.48958686164397858</v>
+        <v>0.52455735176140561</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51145919312864896</v>
+        <v>0.49120338349979148</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62183133733283102</v>
+        <v>0.6031763972128461</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66958019902986565</v>
+        <v>0.66260540528997125</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.68808154048247339</v>
+        <v>0.70914526110948783</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76133494975354776</v>
+        <v>0.79305723932661232</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76198471150295821</v>
+        <v>0.74689590533458272</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74792173659717409</v>
+        <v>0.81090461967904137</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86438487446773749</v>
+        <v>0.88167257195709225</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82294961798882682</v>
+        <v>0.81455217290730808</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83126891153755889</v>
+        <v>0.83949929680030699</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95024936783517189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.93161702728938423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5380327868852455E-6</v>
+        <v>5.6534084699453549E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1612325134863303E-6</v>
+        <v>3.2270915241839626E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,7 +27442,7 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0211766958125912E-3</v>
+        <v>5.4968671196264163E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27450,7 +27450,7 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28315719462024941</v>
+        <v>0.25618984275165418</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27462,7 +27462,7 @@
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40423978088408541</v>
+        <v>0.41266144298583723</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27470,27 +27470,27 @@
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28417573155673032</v>
+        <v>0.30139850316622913</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15368989399346158</v>
+        <v>0.14748020130685707</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4023419285199669E-2</v>
+        <v>3.6106485772048627E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2829335522795623E-4</v>
+        <v>2.2609822681230282E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6091198683368379E-5</v>
+        <v>3.5715248697083292E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0168336838255462E-5</v>
+        <v>9.6794744902624106E-6</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4803449453551911E-6</v>
+        <v>5.7110963114754101E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1612325134863303E-6</v>
+        <v>3.3917390509280424E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,27 +27543,27 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4440126280915473E-3</v>
+        <v>5.3383036450218085E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11147808233773386</v>
+        <v>0.10601347045843318</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28046045943338987</v>
+        <v>0.2696735186859518</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36335635010533579</v>
+        <v>0.35608922310322905</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40373885024831774</v>
+        <v>0.41972850768389469</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40423978088408541</v>
+        <v>0.43371559824021666</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27571,27 +27571,27 @@
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27269388381706444</v>
+        <v>0.29852804123131266</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.1598995866800661</v>
+        <v>0.14903262447850821</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3329063789583349E-2</v>
+        <v>3.4023419285199669E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2609822681230282E-4</v>
+        <v>2.1951284156534253E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7594998628508729E-5</v>
+        <v>3.8346898601078904E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.6794744902624106E-6</v>
+        <v>9.4839295510651903E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27610,7 +27610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5957206284153006E-6</v>
+        <v>5.8264719945355187E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2600210295327783E-6</v>
+        <v>3.4575980616256742E-6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,55 +27644,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.074031187347461E-3</v>
+        <v>5.2325946619520688E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10492054808257303</v>
+        <v>0.10929223758601359</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26428004831223273</v>
+        <v>0.27237025387281133</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34882209610112236</v>
+        <v>0.34518853260006899</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38375177845384656</v>
+        <v>0.41173367896610624</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43371559824021666</v>
+        <v>0.41687227403671312</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37234181888604007</v>
+        <v>0.35759560823708803</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28704619349164678</v>
+        <v>0.29278711736147972</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15524231716511272</v>
+        <v>0.15058504765015934</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4370597033007828E-2</v>
+        <v>3.5759308024240467E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0853719948707539E-4</v>
+        <v>2.2829335522795623E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7594998628508729E-5</v>
+        <v>3.6843098655938554E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.8750194294596327E-6</v>
+        <v>9.5817020206638013E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27724,9 +27724,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -27803,7 +27803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -27880,7 +27880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0960689890710382E-5</v>
+        <v>1.1076065573770491E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5859010697631888E-6</v>
+        <v>6.7834781018560848E-6</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,55 +27914,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0148062374694922E-2</v>
+        <v>1.0570898306973877E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.22951369893062853</v>
+        <v>0.22077031992374743</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.55552744849306068</v>
+        <v>0.56092091886677975</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71944557320856484</v>
+        <v>0.71217844620645809</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.79148804306105858</v>
+        <v>0.75950872818990467</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82532288597167447</v>
+        <v>0.80005789966641905</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72256432179865204</v>
+        <v>0.77417605906998432</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54538776763412888</v>
+        <v>0.55112869150396182</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3042749416436209</v>
+        <v>0.32290401970343446</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7352483074783018E-2</v>
+        <v>6.9435549561631976E-2</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5219645362460563E-4</v>
+        <v>4.2585491263676448E-4</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8197597147298159E-5</v>
+        <v>7.3686197311877109E-5</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8967859102130381E-5</v>
+        <v>1.9750038858919265E-5</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27981,7 +27981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -27991,11 +27991,11 @@
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98755327692775052</v>
+        <v>0.99752856255328326</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0757901220487991</v>
+        <v>1.0235673005901196</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28003,7 +28003,7 @@
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84371516024388638</v>
+        <v>0.92364607016172828</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28011,78 +28011,78 @@
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71341452952746587</v>
+        <v>0.69201209364164185</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64651908497835686</v>
+        <v>0.67212380121512338</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60438420273330917</v>
+        <v>0.5747575261287351</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.5555975469029385</v>
+        <v>0.56104458167649662</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.56022677693966916</v>
+        <v>0.5324927780812696</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.53571034469200751</v>
+        <v>0.50892482745740708</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51956156745891613</v>
+        <v>0.50956999885393695</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.49626733590700584</v>
+        <v>0.51145919312864896</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65292290419947263</v>
+        <v>0.62804965070615937</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7114289614692324</v>
+        <v>0.71840375520912669</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69510278069147802</v>
+        <v>0.66701781985545883</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.76133494975354776</v>
+        <v>0.78512666693334621</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.74689590533458272</v>
+        <v>0.7770735176713337</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82665034044950825</v>
+        <v>0.7951588989085745</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87302872321241498</v>
+        <v>0.89896026944644702</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86493684339642007</v>
+        <v>0.83134706307034545</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84772968206305521</v>
+        <v>0.79834737048656634</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97819787865385355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.91298468674359656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8264719945355187E-6</v>
+        <v>5.5957206284153006E-6</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2270915241839626E-6</v>
+        <v>3.3588095455792263E-6</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,11 +28116,11 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5497216111612862E-3</v>
+        <v>5.4968671196264163E-3</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11147808233773386</v>
+        <v>0.11038515996187372</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28128,15 +28128,15 @@
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35245565960217573</v>
+        <v>0.37789060410954922</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41972850768389469</v>
+        <v>0.41173367896610624</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41266144298583723</v>
+        <v>0.421083105087589</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28144,27 +28144,27 @@
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29565757929639619</v>
+        <v>0.30139850316622913</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15058504765015934</v>
+        <v>0.16300443302336837</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5412130276432308E-2</v>
+        <v>3.5064952528624148E-2</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1951284156534253E-4</v>
+        <v>2.1731771314968909E-4</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7594998628508729E-5</v>
+        <v>3.7219048642223642E-5</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.7772469598610216E-6</v>
+        <v>1.0168336838255462E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28183,7 +28183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9418476775956281E-6</v>
+        <v>5.8264719945355187E-6</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3258800402304106E-6</v>
+        <v>3.2929505348815944E-6</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,55 +28217,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5497216111612862E-3</v>
+        <v>5.3383036450218085E-3</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10929223758601359</v>
+        <v>0.10601347045843318</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2696735186859518</v>
+        <v>0.27506698905967086</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35972278660428242</v>
+        <v>0.37062347710744253</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41972850768389469</v>
+        <v>0.40373885024831774</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40002894983320952</v>
+        <v>0.40423978088408541</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35759560823708803</v>
+        <v>0.37234181888604007</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.29278711736147972</v>
+        <v>0.28417573155673032</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.16300443302336837</v>
+        <v>0.15524231716511272</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6453663519856787E-2</v>
+        <v>3.4717774780815988E-2</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1512258473403568E-4</v>
+        <v>2.1292745631838224E-4</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9474748559934167E-5</v>
+        <v>3.5715248697083292E-5</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.972791899058242E-6</v>
+        <v>9.28838461186797E-6</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -28294,7 +28294,7 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6534084699453549E-6</v>
+        <v>6.0572233606557376E-6</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,55 +28318,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.12688567888233E-3</v>
+        <v>5.2325946619520688E-3</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10819931521015345</v>
+        <v>0.1038276257067129</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2696735186859518</v>
+        <v>0.27776372424653034</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35608922310322905</v>
+        <v>0.37789060410954922</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41173367896610624</v>
+        <v>0.39574402153052929</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43371559824021666</v>
+        <v>0.42529393613846489</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38708802953499216</v>
+        <v>0.38340147687275417</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27269388381706444</v>
+        <v>0.27843480768689738</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.15368989399346158</v>
+        <v>0.15524231716511272</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2981886041775189E-2</v>
+        <v>3.5064952528624148E-2</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1731771314968909E-4</v>
+        <v>2.2170796998099597E-4</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8722848587363992E-5</v>
+        <v>3.6843098655938554E-5</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0168336838255462E-5</v>
+        <v>9.6794744902624106E-6</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28398,9 +28398,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -28477,7 +28477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -28554,7 +28554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -28631,7 +28631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -28708,7 +28708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -28862,7 +28862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -28952,9 +28952,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -29031,7 +29031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -29108,7 +29108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -29185,7 +29185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -29262,7 +29262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -29339,7 +29339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -29416,7 +29416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -29506,9 +29506,9 @@
       <selection activeCell="A4" sqref="A4:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -29585,7 +29585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -29662,7 +29662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -29739,7 +29739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -29816,7 +29816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -29893,7 +29893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -29970,7 +29970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -30060,9 +30060,9 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -30139,7 +30139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -30216,7 +30216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -30293,7 +30293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -30370,7 +30370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -30447,7 +30447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -30524,7 +30524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -30614,9 +30614,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -30624,7 +30624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -30633,7 +30633,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -30642,7 +30642,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -30651,7 +30651,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -30660,7 +30660,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -30669,7 +30669,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -30678,7 +30678,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -30687,7 +30687,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -30709,12 +30709,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -30791,7 +30791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -30892,7 +30892,7 @@
         <v>0.90104000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -30993,7 +30993,7 @@
         <v>-1.9595199999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -31107,9 +31107,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -31186,7 +31186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -31287,7 +31287,7 @@
         <v>4.4384826173721041</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -31388,7 +31388,7 @@
         <v>3.3432614578733353</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -31489,7 +31489,7 @@
         <v>2.260579050524973</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -31590,7 +31590,7 @@
         <v>1.1947230905095865</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -31691,7 +31691,7 @@
         <v>2.2044258438616193</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -31792,7 +31792,7 @@
         <v>2.1637239265888124</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -31893,7 +31893,7 @@
         <v>1.9139175553773</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -31994,7 +31994,7 @@
         <v>1.492971542069079</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -32020,7 +32020,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -32046,7 +32046,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -32072,7 +32072,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -32098,7 +32098,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -32124,7 +32124,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -32150,7 +32150,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -32189,9 +32189,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -32268,7 +32268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -32369,7 +32369,7 @@
         <v>4.4810653635458255</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -32470,7 +32470,7 @@
         <v>3.3751923391187355</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -32571,7 +32571,7 @@
         <v>2.303387858202139</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -32672,7 +32672,7 @@
         <v>1.2168154723197779</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -32773,7 +32773,7 @@
         <v>2.2255690623002353</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -32874,7 +32874,7 @@
         <v>2.1637239265888124</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -32975,7 +32975,7 @@
         <v>1.9139175553773</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -33076,7 +33076,7 @@
         <v>1.5070002174897696</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -33102,7 +33102,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -33128,7 +33128,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -33154,7 +33154,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -33180,7 +33180,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -33206,7 +33206,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -33232,7 +33232,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -33271,9 +33271,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -33350,7 +33350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -33451,7 +33451,7 @@
         <v>4.3958998711983828</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -33552,7 +33552,7 @@
         <v>3.3751923391187355</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -33653,7 +33653,7 @@
         <v>2.260579050524973</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -33754,7 +33754,7 @@
         <v>1.2168154723197779</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -33855,7 +33855,7 @@
         <v>2.1621394069843869</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -33956,7 +33956,7 @@
         <v>2.1637239265888124</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -34057,7 +34057,7 @@
         <v>1.8774412842697539</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -34158,7 +34158,7 @@
         <v>1.5070002174897696</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -34184,7 +34184,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -34210,7 +34210,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -34236,7 +34236,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -34262,7 +34262,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -34288,7 +34288,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -34314,7 +34314,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -34353,9 +34353,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -34432,7 +34432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -34533,7 +34533,7 @@
         <v>0.43445262281234803</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -34634,7 +34634,7 @@
         <v>-1.1408683058709326</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -34735,7 +34735,7 @@
         <v>-0.89722463313374456</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -34836,7 +34836,7 @@
         <v>-0.78414657802614673</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -34937,7 +34937,7 @@
         <v>-0.6045365802190642</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -35038,7 +35038,7 @@
         <v>0.31759335245154457</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -35139,7 +35139,7 @@
         <v>-0.71389659638081793</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -35240,7 +35240,7 @@
         <v>-0.85678226150637793</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -35266,7 +35266,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -35292,7 +35292,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -35318,7 +35318,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -35344,7 +35344,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -35370,7 +35370,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -35396,7 +35396,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
